--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">TGH-52H-TGNM</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-22</t>
@@ -347,7 +347,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7D970-514A-4555-9B86-91696CA3F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,235 +27,211 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
-    <t xml:space="preserve">selectType</t>
+    <t>selectType</t>
   </si>
   <si>
-    <t xml:space="preserve">typeCode</t>
+    <t>typeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">contractNo</t>
+    <t>contractNo</t>
   </si>
   <si>
-    <t xml:space="preserve">creationDate</t>
+    <t>creationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">effectiveDate</t>
+    <t>effectiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">expireDate</t>
+    <t>expireDate</t>
   </si>
   <si>
-    <t xml:space="preserve">receiveDate</t>
+    <t>receiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">sendFormType</t>
+    <t>sendFormType</t>
   </si>
   <si>
-    <t xml:space="preserve">fillingNo</t>
+    <t>fillingNo</t>
   </si>
   <si>
-    <t xml:space="preserve">overdueFlag</t>
+    <t>overdueFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">dupNumber</t>
+    <t>dupNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">instAmount</t>
+    <t>instAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerId</t>
+    <t>taxPayerId</t>
   </si>
   <si>
-    <t xml:space="preserve">branchNo</t>
+    <t>branchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerBranchType</t>
+    <t>taxPayerBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerRelationship</t>
+    <t>taxPayerRelationship</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyId</t>
+    <t>contractPartyId</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyFirstName</t>
+    <t>contractPartyFirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyLastName</t>
+    <t>contractPartyLastName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchNo</t>
+    <t>contractPartyBranchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchType</t>
+    <t>contractPartyBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingName</t>
+    <t>buildingName</t>
   </si>
   <si>
-    <t xml:space="preserve">roomNo</t>
+    <t>roomNo</t>
   </si>
   <si>
-    <t xml:space="preserve">floorNo</t>
+    <t>floorNo</t>
   </si>
   <si>
-    <t xml:space="preserve">villageName</t>
+    <t>villageName</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingNumber</t>
+    <t>buildingNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">moo</t>
+    <t>moo</t>
   </si>
   <si>
-    <t xml:space="preserve">soiName</t>
+    <t>soiName</t>
   </si>
   <si>
-    <t xml:space="preserve">junctionName</t>
+    <t>junctionName</t>
   </si>
   <si>
-    <t xml:space="preserve">streetName</t>
+    <t>streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">subdistrict</t>
+    <t>subdistrict</t>
   </si>
   <si>
-    <t xml:space="preserve">district</t>
+    <t>district</t>
   </si>
   <si>
-    <t xml:space="preserve">province</t>
+    <t>province</t>
   </si>
   <si>
-    <t xml:space="preserve">postCode</t>
+    <t>postCode</t>
   </si>
   <si>
-    <t xml:space="preserve">countryId</t>
+    <t>countryId</t>
   </si>
   <si>
-    <t xml:space="preserve">totalParty</t>
+    <t>totalParty</t>
   </si>
   <si>
-    <t xml:space="preserve">arrayDetail</t>
+    <t>arrayDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">relateParty</t>
+    <t>relateParty</t>
   </si>
   <si>
-    <t xml:space="preserve">relateContract</t>
+    <t>relateContract</t>
   </si>
   <si>
-    <t xml:space="preserve">dupDutyAmount</t>
+    <t>dupDutyAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">issueNumber</t>
+    <t>issueNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0</t>
+    <t>0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">TGH-52H-TGNM</t>
+    <t>TGH-52H-TGNM</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-01</t>
+    <t>2023-08-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-22</t>
+    <t>2023-12-31</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-31</t>
+    <t>new_entry</t>
   </si>
   <si>
-    <t xml:space="preserve">new_entry</t>
+    <t>51000</t>
   </si>
   <si>
-    <t xml:space="preserve">51000</t>
+    <t>0105556078229</t>
   </si>
   <si>
-    <t xml:space="preserve">0105556078229</t>
+    <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t>O</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t>1721000011382</t>
   </si>
   <si>
-    <t xml:space="preserve">1721000011382</t>
+    <t>สมหมาย</t>
   </si>
   <si>
-    <t xml:space="preserve">สมหมาย</t>
+    <t>ดั่งใจหวัง</t>
   </si>
   <si>
-    <t xml:space="preserve">ดั่งใจหวัง</t>
+    <t>888/77</t>
   </si>
   <si>
-    <t xml:space="preserve">888/77</t>
+    <t>99</t>
   </si>
   <si>
-    <t xml:space="preserve">99</t>
+    <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>หมู่บ้านรื่นรนย์</t>
   </si>
   <si>
-    <t xml:space="preserve">หมู่บ้านรื่นรนย์</t>
+    <t>ตำบลหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">ตำบลหนองใหญ่</t>
+    <t>อำเภอหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">อำเภอหนองใหญ่</t>
+    <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
-    <t xml:space="preserve">จังหวัดนนทบุรี</t>
+    <t>10600</t>
   </si>
   <si>
-    <t xml:space="preserve">10600</t>
+    <t>TH</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
+    <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+    <t>2023-09-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
@@ -269,7 +250,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -277,126 +258,385 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16376" min="42" style="1" width="2.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
+    <col min="42" max="16376" width="2.6640625" style="1"/>
+    <col min="16381" max="16384" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +766,7 @@
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -537,62 +777,62 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -600,30 +840,30 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
@@ -631,7 +871,7 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -678,12 +918,12 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
-      <c r="XFA3" s="4"/>
-      <c r="XFB3" s="4"/>
-      <c r="XFC3" s="4"/>
-      <c r="XFD3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="XFA3"/>
+      <c r="XFB3"/>
+      <c r="XFC3"/>
+      <c r="XFD3"/>
+    </row>
+    <row r="4" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -731,7 +971,7 @@
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -779,7 +1019,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -827,7 +1067,7 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -873,14 +1113,14 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -920,13 +1160,13 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -967,13 +1207,13 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1014,13 +1254,13 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1061,9 +1301,9 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1109,7 +1349,7 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1156,7 +1396,7 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1204,7 +1444,7 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1252,7 +1492,7 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1300,7 +1540,7 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1348,7 +1588,7 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1396,7 +1636,7 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1444,7 +1684,7 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1492,7 +1732,7 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1540,7 +1780,7 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1588,7 +1828,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1636,7 +1876,7 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1684,7 +1924,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1732,7 +1972,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1780,7 +2020,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1828,7 +2068,7 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1876,7 +2116,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1924,7 +2164,7 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1972,7 +2212,7 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2020,7 +2260,7 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2068,7 +2308,7 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2116,7 +2356,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2164,7 +2404,7 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2212,7 +2452,7 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2260,7 +2500,7 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2308,7 +2548,7 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2356,7 +2596,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2404,7 +2644,7 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2452,7 +2692,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2500,7 +2740,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2548,7 +2788,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2596,7 +2836,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2644,7 +2884,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2692,7 +2932,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2740,7 +2980,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2788,7 +3028,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2836,7 +3076,7 @@
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2884,7 +3124,7 @@
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2932,7 +3172,7 @@
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2980,7 +3220,7 @@
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3028,7 +3268,7 @@
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3076,7 +3316,7 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3124,7 +3364,7 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3172,7 +3412,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3220,7 +3460,7 @@
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3268,7 +3508,7 @@
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3316,7 +3556,7 @@
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3364,7 +3604,7 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3412,7 +3652,7 @@
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3460,7 +3700,7 @@
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3508,7 +3748,7 @@
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3556,7 +3796,7 @@
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3604,7 +3844,7 @@
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3652,7 +3892,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3700,7 +3940,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3748,7 +3988,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3796,7 +4036,7 @@
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3844,7 +4084,7 @@
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3892,7 +4132,7 @@
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3940,7 +4180,7 @@
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3988,7 +4228,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4036,7 +4276,7 @@
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4084,7 +4324,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4132,7 +4372,7 @@
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4180,7 +4420,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4228,7 +4468,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4276,7 +4516,7 @@
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4324,7 +4564,7 @@
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4372,7 +4612,7 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4420,7 +4660,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4468,7 +4708,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4516,7 +4756,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4564,7 +4804,7 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4612,7 +4852,7 @@
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4660,7 +4900,7 @@
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4708,7 +4948,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4756,7 +4996,7 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4804,7 +5044,7 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4852,7 +5092,7 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4900,7 +5140,7 @@
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4948,7 +5188,7 @@
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4996,7 +5236,7 @@
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5044,7 +5284,7 @@
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5092,7 +5332,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5140,7 +5380,7 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5188,7 +5428,7 @@
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5236,7 +5476,7 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5284,7 +5524,7 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5332,7 +5572,7 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5380,7 +5620,7 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5428,7 +5668,7 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5476,7 +5716,7 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5524,7 +5764,7 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5572,7 +5812,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5620,7 +5860,7 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5668,7 +5908,7 @@
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5716,7 +5956,7 @@
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5764,7 +6004,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5812,7 +6052,7 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5860,7 +6100,7 @@
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5908,7 +6148,7 @@
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5956,7 +6196,7 @@
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6004,7 +6244,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6052,7 +6292,7 @@
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6100,7 +6340,7 @@
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6148,7 +6388,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6196,7 +6436,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6244,7 +6484,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6292,7 +6532,7 @@
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6340,7 +6580,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6388,7 +6628,7 @@
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6436,7 +6676,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6484,7 +6724,7 @@
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6532,7 +6772,7 @@
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6580,7 +6820,7 @@
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6628,7 +6868,7 @@
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6676,7 +6916,7 @@
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6724,7 +6964,7 @@
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6772,7 +7012,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6820,7 +7060,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6868,7 +7108,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6916,7 +7156,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6964,7 +7204,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7012,7 +7252,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7060,7 +7300,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7108,7 +7348,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7156,7 +7396,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7204,7 +7444,7 @@
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7252,7 +7492,7 @@
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7300,7 +7540,7 @@
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7348,7 +7588,7 @@
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7396,7 +7636,7 @@
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7444,7 +7684,7 @@
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7492,7 +7732,7 @@
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7540,7 +7780,7 @@
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7588,7 +7828,7 @@
       <c r="AS147" s="2"/>
       <c r="AT147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7636,7 +7876,7 @@
       <c r="AS148" s="2"/>
       <c r="AT148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7684,7 +7924,7 @@
       <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7732,7 +7972,7 @@
       <c r="AS150" s="2"/>
       <c r="AT150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7780,7 +8020,7 @@
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7828,7 +8068,7 @@
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7876,7 +8116,7 @@
       <c r="AS153" s="2"/>
       <c r="AT153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7924,7 +8164,7 @@
       <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7972,7 +8212,7 @@
       <c r="AS155" s="2"/>
       <c r="AT155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8020,7 +8260,7 @@
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8068,7 +8308,7 @@
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8116,7 +8356,7 @@
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8164,7 +8404,7 @@
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8212,7 +8452,7 @@
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8260,7 +8500,7 @@
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8308,7 +8548,7 @@
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8356,7 +8596,7 @@
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8404,7 +8644,7 @@
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8452,7 +8692,7 @@
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8500,7 +8740,7 @@
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8548,7 +8788,7 @@
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8596,7 +8836,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8644,7 +8884,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8692,7 +8932,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8740,7 +8980,7 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8788,7 +9028,7 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8836,7 +9076,7 @@
       <c r="AS173" s="2"/>
       <c r="AT173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8884,7 +9124,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8932,7 +9172,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8980,7 +9220,7 @@
       <c r="AS176" s="2"/>
       <c r="AT176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9028,7 +9268,7 @@
       <c r="AS177" s="2"/>
       <c r="AT177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9076,7 +9316,7 @@
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9124,7 +9364,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9172,7 +9412,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9220,7 +9460,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9268,7 +9508,7 @@
       <c r="AS182" s="2"/>
       <c r="AT182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9316,7 +9556,7 @@
       <c r="AS183" s="2"/>
       <c r="AT183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9364,7 +9604,7 @@
       <c r="AS184" s="2"/>
       <c r="AT184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9412,7 +9652,7 @@
       <c r="AS185" s="2"/>
       <c r="AT185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9460,7 +9700,7 @@
       <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9508,7 +9748,7 @@
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9556,7 +9796,7 @@
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9604,7 +9844,7 @@
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9652,7 +9892,7 @@
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9700,7 +9940,7 @@
       <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9748,7 +9988,7 @@
       <c r="AS192" s="2"/>
       <c r="AT192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9796,7 +10036,7 @@
       <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9844,7 +10084,7 @@
       <c r="AS194" s="2"/>
       <c r="AT194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9892,7 +10132,7 @@
       <c r="AS195" s="2"/>
       <c r="AT195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9940,7 +10180,7 @@
       <c r="AS196" s="2"/>
       <c r="AT196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9988,7 +10228,7 @@
       <c r="AS197" s="2"/>
       <c r="AT197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10036,7 +10276,7 @@
       <c r="AS198" s="2"/>
       <c r="AT198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10084,7 +10324,7 @@
       <c r="AS199" s="2"/>
       <c r="AT199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10132,7 +10372,7 @@
       <c r="AS200" s="2"/>
       <c r="AT200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10180,7 +10420,7 @@
       <c r="AS201" s="2"/>
       <c r="AT201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10228,7 +10468,7 @@
       <c r="AS202" s="2"/>
       <c r="AT202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10276,7 +10516,7 @@
       <c r="AS203" s="2"/>
       <c r="AT203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10324,7 +10564,7 @@
       <c r="AS204" s="2"/>
       <c r="AT204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10372,7 +10612,7 @@
       <c r="AS205" s="2"/>
       <c r="AT205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10420,7 +10660,7 @@
       <c r="AS206" s="2"/>
       <c r="AT206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10468,7 +10708,7 @@
       <c r="AS207" s="2"/>
       <c r="AT207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10516,7 +10756,7 @@
       <c r="AS208" s="2"/>
       <c r="AT208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10564,7 +10804,7 @@
       <c r="AS209" s="2"/>
       <c r="AT209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10612,7 +10852,7 @@
       <c r="AS210" s="2"/>
       <c r="AT210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10660,7 +10900,7 @@
       <c r="AS211" s="2"/>
       <c r="AT211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10708,7 +10948,7 @@
       <c r="AS212" s="2"/>
       <c r="AT212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10756,7 +10996,7 @@
       <c r="AS213" s="2"/>
       <c r="AT213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10804,7 +11044,7 @@
       <c r="AS214" s="2"/>
       <c r="AT214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10852,7 +11092,7 @@
       <c r="AS215" s="2"/>
       <c r="AT215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10900,7 +11140,7 @@
       <c r="AS216" s="2"/>
       <c r="AT216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10948,7 +11188,7 @@
       <c r="AS217" s="2"/>
       <c r="AT217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10996,7 +11236,7 @@
       <c r="AS218" s="2"/>
       <c r="AT218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11044,7 +11284,7 @@
       <c r="AS219" s="2"/>
       <c r="AT219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11092,7 +11332,7 @@
       <c r="AS220" s="2"/>
       <c r="AT220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11140,7 +11380,7 @@
       <c r="AS221" s="2"/>
       <c r="AT221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11188,7 +11428,7 @@
       <c r="AS222" s="2"/>
       <c r="AT222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11236,7 +11476,7 @@
       <c r="AS223" s="2"/>
       <c r="AT223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11284,7 +11524,7 @@
       <c r="AS224" s="2"/>
       <c r="AT224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11332,7 +11572,7 @@
       <c r="AS225" s="2"/>
       <c r="AT225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11380,7 +11620,7 @@
       <c r="AS226" s="2"/>
       <c r="AT226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11428,7 +11668,7 @@
       <c r="AS227" s="2"/>
       <c r="AT227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11476,7 +11716,7 @@
       <c r="AS228" s="2"/>
       <c r="AT228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11524,7 +11764,7 @@
       <c r="AS229" s="2"/>
       <c r="AT229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11572,7 +11812,7 @@
       <c r="AS230" s="2"/>
       <c r="AT230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11620,7 +11860,7 @@
       <c r="AS231" s="2"/>
       <c r="AT231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11668,7 +11908,7 @@
       <c r="AS232" s="2"/>
       <c r="AT232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11716,7 +11956,7 @@
       <c r="AS233" s="2"/>
       <c r="AT233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11764,7 +12004,7 @@
       <c r="AS234" s="2"/>
       <c r="AT234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11812,7 +12052,7 @@
       <c r="AS235" s="2"/>
       <c r="AT235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11860,7 +12100,7 @@
       <c r="AS236" s="2"/>
       <c r="AT236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11908,7 +12148,7 @@
       <c r="AS237" s="2"/>
       <c r="AT237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11956,7 +12196,7 @@
       <c r="AS238" s="2"/>
       <c r="AT238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12004,7 +12244,7 @@
       <c r="AS239" s="2"/>
       <c r="AT239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12052,7 +12292,7 @@
       <c r="AS240" s="2"/>
       <c r="AT240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12100,7 +12340,7 @@
       <c r="AS241" s="2"/>
       <c r="AT241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12148,7 +12388,7 @@
       <c r="AS242" s="2"/>
       <c r="AT242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12196,7 +12436,7 @@
       <c r="AS243" s="2"/>
       <c r="AT243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12244,7 +12484,7 @@
       <c r="AS244" s="2"/>
       <c r="AT244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12292,7 +12532,7 @@
       <c r="AS245" s="2"/>
       <c r="AT245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12340,7 +12580,7 @@
       <c r="AS246" s="2"/>
       <c r="AT246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12388,7 +12628,7 @@
       <c r="AS247" s="2"/>
       <c r="AT247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12436,7 +12676,7 @@
       <c r="AS248" s="2"/>
       <c r="AT248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12484,7 +12724,7 @@
       <c r="AS249" s="2"/>
       <c r="AT249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12532,7 +12772,7 @@
       <c r="AS250" s="2"/>
       <c r="AT250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12580,7 +12820,7 @@
       <c r="AS251" s="2"/>
       <c r="AT251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12628,7 +12868,7 @@
       <c r="AS252" s="2"/>
       <c r="AT252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12676,7 +12916,7 @@
       <c r="AS253" s="2"/>
       <c r="AT253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12724,7 +12964,7 @@
       <c r="AS254" s="2"/>
       <c r="AT254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12772,7 +13012,7 @@
       <c r="AS255" s="2"/>
       <c r="AT255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12820,7 +13060,7 @@
       <c r="AS256" s="2"/>
       <c r="AT256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12868,7 +13108,7 @@
       <c r="AS257" s="2"/>
       <c r="AT257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12916,7 +13156,7 @@
       <c r="AS258" s="2"/>
       <c r="AT258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12964,7 +13204,7 @@
       <c r="AS259" s="2"/>
       <c r="AT259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13012,7 +13252,7 @@
       <c r="AS260" s="2"/>
       <c r="AT260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13060,7 +13300,7 @@
       <c r="AS261" s="2"/>
       <c r="AT261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13108,7 +13348,7 @@
       <c r="AS262" s="2"/>
       <c r="AT262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13156,7 +13396,7 @@
       <c r="AS263" s="2"/>
       <c r="AT263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13204,7 +13444,7 @@
       <c r="AS264" s="2"/>
       <c r="AT264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13252,7 +13492,7 @@
       <c r="AS265" s="2"/>
       <c r="AT265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13300,7 +13540,7 @@
       <c r="AS266" s="2"/>
       <c r="AT266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13348,7 +13588,7 @@
       <c r="AS267" s="2"/>
       <c r="AT267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13396,7 +13636,7 @@
       <c r="AS268" s="2"/>
       <c r="AT268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13444,7 +13684,7 @@
       <c r="AS269" s="2"/>
       <c r="AT269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13492,7 +13732,7 @@
       <c r="AS270" s="2"/>
       <c r="AT270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13540,7 +13780,7 @@
       <c r="AS271" s="2"/>
       <c r="AT271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13588,7 +13828,7 @@
       <c r="AS272" s="2"/>
       <c r="AT272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13636,7 +13876,7 @@
       <c r="AS273" s="2"/>
       <c r="AT273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13684,7 +13924,7 @@
       <c r="AS274" s="2"/>
       <c r="AT274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13732,7 +13972,7 @@
       <c r="AS275" s="2"/>
       <c r="AT275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13780,7 +14020,7 @@
       <c r="AS276" s="2"/>
       <c r="AT276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13828,7 +14068,7 @@
       <c r="AS277" s="2"/>
       <c r="AT277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13876,7 +14116,7 @@
       <c r="AS278" s="2"/>
       <c r="AT278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13924,7 +14164,7 @@
       <c r="AS279" s="2"/>
       <c r="AT279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13972,7 +14212,7 @@
       <c r="AS280" s="2"/>
       <c r="AT280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14020,7 +14260,7 @@
       <c r="AS281" s="2"/>
       <c r="AT281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14068,7 +14308,7 @@
       <c r="AS282" s="2"/>
       <c r="AT282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14116,7 +14356,7 @@
       <c r="AS283" s="2"/>
       <c r="AT283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14164,7 +14404,7 @@
       <c r="AS284" s="2"/>
       <c r="AT284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14212,7 +14452,7 @@
       <c r="AS285" s="2"/>
       <c r="AT285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14260,7 +14500,7 @@
       <c r="AS286" s="2"/>
       <c r="AT286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14308,7 +14548,7 @@
       <c r="AS287" s="2"/>
       <c r="AT287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14356,7 +14596,7 @@
       <c r="AS288" s="2"/>
       <c r="AT288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14404,7 +14644,7 @@
       <c r="AS289" s="2"/>
       <c r="AT289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14452,7 +14692,7 @@
       <c r="AS290" s="2"/>
       <c r="AT290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14500,7 +14740,7 @@
       <c r="AS291" s="2"/>
       <c r="AT291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14548,7 +14788,7 @@
       <c r="AS292" s="2"/>
       <c r="AT292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14596,7 +14836,7 @@
       <c r="AS293" s="2"/>
       <c r="AT293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14644,7 +14884,7 @@
       <c r="AS294" s="2"/>
       <c r="AT294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14692,7 +14932,7 @@
       <c r="AS295" s="2"/>
       <c r="AT295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14740,7 +14980,7 @@
       <c r="AS296" s="2"/>
       <c r="AT296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14788,7 +15028,7 @@
       <c r="AS297" s="2"/>
       <c r="AT297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14836,7 +15076,7 @@
       <c r="AS298" s="2"/>
       <c r="AT298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14884,7 +15124,7 @@
       <c r="AS299" s="2"/>
       <c r="AT299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14932,7 +15172,7 @@
       <c r="AS300" s="2"/>
       <c r="AT300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14980,7 +15220,7 @@
       <c r="AS301" s="2"/>
       <c r="AT301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -15028,7 +15268,7 @@
       <c r="AS302" s="2"/>
       <c r="AT302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -15076,7 +15316,7 @@
       <c r="AS303" s="2"/>
       <c r="AT303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15124,7 +15364,7 @@
       <c r="AS304" s="2"/>
       <c r="AT304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -15172,7 +15412,7 @@
       <c r="AS305" s="2"/>
       <c r="AT305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -15220,7 +15460,7 @@
       <c r="AS306" s="2"/>
       <c r="AT306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -15268,7 +15508,7 @@
       <c r="AS307" s="2"/>
       <c r="AT307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -15316,7 +15556,7 @@
       <c r="AS308" s="2"/>
       <c r="AT308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -15364,7 +15604,7 @@
       <c r="AS309" s="2"/>
       <c r="AT309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15412,7 +15652,7 @@
       <c r="AS310" s="2"/>
       <c r="AT310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -15460,7 +15700,7 @@
       <c r="AS311" s="2"/>
       <c r="AT311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -15508,7 +15748,7 @@
       <c r="AS312" s="2"/>
       <c r="AT312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15556,7 +15796,7 @@
       <c r="AS313" s="2"/>
       <c r="AT313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15604,7 +15844,7 @@
       <c r="AS314" s="2"/>
       <c r="AT314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15652,7 +15892,7 @@
       <c r="AS315" s="2"/>
       <c r="AT315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15700,7 +15940,7 @@
       <c r="AS316" s="2"/>
       <c r="AT316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15748,7 +15988,7 @@
       <c r="AS317" s="2"/>
       <c r="AT317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15796,7 +16036,7 @@
       <c r="AS318" s="2"/>
       <c r="AT318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15844,7 +16084,7 @@
       <c r="AS319" s="2"/>
       <c r="AT319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15892,7 +16132,7 @@
       <c r="AS320" s="2"/>
       <c r="AT320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15940,7 +16180,7 @@
       <c r="AS321" s="2"/>
       <c r="AT321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15988,7 +16228,7 @@
       <c r="AS322" s="2"/>
       <c r="AT322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -16036,7 +16276,7 @@
       <c r="AS323" s="2"/>
       <c r="AT323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -16084,7 +16324,7 @@
       <c r="AS324" s="2"/>
       <c r="AT324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -16132,7 +16372,7 @@
       <c r="AS325" s="2"/>
       <c r="AT325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -16180,7 +16420,7 @@
       <c r="AS326" s="2"/>
       <c r="AT326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -16228,7 +16468,7 @@
       <c r="AS327" s="2"/>
       <c r="AT327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -16276,7 +16516,7 @@
       <c r="AS328" s="2"/>
       <c r="AT328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -16324,7 +16564,7 @@
       <c r="AS329" s="2"/>
       <c r="AT329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -16372,7 +16612,7 @@
       <c r="AS330" s="2"/>
       <c r="AT330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -16420,7 +16660,7 @@
       <c r="AS331" s="2"/>
       <c r="AT331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -16468,7 +16708,7 @@
       <c r="AS332" s="2"/>
       <c r="AT332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -16516,7 +16756,7 @@
       <c r="AS333" s="2"/>
       <c r="AT333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -16564,7 +16804,7 @@
       <c r="AS334" s="2"/>
       <c r="AT334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -16612,7 +16852,7 @@
       <c r="AS335" s="2"/>
       <c r="AT335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -16660,7 +16900,7 @@
       <c r="AS336" s="2"/>
       <c r="AT336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -16708,7 +16948,7 @@
       <c r="AS337" s="2"/>
       <c r="AT337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -16756,7 +16996,7 @@
       <c r="AS338" s="2"/>
       <c r="AT338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -16804,7 +17044,7 @@
       <c r="AS339" s="2"/>
       <c r="AT339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -16852,7 +17092,7 @@
       <c r="AS340" s="2"/>
       <c r="AT340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -16900,7 +17140,7 @@
       <c r="AS341" s="2"/>
       <c r="AT341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -16948,7 +17188,7 @@
       <c r="AS342" s="2"/>
       <c r="AT342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -16996,7 +17236,7 @@
       <c r="AS343" s="2"/>
       <c r="AT343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -17044,7 +17284,7 @@
       <c r="AS344" s="2"/>
       <c r="AT344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -17092,7 +17332,7 @@
       <c r="AS345" s="2"/>
       <c r="AT345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -17140,7 +17380,7 @@
       <c r="AS346" s="2"/>
       <c r="AT346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -17188,7 +17428,7 @@
       <c r="AS347" s="2"/>
       <c r="AT347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -17236,7 +17476,7 @@
       <c r="AS348" s="2"/>
       <c r="AT348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -17284,7 +17524,7 @@
       <c r="AS349" s="2"/>
       <c r="AT349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -17332,7 +17572,7 @@
       <c r="AS350" s="2"/>
       <c r="AT350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -17380,7 +17620,7 @@
       <c r="AS351" s="2"/>
       <c r="AT351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -17428,7 +17668,7 @@
       <c r="AS352" s="2"/>
       <c r="AT352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -17476,7 +17716,7 @@
       <c r="AS353" s="2"/>
       <c r="AT353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -17524,7 +17764,7 @@
       <c r="AS354" s="2"/>
       <c r="AT354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -17572,7 +17812,7 @@
       <c r="AS355" s="2"/>
       <c r="AT355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -17620,7 +17860,7 @@
       <c r="AS356" s="2"/>
       <c r="AT356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -17668,7 +17908,7 @@
       <c r="AS357" s="2"/>
       <c r="AT357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -17716,7 +17956,7 @@
       <c r="AS358" s="2"/>
       <c r="AT358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -17764,7 +18004,7 @@
       <c r="AS359" s="2"/>
       <c r="AT359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -17812,7 +18052,7 @@
       <c r="AS360" s="2"/>
       <c r="AT360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -17860,7 +18100,7 @@
       <c r="AS361" s="2"/>
       <c r="AT361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -17908,7 +18148,7 @@
       <c r="AS362" s="2"/>
       <c r="AT362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -17956,7 +18196,7 @@
       <c r="AS363" s="2"/>
       <c r="AT363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -18004,7 +18244,7 @@
       <c r="AS364" s="2"/>
       <c r="AT364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -18052,7 +18292,7 @@
       <c r="AS365" s="2"/>
       <c r="AT365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -18100,7 +18340,7 @@
       <c r="AS366" s="2"/>
       <c r="AT366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -18148,7 +18388,7 @@
       <c r="AS367" s="2"/>
       <c r="AT367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -18196,7 +18436,7 @@
       <c r="AS368" s="2"/>
       <c r="AT368" s="2"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -18244,7 +18484,7 @@
       <c r="AS369" s="2"/>
       <c r="AT369" s="2"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -18292,7 +18532,7 @@
       <c r="AS370" s="2"/>
       <c r="AT370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -18340,7 +18580,7 @@
       <c r="AS371" s="2"/>
       <c r="AT371" s="2"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -18388,7 +18628,7 @@
       <c r="AS372" s="2"/>
       <c r="AT372" s="2"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -18436,7 +18676,7 @@
       <c r="AS373" s="2"/>
       <c r="AT373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -18484,7 +18724,7 @@
       <c r="AS374" s="2"/>
       <c r="AT374" s="2"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -18532,7 +18772,7 @@
       <c r="AS375" s="2"/>
       <c r="AT375" s="2"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -18580,7 +18820,7 @@
       <c r="AS376" s="2"/>
       <c r="AT376" s="2"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -18628,7 +18868,7 @@
       <c r="AS377" s="2"/>
       <c r="AT377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -18676,7 +18916,7 @@
       <c r="AS378" s="2"/>
       <c r="AT378" s="2"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -18724,7 +18964,7 @@
       <c r="AS379" s="2"/>
       <c r="AT379" s="2"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -18772,7 +19012,7 @@
       <c r="AS380" s="2"/>
       <c r="AT380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -18820,7 +19060,7 @@
       <c r="AS381" s="2"/>
       <c r="AT381" s="2"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -18868,7 +19108,7 @@
       <c r="AS382" s="2"/>
       <c r="AT382" s="2"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -18916,7 +19156,7 @@
       <c r="AS383" s="2"/>
       <c r="AT383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -18964,7 +19204,7 @@
       <c r="AS384" s="2"/>
       <c r="AT384" s="2"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -19012,7 +19252,7 @@
       <c r="AS385" s="2"/>
       <c r="AT385" s="2"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -19060,7 +19300,7 @@
       <c r="AS386" s="2"/>
       <c r="AT386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -19108,7 +19348,7 @@
       <c r="AS387" s="2"/>
       <c r="AT387" s="2"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -19156,7 +19396,7 @@
       <c r="AS388" s="2"/>
       <c r="AT388" s="2"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -19204,7 +19444,7 @@
       <c r="AS389" s="2"/>
       <c r="AT389" s="2"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -19252,7 +19492,7 @@
       <c r="AS390" s="2"/>
       <c r="AT390" s="2"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -19300,7 +19540,7 @@
       <c r="AS391" s="2"/>
       <c r="AT391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -19348,7 +19588,7 @@
       <c r="AS392" s="2"/>
       <c r="AT392" s="2"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -19396,7 +19636,7 @@
       <c r="AS393" s="2"/>
       <c r="AT393" s="2"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -19444,7 +19684,7 @@
       <c r="AS394" s="2"/>
       <c r="AT394" s="2"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -19492,7 +19732,7 @@
       <c r="AS395" s="2"/>
       <c r="AT395" s="2"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -19540,7 +19780,7 @@
       <c r="AS396" s="2"/>
       <c r="AT396" s="2"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -19588,7 +19828,7 @@
       <c r="AS397" s="2"/>
       <c r="AT397" s="2"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -19636,7 +19876,7 @@
       <c r="AS398" s="2"/>
       <c r="AT398" s="2"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -19684,7 +19924,7 @@
       <c r="AS399" s="2"/>
       <c r="AT399" s="2"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -19732,7 +19972,7 @@
       <c r="AS400" s="2"/>
       <c r="AT400" s="2"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -19780,7 +20020,7 @@
       <c r="AS401" s="2"/>
       <c r="AT401" s="2"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -19828,7 +20068,7 @@
       <c r="AS402" s="2"/>
       <c r="AT402" s="2"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -19876,7 +20116,7 @@
       <c r="AS403" s="2"/>
       <c r="AT403" s="2"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -19924,7 +20164,7 @@
       <c r="AS404" s="2"/>
       <c r="AT404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -19972,7 +20212,7 @@
       <c r="AS405" s="2"/>
       <c r="AT405" s="2"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -20020,7 +20260,7 @@
       <c r="AS406" s="2"/>
       <c r="AT406" s="2"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -20068,7 +20308,7 @@
       <c r="AS407" s="2"/>
       <c r="AT407" s="2"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -20116,7 +20356,7 @@
       <c r="AS408" s="2"/>
       <c r="AT408" s="2"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -20164,7 +20404,7 @@
       <c r="AS409" s="2"/>
       <c r="AT409" s="2"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -20212,7 +20452,7 @@
       <c r="AS410" s="2"/>
       <c r="AT410" s="2"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -20260,7 +20500,7 @@
       <c r="AS411" s="2"/>
       <c r="AT411" s="2"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -20308,7 +20548,7 @@
       <c r="AS412" s="2"/>
       <c r="AT412" s="2"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -20356,7 +20596,7 @@
       <c r="AS413" s="2"/>
       <c r="AT413" s="2"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -20404,7 +20644,7 @@
       <c r="AS414" s="2"/>
       <c r="AT414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -20452,7 +20692,7 @@
       <c r="AS415" s="2"/>
       <c r="AT415" s="2"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -20500,7 +20740,7 @@
       <c r="AS416" s="2"/>
       <c r="AT416" s="2"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -20548,7 +20788,7 @@
       <c r="AS417" s="2"/>
       <c r="AT417" s="2"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -20596,7 +20836,7 @@
       <c r="AS418" s="2"/>
       <c r="AT418" s="2"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -20644,7 +20884,7 @@
       <c r="AS419" s="2"/>
       <c r="AT419" s="2"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -20692,7 +20932,7 @@
       <c r="AS420" s="2"/>
       <c r="AT420" s="2"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -20740,7 +20980,7 @@
       <c r="AS421" s="2"/>
       <c r="AT421" s="2"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -20788,7 +21028,7 @@
       <c r="AS422" s="2"/>
       <c r="AT422" s="2"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -20836,7 +21076,7 @@
       <c r="AS423" s="2"/>
       <c r="AT423" s="2"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -20884,7 +21124,7 @@
       <c r="AS424" s="2"/>
       <c r="AT424" s="2"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -20932,7 +21172,7 @@
       <c r="AS425" s="2"/>
       <c r="AT425" s="2"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -20980,7 +21220,7 @@
       <c r="AS426" s="2"/>
       <c r="AT426" s="2"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -21028,7 +21268,7 @@
       <c r="AS427" s="2"/>
       <c r="AT427" s="2"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -21076,7 +21316,7 @@
       <c r="AS428" s="2"/>
       <c r="AT428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -21124,7 +21364,7 @@
       <c r="AS429" s="2"/>
       <c r="AT429" s="2"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -21172,7 +21412,7 @@
       <c r="AS430" s="2"/>
       <c r="AT430" s="2"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -21220,7 +21460,7 @@
       <c r="AS431" s="2"/>
       <c r="AT431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -21268,7 +21508,7 @@
       <c r="AS432" s="2"/>
       <c r="AT432" s="2"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -21316,7 +21556,7 @@
       <c r="AS433" s="2"/>
       <c r="AT433" s="2"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -21364,7 +21604,7 @@
       <c r="AS434" s="2"/>
       <c r="AT434" s="2"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -21412,7 +21652,7 @@
       <c r="AS435" s="2"/>
       <c r="AT435" s="2"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -21460,7 +21700,7 @@
       <c r="AS436" s="2"/>
       <c r="AT436" s="2"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -21508,7 +21748,7 @@
       <c r="AS437" s="2"/>
       <c r="AT437" s="2"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -21556,7 +21796,7 @@
       <c r="AS438" s="2"/>
       <c r="AT438" s="2"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -21604,7 +21844,7 @@
       <c r="AS439" s="2"/>
       <c r="AT439" s="2"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -21652,7 +21892,7 @@
       <c r="AS440" s="2"/>
       <c r="AT440" s="2"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -21700,7 +21940,7 @@
       <c r="AS441" s="2"/>
       <c r="AT441" s="2"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -21748,7 +21988,7 @@
       <c r="AS442" s="2"/>
       <c r="AT442" s="2"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -21796,7 +22036,7 @@
       <c r="AS443" s="2"/>
       <c r="AT443" s="2"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -21844,7 +22084,7 @@
       <c r="AS444" s="2"/>
       <c r="AT444" s="2"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -21892,7 +22132,7 @@
       <c r="AS445" s="2"/>
       <c r="AT445" s="2"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -21940,7 +22180,7 @@
       <c r="AS446" s="2"/>
       <c r="AT446" s="2"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -21988,7 +22228,7 @@
       <c r="AS447" s="2"/>
       <c r="AT447" s="2"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -22036,7 +22276,7 @@
       <c r="AS448" s="2"/>
       <c r="AT448" s="2"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -22084,7 +22324,7 @@
       <c r="AS449" s="2"/>
       <c r="AT449" s="2"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -22132,7 +22372,7 @@
       <c r="AS450" s="2"/>
       <c r="AT450" s="2"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -22180,7 +22420,7 @@
       <c r="AS451" s="2"/>
       <c r="AT451" s="2"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -22228,7 +22468,7 @@
       <c r="AS452" s="2"/>
       <c r="AT452" s="2"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -22276,7 +22516,7 @@
       <c r="AS453" s="2"/>
       <c r="AT453" s="2"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -22324,7 +22564,7 @@
       <c r="AS454" s="2"/>
       <c r="AT454" s="2"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -22372,7 +22612,7 @@
       <c r="AS455" s="2"/>
       <c r="AT455" s="2"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -22420,7 +22660,7 @@
       <c r="AS456" s="2"/>
       <c r="AT456" s="2"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -22468,7 +22708,7 @@
       <c r="AS457" s="2"/>
       <c r="AT457" s="2"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -22516,7 +22756,7 @@
       <c r="AS458" s="2"/>
       <c r="AT458" s="2"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -22564,7 +22804,7 @@
       <c r="AS459" s="2"/>
       <c r="AT459" s="2"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -22612,7 +22852,7 @@
       <c r="AS460" s="2"/>
       <c r="AT460" s="2"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -22660,7 +22900,7 @@
       <c r="AS461" s="2"/>
       <c r="AT461" s="2"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -22708,7 +22948,7 @@
       <c r="AS462" s="2"/>
       <c r="AT462" s="2"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -22756,7 +22996,7 @@
       <c r="AS463" s="2"/>
       <c r="AT463" s="2"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -22804,7 +23044,7 @@
       <c r="AS464" s="2"/>
       <c r="AT464" s="2"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -22852,7 +23092,7 @@
       <c r="AS465" s="2"/>
       <c r="AT465" s="2"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -22900,7 +23140,7 @@
       <c r="AS466" s="2"/>
       <c r="AT466" s="2"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -22948,7 +23188,7 @@
       <c r="AS467" s="2"/>
       <c r="AT467" s="2"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -22996,7 +23236,7 @@
       <c r="AS468" s="2"/>
       <c r="AT468" s="2"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -23044,7 +23284,7 @@
       <c r="AS469" s="2"/>
       <c r="AT469" s="2"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -23092,7 +23332,7 @@
       <c r="AS470" s="2"/>
       <c r="AT470" s="2"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -23140,7 +23380,7 @@
       <c r="AS471" s="2"/>
       <c r="AT471" s="2"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -23188,7 +23428,7 @@
       <c r="AS472" s="2"/>
       <c r="AT472" s="2"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -23236,7 +23476,7 @@
       <c r="AS473" s="2"/>
       <c r="AT473" s="2"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -23284,7 +23524,7 @@
       <c r="AS474" s="2"/>
       <c r="AT474" s="2"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -23332,7 +23572,7 @@
       <c r="AS475" s="2"/>
       <c r="AT475" s="2"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -23380,7 +23620,7 @@
       <c r="AS476" s="2"/>
       <c r="AT476" s="2"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -23428,7 +23668,7 @@
       <c r="AS477" s="2"/>
       <c r="AT477" s="2"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -23476,7 +23716,7 @@
       <c r="AS478" s="2"/>
       <c r="AT478" s="2"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -23524,7 +23764,7 @@
       <c r="AS479" s="2"/>
       <c r="AT479" s="2"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -23572,7 +23812,7 @@
       <c r="AS480" s="2"/>
       <c r="AT480" s="2"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -23620,7 +23860,7 @@
       <c r="AS481" s="2"/>
       <c r="AT481" s="2"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -23668,7 +23908,7 @@
       <c r="AS482" s="2"/>
       <c r="AT482" s="2"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -23716,7 +23956,7 @@
       <c r="AS483" s="2"/>
       <c r="AT483" s="2"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -23764,7 +24004,7 @@
       <c r="AS484" s="2"/>
       <c r="AT484" s="2"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -23812,7 +24052,7 @@
       <c r="AS485" s="2"/>
       <c r="AT485" s="2"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -23860,7 +24100,7 @@
       <c r="AS486" s="2"/>
       <c r="AT486" s="2"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -23908,7 +24148,7 @@
       <c r="AS487" s="2"/>
       <c r="AT487" s="2"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -23956,7 +24196,7 @@
       <c r="AS488" s="2"/>
       <c r="AT488" s="2"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -24004,7 +24244,7 @@
       <c r="AS489" s="2"/>
       <c r="AT489" s="2"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -24052,7 +24292,7 @@
       <c r="AS490" s="2"/>
       <c r="AT490" s="2"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -24100,7 +24340,7 @@
       <c r="AS491" s="2"/>
       <c r="AT491" s="2"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -24148,7 +24388,7 @@
       <c r="AS492" s="2"/>
       <c r="AT492" s="2"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -24196,7 +24436,7 @@
       <c r="AS493" s="2"/>
       <c r="AT493" s="2"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -24244,7 +24484,7 @@
       <c r="AS494" s="2"/>
       <c r="AT494" s="2"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -24292,7 +24532,7 @@
       <c r="AS495" s="2"/>
       <c r="AT495" s="2"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -24340,7 +24580,7 @@
       <c r="AS496" s="2"/>
       <c r="AT496" s="2"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -24388,7 +24628,7 @@
       <c r="AS497" s="2"/>
       <c r="AT497" s="2"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -24436,7 +24676,7 @@
       <c r="AS498" s="2"/>
       <c r="AT498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -24484,7 +24724,7 @@
       <c r="AS499" s="2"/>
       <c r="AT499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -24532,7 +24772,7 @@
       <c r="AS500" s="2"/>
       <c r="AT500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -24580,7 +24820,7 @@
       <c r="AS501" s="2"/>
       <c r="AT501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -24628,7 +24868,7 @@
       <c r="AS502" s="2"/>
       <c r="AT502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -24676,7 +24916,7 @@
       <c r="AS503" s="2"/>
       <c r="AT503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -24724,7 +24964,7 @@
       <c r="AS504" s="2"/>
       <c r="AT504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -24772,7 +25012,7 @@
       <c r="AS505" s="2"/>
       <c r="AT505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -24820,7 +25060,7 @@
       <c r="AS506" s="2"/>
       <c r="AT506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -24868,7 +25108,7 @@
       <c r="AS507" s="2"/>
       <c r="AT507" s="2"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -24916,7 +25156,7 @@
       <c r="AS508" s="2"/>
       <c r="AT508" s="2"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -24964,7 +25204,7 @@
       <c r="AS509" s="2"/>
       <c r="AT509" s="2"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -25012,7 +25252,7 @@
       <c r="AS510" s="2"/>
       <c r="AT510" s="2"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -25060,7 +25300,7 @@
       <c r="AS511" s="2"/>
       <c r="AT511" s="2"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -25108,7 +25348,7 @@
       <c r="AS512" s="2"/>
       <c r="AT512" s="2"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -25156,7 +25396,7 @@
       <c r="AS513" s="2"/>
       <c r="AT513" s="2"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -25204,7 +25444,7 @@
       <c r="AS514" s="2"/>
       <c r="AT514" s="2"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -25252,7 +25492,7 @@
       <c r="AS515" s="2"/>
       <c r="AT515" s="2"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -25300,7 +25540,7 @@
       <c r="AS516" s="2"/>
       <c r="AT516" s="2"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -25348,7 +25588,7 @@
       <c r="AS517" s="2"/>
       <c r="AT517" s="2"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -25396,7 +25636,7 @@
       <c r="AS518" s="2"/>
       <c r="AT518" s="2"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -25444,7 +25684,7 @@
       <c r="AS519" s="2"/>
       <c r="AT519" s="2"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -25492,7 +25732,7 @@
       <c r="AS520" s="2"/>
       <c r="AT520" s="2"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -25540,7 +25780,7 @@
       <c r="AS521" s="2"/>
       <c r="AT521" s="2"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -25588,7 +25828,7 @@
       <c r="AS522" s="2"/>
       <c r="AT522" s="2"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -25636,7 +25876,7 @@
       <c r="AS523" s="2"/>
       <c r="AT523" s="2"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -25684,7 +25924,7 @@
       <c r="AS524" s="2"/>
       <c r="AT524" s="2"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -25732,7 +25972,7 @@
       <c r="AS525" s="2"/>
       <c r="AT525" s="2"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -25780,7 +26020,7 @@
       <c r="AS526" s="2"/>
       <c r="AT526" s="2"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -25828,7 +26068,7 @@
       <c r="AS527" s="2"/>
       <c r="AT527" s="2"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -25876,7 +26116,7 @@
       <c r="AS528" s="2"/>
       <c r="AT528" s="2"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -25924,7 +26164,7 @@
       <c r="AS529" s="2"/>
       <c r="AT529" s="2"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -25972,7 +26212,7 @@
       <c r="AS530" s="2"/>
       <c r="AT530" s="2"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -26020,7 +26260,7 @@
       <c r="AS531" s="2"/>
       <c r="AT531" s="2"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -26068,7 +26308,7 @@
       <c r="AS532" s="2"/>
       <c r="AT532" s="2"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -26116,7 +26356,7 @@
       <c r="AS533" s="2"/>
       <c r="AT533" s="2"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -26164,7 +26404,7 @@
       <c r="AS534" s="2"/>
       <c r="AT534" s="2"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -26212,7 +26452,7 @@
       <c r="AS535" s="2"/>
       <c r="AT535" s="2"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -26260,7 +26500,7 @@
       <c r="AS536" s="2"/>
       <c r="AT536" s="2"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -26308,7 +26548,7 @@
       <c r="AS537" s="2"/>
       <c r="AT537" s="2"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -26356,7 +26596,7 @@
       <c r="AS538" s="2"/>
       <c r="AT538" s="2"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -26404,7 +26644,7 @@
       <c r="AS539" s="2"/>
       <c r="AT539" s="2"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -26452,7 +26692,7 @@
       <c r="AS540" s="2"/>
       <c r="AT540" s="2"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -26500,7 +26740,7 @@
       <c r="AS541" s="2"/>
       <c r="AT541" s="2"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -26548,7 +26788,7 @@
       <c r="AS542" s="2"/>
       <c r="AT542" s="2"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -26596,7 +26836,7 @@
       <c r="AS543" s="2"/>
       <c r="AT543" s="2"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -26644,7 +26884,7 @@
       <c r="AS544" s="2"/>
       <c r="AT544" s="2"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -26692,7 +26932,7 @@
       <c r="AS545" s="2"/>
       <c r="AT545" s="2"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -26740,7 +26980,7 @@
       <c r="AS546" s="2"/>
       <c r="AT546" s="2"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -26788,7 +27028,7 @@
       <c r="AS547" s="2"/>
       <c r="AT547" s="2"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -26836,7 +27076,7 @@
       <c r="AS548" s="2"/>
       <c r="AT548" s="2"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -26884,7 +27124,7 @@
       <c r="AS549" s="2"/>
       <c r="AT549" s="2"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -26932,7 +27172,7 @@
       <c r="AS550" s="2"/>
       <c r="AT550" s="2"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -26980,7 +27220,7 @@
       <c r="AS551" s="2"/>
       <c r="AT551" s="2"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -27028,7 +27268,7 @@
       <c r="AS552" s="2"/>
       <c r="AT552" s="2"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -27076,7 +27316,7 @@
       <c r="AS553" s="2"/>
       <c r="AT553" s="2"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -27124,7 +27364,7 @@
       <c r="AS554" s="2"/>
       <c r="AT554" s="2"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -27172,7 +27412,7 @@
       <c r="AS555" s="2"/>
       <c r="AT555" s="2"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -27220,7 +27460,7 @@
       <c r="AS556" s="2"/>
       <c r="AT556" s="2"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -27268,7 +27508,7 @@
       <c r="AS557" s="2"/>
       <c r="AT557" s="2"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -27316,7 +27556,7 @@
       <c r="AS558" s="2"/>
       <c r="AT558" s="2"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -27364,7 +27604,7 @@
       <c r="AS559" s="2"/>
       <c r="AT559" s="2"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -27412,7 +27652,7 @@
       <c r="AS560" s="2"/>
       <c r="AT560" s="2"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -27460,7 +27700,7 @@
       <c r="AS561" s="2"/>
       <c r="AT561" s="2"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -27508,7 +27748,7 @@
       <c r="AS562" s="2"/>
       <c r="AT562" s="2"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -27556,7 +27796,7 @@
       <c r="AS563" s="2"/>
       <c r="AT563" s="2"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -27604,7 +27844,7 @@
       <c r="AS564" s="2"/>
       <c r="AT564" s="2"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -27652,7 +27892,7 @@
       <c r="AS565" s="2"/>
       <c r="AT565" s="2"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -27700,7 +27940,7 @@
       <c r="AS566" s="2"/>
       <c r="AT566" s="2"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -27748,7 +27988,7 @@
       <c r="AS567" s="2"/>
       <c r="AT567" s="2"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -27796,7 +28036,7 @@
       <c r="AS568" s="2"/>
       <c r="AT568" s="2"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -27844,7 +28084,7 @@
       <c r="AS569" s="2"/>
       <c r="AT569" s="2"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -27892,7 +28132,7 @@
       <c r="AS570" s="2"/>
       <c r="AT570" s="2"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -27940,7 +28180,7 @@
       <c r="AS571" s="2"/>
       <c r="AT571" s="2"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -27988,7 +28228,7 @@
       <c r="AS572" s="2"/>
       <c r="AT572" s="2"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -28036,7 +28276,7 @@
       <c r="AS573" s="2"/>
       <c r="AT573" s="2"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -28084,7 +28324,7 @@
       <c r="AS574" s="2"/>
       <c r="AT574" s="2"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -28132,7 +28372,7 @@
       <c r="AS575" s="2"/>
       <c r="AT575" s="2"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -28180,7 +28420,7 @@
       <c r="AS576" s="2"/>
       <c r="AT576" s="2"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -28228,7 +28468,7 @@
       <c r="AS577" s="2"/>
       <c r="AT577" s="2"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -28276,7 +28516,7 @@
       <c r="AS578" s="2"/>
       <c r="AT578" s="2"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -28324,7 +28564,7 @@
       <c r="AS579" s="2"/>
       <c r="AT579" s="2"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -28372,7 +28612,7 @@
       <c r="AS580" s="2"/>
       <c r="AT580" s="2"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -28420,7 +28660,7 @@
       <c r="AS581" s="2"/>
       <c r="AT581" s="2"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -28468,7 +28708,7 @@
       <c r="AS582" s="2"/>
       <c r="AT582" s="2"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -28516,7 +28756,7 @@
       <c r="AS583" s="2"/>
       <c r="AT583" s="2"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -28564,7 +28804,7 @@
       <c r="AS584" s="2"/>
       <c r="AT584" s="2"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -28612,7 +28852,7 @@
       <c r="AS585" s="2"/>
       <c r="AT585" s="2"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -28660,7 +28900,7 @@
       <c r="AS586" s="2"/>
       <c r="AT586" s="2"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -28708,7 +28948,7 @@
       <c r="AS587" s="2"/>
       <c r="AT587" s="2"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -28756,7 +28996,7 @@
       <c r="AS588" s="2"/>
       <c r="AT588" s="2"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -28804,7 +29044,7 @@
       <c r="AS589" s="2"/>
       <c r="AT589" s="2"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -28852,7 +29092,7 @@
       <c r="AS590" s="2"/>
       <c r="AT590" s="2"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -28900,7 +29140,7 @@
       <c r="AS591" s="2"/>
       <c r="AT591" s="2"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -28948,7 +29188,7 @@
       <c r="AS592" s="2"/>
       <c r="AT592" s="2"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -28996,7 +29236,7 @@
       <c r="AS593" s="2"/>
       <c r="AT593" s="2"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -29044,7 +29284,7 @@
       <c r="AS594" s="2"/>
       <c r="AT594" s="2"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -29092,7 +29332,7 @@
       <c r="AS595" s="2"/>
       <c r="AT595" s="2"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -29140,7 +29380,7 @@
       <c r="AS596" s="2"/>
       <c r="AT596" s="2"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -29188,7 +29428,7 @@
       <c r="AS597" s="2"/>
       <c r="AT597" s="2"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -29236,7 +29476,7 @@
       <c r="AS598" s="2"/>
       <c r="AT598" s="2"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -29284,7 +29524,7 @@
       <c r="AS599" s="2"/>
       <c r="AT599" s="2"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -29332,7 +29572,7 @@
       <c r="AS600" s="2"/>
       <c r="AT600" s="2"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -29380,7 +29620,7 @@
       <c r="AS601" s="2"/>
       <c r="AT601" s="2"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -29428,7 +29668,7 @@
       <c r="AS602" s="2"/>
       <c r="AT602" s="2"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -29476,7 +29716,7 @@
       <c r="AS603" s="2"/>
       <c r="AT603" s="2"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -29524,7 +29764,7 @@
       <c r="AS604" s="2"/>
       <c r="AT604" s="2"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -29572,7 +29812,7 @@
       <c r="AS605" s="2"/>
       <c r="AT605" s="2"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -29620,7 +29860,7 @@
       <c r="AS606" s="2"/>
       <c r="AT606" s="2"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -29668,7 +29908,7 @@
       <c r="AS607" s="2"/>
       <c r="AT607" s="2"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -29716,7 +29956,7 @@
       <c r="AS608" s="2"/>
       <c r="AT608" s="2"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -29764,7 +30004,7 @@
       <c r="AS609" s="2"/>
       <c r="AT609" s="2"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -29812,7 +30052,7 @@
       <c r="AS610" s="2"/>
       <c r="AT610" s="2"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -29860,7 +30100,7 @@
       <c r="AS611" s="2"/>
       <c r="AT611" s="2"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -29908,7 +30148,7 @@
       <c r="AS612" s="2"/>
       <c r="AT612" s="2"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -29956,7 +30196,7 @@
       <c r="AS613" s="2"/>
       <c r="AT613" s="2"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -30004,7 +30244,7 @@
       <c r="AS614" s="2"/>
       <c r="AT614" s="2"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -30052,7 +30292,7 @@
       <c r="AS615" s="2"/>
       <c r="AT615" s="2"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -30100,7 +30340,7 @@
       <c r="AS616" s="2"/>
       <c r="AT616" s="2"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -30148,7 +30388,7 @@
       <c r="AS617" s="2"/>
       <c r="AT617" s="2"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -30196,7 +30436,7 @@
       <c r="AS618" s="2"/>
       <c r="AT618" s="2"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -30244,7 +30484,7 @@
       <c r="AS619" s="2"/>
       <c r="AT619" s="2"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -30292,7 +30532,7 @@
       <c r="AS620" s="2"/>
       <c r="AT620" s="2"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -30340,7 +30580,7 @@
       <c r="AS621" s="2"/>
       <c r="AT621" s="2"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -30388,7 +30628,7 @@
       <c r="AS622" s="2"/>
       <c r="AT622" s="2"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -30436,7 +30676,7 @@
       <c r="AS623" s="2"/>
       <c r="AT623" s="2"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -30484,7 +30724,7 @@
       <c r="AS624" s="2"/>
       <c r="AT624" s="2"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -30532,7 +30772,7 @@
       <c r="AS625" s="2"/>
       <c r="AT625" s="2"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -30580,7 +30820,7 @@
       <c r="AS626" s="2"/>
       <c r="AT626" s="2"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -30628,7 +30868,7 @@
       <c r="AS627" s="2"/>
       <c r="AT627" s="2"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -30676,7 +30916,7 @@
       <c r="AS628" s="2"/>
       <c r="AT628" s="2"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -30724,7 +30964,7 @@
       <c r="AS629" s="2"/>
       <c r="AT629" s="2"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -30772,7 +31012,7 @@
       <c r="AS630" s="2"/>
       <c r="AT630" s="2"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -30820,7 +31060,7 @@
       <c r="AS631" s="2"/>
       <c r="AT631" s="2"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -30868,7 +31108,7 @@
       <c r="AS632" s="2"/>
       <c r="AT632" s="2"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -30916,7 +31156,7 @@
       <c r="AS633" s="2"/>
       <c r="AT633" s="2"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -30964,7 +31204,7 @@
       <c r="AS634" s="2"/>
       <c r="AT634" s="2"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -31012,7 +31252,7 @@
       <c r="AS635" s="2"/>
       <c r="AT635" s="2"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -31060,7 +31300,7 @@
       <c r="AS636" s="2"/>
       <c r="AT636" s="2"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -31108,7 +31348,7 @@
       <c r="AS637" s="2"/>
       <c r="AT637" s="2"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -31156,7 +31396,7 @@
       <c r="AS638" s="2"/>
       <c r="AT638" s="2"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -31204,7 +31444,7 @@
       <c r="AS639" s="2"/>
       <c r="AT639" s="2"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -31252,7 +31492,7 @@
       <c r="AS640" s="2"/>
       <c r="AT640" s="2"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -31300,7 +31540,7 @@
       <c r="AS641" s="2"/>
       <c r="AT641" s="2"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -31348,7 +31588,7 @@
       <c r="AS642" s="2"/>
       <c r="AT642" s="2"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -31396,7 +31636,7 @@
       <c r="AS643" s="2"/>
       <c r="AT643" s="2"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -31444,7 +31684,7 @@
       <c r="AS644" s="2"/>
       <c r="AT644" s="2"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -31492,7 +31732,7 @@
       <c r="AS645" s="2"/>
       <c r="AT645" s="2"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -31540,7 +31780,7 @@
       <c r="AS646" s="2"/>
       <c r="AT646" s="2"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -31588,7 +31828,7 @@
       <c r="AS647" s="2"/>
       <c r="AT647" s="2"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -31636,7 +31876,7 @@
       <c r="AS648" s="2"/>
       <c r="AT648" s="2"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -31684,7 +31924,7 @@
       <c r="AS649" s="2"/>
       <c r="AT649" s="2"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -31732,7 +31972,7 @@
       <c r="AS650" s="2"/>
       <c r="AT650" s="2"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -31780,7 +32020,7 @@
       <c r="AS651" s="2"/>
       <c r="AT651" s="2"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -31828,7 +32068,7 @@
       <c r="AS652" s="2"/>
       <c r="AT652" s="2"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -31876,7 +32116,7 @@
       <c r="AS653" s="2"/>
       <c r="AT653" s="2"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -31924,7 +32164,7 @@
       <c r="AS654" s="2"/>
       <c r="AT654" s="2"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -31972,7 +32212,7 @@
       <c r="AS655" s="2"/>
       <c r="AT655" s="2"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -32020,7 +32260,7 @@
       <c r="AS656" s="2"/>
       <c r="AT656" s="2"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -32068,7 +32308,7 @@
       <c r="AS657" s="2"/>
       <c r="AT657" s="2"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -32116,7 +32356,7 @@
       <c r="AS658" s="2"/>
       <c r="AT658" s="2"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -32164,7 +32404,7 @@
       <c r="AS659" s="2"/>
       <c r="AT659" s="2"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -32212,7 +32452,7 @@
       <c r="AS660" s="2"/>
       <c r="AT660" s="2"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -32260,7 +32500,7 @@
       <c r="AS661" s="2"/>
       <c r="AT661" s="2"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -32308,7 +32548,7 @@
       <c r="AS662" s="2"/>
       <c r="AT662" s="2"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -32356,7 +32596,7 @@
       <c r="AS663" s="2"/>
       <c r="AT663" s="2"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -32404,7 +32644,7 @@
       <c r="AS664" s="2"/>
       <c r="AT664" s="2"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -32452,7 +32692,7 @@
       <c r="AS665" s="2"/>
       <c r="AT665" s="2"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -32500,7 +32740,7 @@
       <c r="AS666" s="2"/>
       <c r="AT666" s="2"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -32548,7 +32788,7 @@
       <c r="AS667" s="2"/>
       <c r="AT667" s="2"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -32596,7 +32836,7 @@
       <c r="AS668" s="2"/>
       <c r="AT668" s="2"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -32644,7 +32884,7 @@
       <c r="AS669" s="2"/>
       <c r="AT669" s="2"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -32692,7 +32932,7 @@
       <c r="AS670" s="2"/>
       <c r="AT670" s="2"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -32740,7 +32980,7 @@
       <c r="AS671" s="2"/>
       <c r="AT671" s="2"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -32788,7 +33028,7 @@
       <c r="AS672" s="2"/>
       <c r="AT672" s="2"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -32836,7 +33076,7 @@
       <c r="AS673" s="2"/>
       <c r="AT673" s="2"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -32884,7 +33124,7 @@
       <c r="AS674" s="2"/>
       <c r="AT674" s="2"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -32932,7 +33172,7 @@
       <c r="AS675" s="2"/>
       <c r="AT675" s="2"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -32980,7 +33220,7 @@
       <c r="AS676" s="2"/>
       <c r="AT676" s="2"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -33028,7 +33268,7 @@
       <c r="AS677" s="2"/>
       <c r="AT677" s="2"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -33076,7 +33316,7 @@
       <c r="AS678" s="2"/>
       <c r="AT678" s="2"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -33124,7 +33364,7 @@
       <c r="AS679" s="2"/>
       <c r="AT679" s="2"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -33172,7 +33412,7 @@
       <c r="AS680" s="2"/>
       <c r="AT680" s="2"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -33220,7 +33460,7 @@
       <c r="AS681" s="2"/>
       <c r="AT681" s="2"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -33268,7 +33508,7 @@
       <c r="AS682" s="2"/>
       <c r="AT682" s="2"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -33316,7 +33556,7 @@
       <c r="AS683" s="2"/>
       <c r="AT683" s="2"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -33364,7 +33604,7 @@
       <c r="AS684" s="2"/>
       <c r="AT684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -33412,7 +33652,7 @@
       <c r="AS685" s="2"/>
       <c r="AT685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -33460,7 +33700,7 @@
       <c r="AS686" s="2"/>
       <c r="AT686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -33508,7 +33748,7 @@
       <c r="AS687" s="2"/>
       <c r="AT687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -33556,7 +33796,7 @@
       <c r="AS688" s="2"/>
       <c r="AT688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -33604,7 +33844,7 @@
       <c r="AS689" s="2"/>
       <c r="AT689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -33652,7 +33892,7 @@
       <c r="AS690" s="2"/>
       <c r="AT690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -33700,7 +33940,7 @@
       <c r="AS691" s="2"/>
       <c r="AT691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -33748,7 +33988,7 @@
       <c r="AS692" s="2"/>
       <c r="AT692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -33796,7 +34036,7 @@
       <c r="AS693" s="2"/>
       <c r="AT693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -33844,7 +34084,7 @@
       <c r="AS694" s="2"/>
       <c r="AT694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -33892,7 +34132,7 @@
       <c r="AS695" s="2"/>
       <c r="AT695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -33940,7 +34180,7 @@
       <c r="AS696" s="2"/>
       <c r="AT696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -33988,7 +34228,7 @@
       <c r="AS697" s="2"/>
       <c r="AT697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -34036,7 +34276,7 @@
       <c r="AS698" s="2"/>
       <c r="AT698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -34084,7 +34324,7 @@
       <c r="AS699" s="2"/>
       <c r="AT699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -34132,7 +34372,7 @@
       <c r="AS700" s="2"/>
       <c r="AT700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -34180,7 +34420,7 @@
       <c r="AS701" s="2"/>
       <c r="AT701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -34228,7 +34468,7 @@
       <c r="AS702" s="2"/>
       <c r="AT702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -34276,7 +34516,7 @@
       <c r="AS703" s="2"/>
       <c r="AT703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -34324,7 +34564,7 @@
       <c r="AS704" s="2"/>
       <c r="AT704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -34372,7 +34612,7 @@
       <c r="AS705" s="2"/>
       <c r="AT705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -34420,7 +34660,7 @@
       <c r="AS706" s="2"/>
       <c r="AT706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -34468,7 +34708,7 @@
       <c r="AS707" s="2"/>
       <c r="AT707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -34516,7 +34756,7 @@
       <c r="AS708" s="2"/>
       <c r="AT708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -34564,7 +34804,7 @@
       <c r="AS709" s="2"/>
       <c r="AT709" s="2"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -34612,7 +34852,7 @@
       <c r="AS710" s="2"/>
       <c r="AT710" s="2"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -34660,7 +34900,7 @@
       <c r="AS711" s="2"/>
       <c r="AT711" s="2"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -34708,7 +34948,7 @@
       <c r="AS712" s="2"/>
       <c r="AT712" s="2"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -34756,7 +34996,7 @@
       <c r="AS713" s="2"/>
       <c r="AT713" s="2"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -34804,7 +35044,7 @@
       <c r="AS714" s="2"/>
       <c r="AT714" s="2"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -34852,7 +35092,7 @@
       <c r="AS715" s="2"/>
       <c r="AT715" s="2"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -34900,7 +35140,7 @@
       <c r="AS716" s="2"/>
       <c r="AT716" s="2"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -34948,7 +35188,7 @@
       <c r="AS717" s="2"/>
       <c r="AT717" s="2"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -34996,7 +35236,7 @@
       <c r="AS718" s="2"/>
       <c r="AT718" s="2"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -35044,7 +35284,7 @@
       <c r="AS719" s="2"/>
       <c r="AT719" s="2"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -35092,7 +35332,7 @@
       <c r="AS720" s="2"/>
       <c r="AT720" s="2"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -35140,7 +35380,7 @@
       <c r="AS721" s="2"/>
       <c r="AT721" s="2"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -35188,7 +35428,7 @@
       <c r="AS722" s="2"/>
       <c r="AT722" s="2"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -35236,7 +35476,7 @@
       <c r="AS723" s="2"/>
       <c r="AT723" s="2"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -35284,7 +35524,7 @@
       <c r="AS724" s="2"/>
       <c r="AT724" s="2"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -35332,7 +35572,7 @@
       <c r="AS725" s="2"/>
       <c r="AT725" s="2"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -35380,7 +35620,7 @@
       <c r="AS726" s="2"/>
       <c r="AT726" s="2"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -35428,7 +35668,7 @@
       <c r="AS727" s="2"/>
       <c r="AT727" s="2"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -35476,7 +35716,7 @@
       <c r="AS728" s="2"/>
       <c r="AT728" s="2"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -35524,7 +35764,7 @@
       <c r="AS729" s="2"/>
       <c r="AT729" s="2"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -35572,7 +35812,7 @@
       <c r="AS730" s="2"/>
       <c r="AT730" s="2"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -35620,7 +35860,7 @@
       <c r="AS731" s="2"/>
       <c r="AT731" s="2"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -35668,7 +35908,7 @@
       <c r="AS732" s="2"/>
       <c r="AT732" s="2"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -35716,7 +35956,7 @@
       <c r="AS733" s="2"/>
       <c r="AT733" s="2"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -35764,7 +36004,7 @@
       <c r="AS734" s="2"/>
       <c r="AT734" s="2"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -35812,7 +36052,7 @@
       <c r="AS735" s="2"/>
       <c r="AT735" s="2"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -35860,7 +36100,7 @@
       <c r="AS736" s="2"/>
       <c r="AT736" s="2"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -35908,7 +36148,7 @@
       <c r="AS737" s="2"/>
       <c r="AT737" s="2"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -35956,7 +36196,7 @@
       <c r="AS738" s="2"/>
       <c r="AT738" s="2"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -36004,7 +36244,7 @@
       <c r="AS739" s="2"/>
       <c r="AT739" s="2"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -36052,7 +36292,7 @@
       <c r="AS740" s="2"/>
       <c r="AT740" s="2"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -36100,7 +36340,7 @@
       <c r="AS741" s="2"/>
       <c r="AT741" s="2"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -36148,7 +36388,7 @@
       <c r="AS742" s="2"/>
       <c r="AT742" s="2"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -36196,7 +36436,7 @@
       <c r="AS743" s="2"/>
       <c r="AT743" s="2"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -36244,7 +36484,7 @@
       <c r="AS744" s="2"/>
       <c r="AT744" s="2"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -36292,7 +36532,7 @@
       <c r="AS745" s="2"/>
       <c r="AT745" s="2"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -36340,7 +36580,7 @@
       <c r="AS746" s="2"/>
       <c r="AT746" s="2"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -36388,7 +36628,7 @@
       <c r="AS747" s="2"/>
       <c r="AT747" s="2"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -36436,7 +36676,7 @@
       <c r="AS748" s="2"/>
       <c r="AT748" s="2"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -36484,7 +36724,7 @@
       <c r="AS749" s="2"/>
       <c r="AT749" s="2"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -36532,7 +36772,7 @@
       <c r="AS750" s="2"/>
       <c r="AT750" s="2"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -36580,7 +36820,7 @@
       <c r="AS751" s="2"/>
       <c r="AT751" s="2"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -36628,7 +36868,7 @@
       <c r="AS752" s="2"/>
       <c r="AT752" s="2"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -36676,7 +36916,7 @@
       <c r="AS753" s="2"/>
       <c r="AT753" s="2"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -36724,7 +36964,7 @@
       <c r="AS754" s="2"/>
       <c r="AT754" s="2"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -36772,7 +37012,7 @@
       <c r="AS755" s="2"/>
       <c r="AT755" s="2"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -36820,7 +37060,7 @@
       <c r="AS756" s="2"/>
       <c r="AT756" s="2"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -36868,7 +37108,7 @@
       <c r="AS757" s="2"/>
       <c r="AT757" s="2"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -36916,7 +37156,7 @@
       <c r="AS758" s="2"/>
       <c r="AT758" s="2"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -36964,7 +37204,7 @@
       <c r="AS759" s="2"/>
       <c r="AT759" s="2"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -37012,7 +37252,7 @@
       <c r="AS760" s="2"/>
       <c r="AT760" s="2"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -37060,7 +37300,7 @@
       <c r="AS761" s="2"/>
       <c r="AT761" s="2"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -37108,7 +37348,7 @@
       <c r="AS762" s="2"/>
       <c r="AT762" s="2"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -37156,7 +37396,7 @@
       <c r="AS763" s="2"/>
       <c r="AT763" s="2"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -37204,7 +37444,7 @@
       <c r="AS764" s="2"/>
       <c r="AT764" s="2"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -37252,7 +37492,7 @@
       <c r="AS765" s="2"/>
       <c r="AT765" s="2"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -37300,7 +37540,7 @@
       <c r="AS766" s="2"/>
       <c r="AT766" s="2"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -37348,7 +37588,7 @@
       <c r="AS767" s="2"/>
       <c r="AT767" s="2"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -37396,7 +37636,7 @@
       <c r="AS768" s="2"/>
       <c r="AT768" s="2"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -37444,7 +37684,7 @@
       <c r="AS769" s="2"/>
       <c r="AT769" s="2"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -37492,7 +37732,7 @@
       <c r="AS770" s="2"/>
       <c r="AT770" s="2"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -37540,7 +37780,7 @@
       <c r="AS771" s="2"/>
       <c r="AT771" s="2"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -37588,7 +37828,7 @@
       <c r="AS772" s="2"/>
       <c r="AT772" s="2"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -37636,7 +37876,7 @@
       <c r="AS773" s="2"/>
       <c r="AT773" s="2"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -37684,7 +37924,7 @@
       <c r="AS774" s="2"/>
       <c r="AT774" s="2"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -37732,7 +37972,7 @@
       <c r="AS775" s="2"/>
       <c r="AT775" s="2"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -37780,7 +38020,7 @@
       <c r="AS776" s="2"/>
       <c r="AT776" s="2"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -37828,7 +38068,7 @@
       <c r="AS777" s="2"/>
       <c r="AT777" s="2"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -37876,7 +38116,7 @@
       <c r="AS778" s="2"/>
       <c r="AT778" s="2"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -37924,7 +38164,7 @@
       <c r="AS779" s="2"/>
       <c r="AT779" s="2"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -37972,7 +38212,7 @@
       <c r="AS780" s="2"/>
       <c r="AT780" s="2"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -38020,7 +38260,7 @@
       <c r="AS781" s="2"/>
       <c r="AT781" s="2"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -38068,7 +38308,7 @@
       <c r="AS782" s="2"/>
       <c r="AT782" s="2"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -38116,7 +38356,7 @@
       <c r="AS783" s="2"/>
       <c r="AT783" s="2"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -38164,7 +38404,7 @@
       <c r="AS784" s="2"/>
       <c r="AT784" s="2"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -38212,7 +38452,7 @@
       <c r="AS785" s="2"/>
       <c r="AT785" s="2"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -38260,7 +38500,7 @@
       <c r="AS786" s="2"/>
       <c r="AT786" s="2"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -38308,7 +38548,7 @@
       <c r="AS787" s="2"/>
       <c r="AT787" s="2"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -38356,7 +38596,7 @@
       <c r="AS788" s="2"/>
       <c r="AT788" s="2"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -38404,7 +38644,7 @@
       <c r="AS789" s="2"/>
       <c r="AT789" s="2"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -38452,7 +38692,7 @@
       <c r="AS790" s="2"/>
       <c r="AT790" s="2"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -38500,7 +38740,7 @@
       <c r="AS791" s="2"/>
       <c r="AT791" s="2"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -38548,7 +38788,7 @@
       <c r="AS792" s="2"/>
       <c r="AT792" s="2"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -38596,7 +38836,7 @@
       <c r="AS793" s="2"/>
       <c r="AT793" s="2"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -38644,7 +38884,7 @@
       <c r="AS794" s="2"/>
       <c r="AT794" s="2"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -38692,7 +38932,7 @@
       <c r="AS795" s="2"/>
       <c r="AT795" s="2"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -38740,7 +38980,7 @@
       <c r="AS796" s="2"/>
       <c r="AT796" s="2"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -38788,7 +39028,7 @@
       <c r="AS797" s="2"/>
       <c r="AT797" s="2"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -38836,7 +39076,7 @@
       <c r="AS798" s="2"/>
       <c r="AT798" s="2"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -38884,7 +39124,7 @@
       <c r="AS799" s="2"/>
       <c r="AT799" s="2"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -38932,7 +39172,7 @@
       <c r="AS800" s="2"/>
       <c r="AT800" s="2"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -38980,7 +39220,7 @@
       <c r="AS801" s="2"/>
       <c r="AT801" s="2"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -39028,7 +39268,7 @@
       <c r="AS802" s="2"/>
       <c r="AT802" s="2"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -39076,7 +39316,7 @@
       <c r="AS803" s="2"/>
       <c r="AT803" s="2"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -39124,7 +39364,7 @@
       <c r="AS804" s="2"/>
       <c r="AT804" s="2"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -39172,7 +39412,7 @@
       <c r="AS805" s="2"/>
       <c r="AT805" s="2"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -39220,7 +39460,7 @@
       <c r="AS806" s="2"/>
       <c r="AT806" s="2"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -39268,7 +39508,7 @@
       <c r="AS807" s="2"/>
       <c r="AT807" s="2"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -39316,7 +39556,7 @@
       <c r="AS808" s="2"/>
       <c r="AT808" s="2"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -39364,7 +39604,7 @@
       <c r="AS809" s="2"/>
       <c r="AT809" s="2"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -39412,7 +39652,7 @@
       <c r="AS810" s="2"/>
       <c r="AT810" s="2"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -39460,7 +39700,7 @@
       <c r="AS811" s="2"/>
       <c r="AT811" s="2"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -39508,7 +39748,7 @@
       <c r="AS812" s="2"/>
       <c r="AT812" s="2"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -39556,7 +39796,7 @@
       <c r="AS813" s="2"/>
       <c r="AT813" s="2"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -39604,7 +39844,7 @@
       <c r="AS814" s="2"/>
       <c r="AT814" s="2"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -39652,7 +39892,7 @@
       <c r="AS815" s="2"/>
       <c r="AT815" s="2"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -39700,7 +39940,7 @@
       <c r="AS816" s="2"/>
       <c r="AT816" s="2"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -39748,7 +39988,7 @@
       <c r="AS817" s="2"/>
       <c r="AT817" s="2"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -39796,7 +40036,7 @@
       <c r="AS818" s="2"/>
       <c r="AT818" s="2"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -39844,7 +40084,7 @@
       <c r="AS819" s="2"/>
       <c r="AT819" s="2"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -39892,7 +40132,7 @@
       <c r="AS820" s="2"/>
       <c r="AT820" s="2"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -39940,7 +40180,7 @@
       <c r="AS821" s="2"/>
       <c r="AT821" s="2"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -39988,7 +40228,7 @@
       <c r="AS822" s="2"/>
       <c r="AT822" s="2"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -40036,7 +40276,7 @@
       <c r="AS823" s="2"/>
       <c r="AT823" s="2"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -40084,7 +40324,7 @@
       <c r="AS824" s="2"/>
       <c r="AT824" s="2"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -40132,7 +40372,7 @@
       <c r="AS825" s="2"/>
       <c r="AT825" s="2"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -40180,7 +40420,7 @@
       <c r="AS826" s="2"/>
       <c r="AT826" s="2"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -40228,7 +40468,7 @@
       <c r="AS827" s="2"/>
       <c r="AT827" s="2"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -40276,7 +40516,7 @@
       <c r="AS828" s="2"/>
       <c r="AT828" s="2"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -40324,7 +40564,7 @@
       <c r="AS829" s="2"/>
       <c r="AT829" s="2"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -40372,7 +40612,7 @@
       <c r="AS830" s="2"/>
       <c r="AT830" s="2"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -40420,7 +40660,7 @@
       <c r="AS831" s="2"/>
       <c r="AT831" s="2"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -40468,7 +40708,7 @@
       <c r="AS832" s="2"/>
       <c r="AT832" s="2"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -40516,7 +40756,7 @@
       <c r="AS833" s="2"/>
       <c r="AT833" s="2"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -40564,7 +40804,7 @@
       <c r="AS834" s="2"/>
       <c r="AT834" s="2"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -40612,7 +40852,7 @@
       <c r="AS835" s="2"/>
       <c r="AT835" s="2"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -40660,7 +40900,7 @@
       <c r="AS836" s="2"/>
       <c r="AT836" s="2"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -40708,7 +40948,7 @@
       <c r="AS837" s="2"/>
       <c r="AT837" s="2"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -40756,7 +40996,7 @@
       <c r="AS838" s="2"/>
       <c r="AT838" s="2"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -40804,7 +41044,7 @@
       <c r="AS839" s="2"/>
       <c r="AT839" s="2"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -40852,7 +41092,7 @@
       <c r="AS840" s="2"/>
       <c r="AT840" s="2"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -40900,7 +41140,7 @@
       <c r="AS841" s="2"/>
       <c r="AT841" s="2"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -40948,7 +41188,7 @@
       <c r="AS842" s="2"/>
       <c r="AT842" s="2"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -40996,7 +41236,7 @@
       <c r="AS843" s="2"/>
       <c r="AT843" s="2"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -41044,7 +41284,7 @@
       <c r="AS844" s="2"/>
       <c r="AT844" s="2"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -41092,7 +41332,7 @@
       <c r="AS845" s="2"/>
       <c r="AT845" s="2"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -41140,7 +41380,7 @@
       <c r="AS846" s="2"/>
       <c r="AT846" s="2"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -41188,7 +41428,7 @@
       <c r="AS847" s="2"/>
       <c r="AT847" s="2"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -41236,7 +41476,7 @@
       <c r="AS848" s="2"/>
       <c r="AT848" s="2"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -41284,7 +41524,7 @@
       <c r="AS849" s="2"/>
       <c r="AT849" s="2"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -41332,7 +41572,7 @@
       <c r="AS850" s="2"/>
       <c r="AT850" s="2"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -41380,7 +41620,7 @@
       <c r="AS851" s="2"/>
       <c r="AT851" s="2"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -41428,7 +41668,7 @@
       <c r="AS852" s="2"/>
       <c r="AT852" s="2"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -41476,7 +41716,7 @@
       <c r="AS853" s="2"/>
       <c r="AT853" s="2"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -41524,7 +41764,7 @@
       <c r="AS854" s="2"/>
       <c r="AT854" s="2"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -41572,7 +41812,7 @@
       <c r="AS855" s="2"/>
       <c r="AT855" s="2"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -41620,7 +41860,7 @@
       <c r="AS856" s="2"/>
       <c r="AT856" s="2"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -41668,7 +41908,7 @@
       <c r="AS857" s="2"/>
       <c r="AT857" s="2"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -41716,7 +41956,7 @@
       <c r="AS858" s="2"/>
       <c r="AT858" s="2"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -41764,7 +42004,7 @@
       <c r="AS859" s="2"/>
       <c r="AT859" s="2"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -41812,7 +42052,7 @@
       <c r="AS860" s="2"/>
       <c r="AT860" s="2"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -41860,7 +42100,7 @@
       <c r="AS861" s="2"/>
       <c r="AT861" s="2"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -41908,7 +42148,7 @@
       <c r="AS862" s="2"/>
       <c r="AT862" s="2"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -41956,7 +42196,7 @@
       <c r="AS863" s="2"/>
       <c r="AT863" s="2"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -42004,7 +42244,7 @@
       <c r="AS864" s="2"/>
       <c r="AT864" s="2"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -42052,7 +42292,7 @@
       <c r="AS865" s="2"/>
       <c r="AT865" s="2"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -42100,7 +42340,7 @@
       <c r="AS866" s="2"/>
       <c r="AT866" s="2"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -42148,7 +42388,7 @@
       <c r="AS867" s="2"/>
       <c r="AT867" s="2"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -42196,7 +42436,7 @@
       <c r="AS868" s="2"/>
       <c r="AT868" s="2"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -42244,7 +42484,7 @@
       <c r="AS869" s="2"/>
       <c r="AT869" s="2"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -42292,7 +42532,7 @@
       <c r="AS870" s="2"/>
       <c r="AT870" s="2"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -42340,7 +42580,7 @@
       <c r="AS871" s="2"/>
       <c r="AT871" s="2"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -42388,7 +42628,7 @@
       <c r="AS872" s="2"/>
       <c r="AT872" s="2"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -42436,7 +42676,7 @@
       <c r="AS873" s="2"/>
       <c r="AT873" s="2"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -42484,7 +42724,7 @@
       <c r="AS874" s="2"/>
       <c r="AT874" s="2"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -42532,7 +42772,7 @@
       <c r="AS875" s="2"/>
       <c r="AT875" s="2"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -42580,7 +42820,7 @@
       <c r="AS876" s="2"/>
       <c r="AT876" s="2"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -42628,7 +42868,7 @@
       <c r="AS877" s="2"/>
       <c r="AT877" s="2"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -42676,7 +42916,7 @@
       <c r="AS878" s="2"/>
       <c r="AT878" s="2"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -42724,7 +42964,7 @@
       <c r="AS879" s="2"/>
       <c r="AT879" s="2"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -42772,7 +43012,7 @@
       <c r="AS880" s="2"/>
       <c r="AT880" s="2"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -42820,7 +43060,7 @@
       <c r="AS881" s="2"/>
       <c r="AT881" s="2"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -42868,7 +43108,7 @@
       <c r="AS882" s="2"/>
       <c r="AT882" s="2"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -42916,7 +43156,7 @@
       <c r="AS883" s="2"/>
       <c r="AT883" s="2"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -42964,7 +43204,7 @@
       <c r="AS884" s="2"/>
       <c r="AT884" s="2"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -43012,7 +43252,7 @@
       <c r="AS885" s="2"/>
       <c r="AT885" s="2"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -43060,7 +43300,7 @@
       <c r="AS886" s="2"/>
       <c r="AT886" s="2"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -43108,7 +43348,7 @@
       <c r="AS887" s="2"/>
       <c r="AT887" s="2"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -43156,7 +43396,7 @@
       <c r="AS888" s="2"/>
       <c r="AT888" s="2"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -43204,7 +43444,7 @@
       <c r="AS889" s="2"/>
       <c r="AT889" s="2"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -43252,7 +43492,7 @@
       <c r="AS890" s="2"/>
       <c r="AT890" s="2"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -43300,7 +43540,7 @@
       <c r="AS891" s="2"/>
       <c r="AT891" s="2"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -43348,7 +43588,7 @@
       <c r="AS892" s="2"/>
       <c r="AT892" s="2"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -43396,7 +43636,7 @@
       <c r="AS893" s="2"/>
       <c r="AT893" s="2"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -43444,7 +43684,7 @@
       <c r="AS894" s="2"/>
       <c r="AT894" s="2"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -43492,7 +43732,7 @@
       <c r="AS895" s="2"/>
       <c r="AT895" s="2"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -43540,7 +43780,7 @@
       <c r="AS896" s="2"/>
       <c r="AT896" s="2"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -43588,7 +43828,7 @@
       <c r="AS897" s="2"/>
       <c r="AT897" s="2"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -43636,7 +43876,7 @@
       <c r="AS898" s="2"/>
       <c r="AT898" s="2"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -43684,7 +43924,7 @@
       <c r="AS899" s="2"/>
       <c r="AT899" s="2"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -43732,7 +43972,7 @@
       <c r="AS900" s="2"/>
       <c r="AT900" s="2"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -43780,7 +44020,7 @@
       <c r="AS901" s="2"/>
       <c r="AT901" s="2"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -43828,7 +44068,7 @@
       <c r="AS902" s="2"/>
       <c r="AT902" s="2"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -43876,7 +44116,7 @@
       <c r="AS903" s="2"/>
       <c r="AT903" s="2"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -43924,7 +44164,7 @@
       <c r="AS904" s="2"/>
       <c r="AT904" s="2"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -43972,7 +44212,7 @@
       <c r="AS905" s="2"/>
       <c r="AT905" s="2"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -44020,7 +44260,7 @@
       <c r="AS906" s="2"/>
       <c r="AT906" s="2"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -44068,7 +44308,7 @@
       <c r="AS907" s="2"/>
       <c r="AT907" s="2"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -44116,7 +44356,7 @@
       <c r="AS908" s="2"/>
       <c r="AT908" s="2"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -44164,7 +44404,7 @@
       <c r="AS909" s="2"/>
       <c r="AT909" s="2"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -44212,7 +44452,7 @@
       <c r="AS910" s="2"/>
       <c r="AT910" s="2"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -44260,7 +44500,7 @@
       <c r="AS911" s="2"/>
       <c r="AT911" s="2"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -44308,7 +44548,7 @@
       <c r="AS912" s="2"/>
       <c r="AT912" s="2"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -44356,7 +44596,7 @@
       <c r="AS913" s="2"/>
       <c r="AT913" s="2"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -44404,7 +44644,7 @@
       <c r="AS914" s="2"/>
       <c r="AT914" s="2"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -44452,7 +44692,7 @@
       <c r="AS915" s="2"/>
       <c r="AT915" s="2"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -44500,7 +44740,7 @@
       <c r="AS916" s="2"/>
       <c r="AT916" s="2"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -44548,7 +44788,7 @@
       <c r="AS917" s="2"/>
       <c r="AT917" s="2"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -44596,7 +44836,7 @@
       <c r="AS918" s="2"/>
       <c r="AT918" s="2"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -44644,7 +44884,7 @@
       <c r="AS919" s="2"/>
       <c r="AT919" s="2"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -44692,7 +44932,7 @@
       <c r="AS920" s="2"/>
       <c r="AT920" s="2"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -44740,7 +44980,7 @@
       <c r="AS921" s="2"/>
       <c r="AT921" s="2"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -44788,7 +45028,7 @@
       <c r="AS922" s="2"/>
       <c r="AT922" s="2"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -44836,7 +45076,7 @@
       <c r="AS923" s="2"/>
       <c r="AT923" s="2"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -44884,7 +45124,7 @@
       <c r="AS924" s="2"/>
       <c r="AT924" s="2"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -44932,7 +45172,7 @@
       <c r="AS925" s="2"/>
       <c r="AT925" s="2"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -44980,7 +45220,7 @@
       <c r="AS926" s="2"/>
       <c r="AT926" s="2"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -45028,7 +45268,7 @@
       <c r="AS927" s="2"/>
       <c r="AT927" s="2"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -45076,7 +45316,7 @@
       <c r="AS928" s="2"/>
       <c r="AT928" s="2"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -45124,7 +45364,7 @@
       <c r="AS929" s="2"/>
       <c r="AT929" s="2"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -45172,7 +45412,7 @@
       <c r="AS930" s="2"/>
       <c r="AT930" s="2"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -45220,7 +45460,7 @@
       <c r="AS931" s="2"/>
       <c r="AT931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -45268,7 +45508,7 @@
       <c r="AS932" s="2"/>
       <c r="AT932" s="2"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -45316,7 +45556,7 @@
       <c r="AS933" s="2"/>
       <c r="AT933" s="2"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -45364,7 +45604,7 @@
       <c r="AS934" s="2"/>
       <c r="AT934" s="2"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -45412,7 +45652,7 @@
       <c r="AS935" s="2"/>
       <c r="AT935" s="2"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -45460,7 +45700,7 @@
       <c r="AS936" s="2"/>
       <c r="AT936" s="2"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -45508,7 +45748,7 @@
       <c r="AS937" s="2"/>
       <c r="AT937" s="2"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -45556,7 +45796,7 @@
       <c r="AS938" s="2"/>
       <c r="AT938" s="2"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -45604,7 +45844,7 @@
       <c r="AS939" s="2"/>
       <c r="AT939" s="2"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -45652,7 +45892,7 @@
       <c r="AS940" s="2"/>
       <c r="AT940" s="2"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -45700,7 +45940,7 @@
       <c r="AS941" s="2"/>
       <c r="AT941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -45748,7 +45988,7 @@
       <c r="AS942" s="2"/>
       <c r="AT942" s="2"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -45796,7 +46036,7 @@
       <c r="AS943" s="2"/>
       <c r="AT943" s="2"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -45844,7 +46084,7 @@
       <c r="AS944" s="2"/>
       <c r="AT944" s="2"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -45892,7 +46132,7 @@
       <c r="AS945" s="2"/>
       <c r="AT945" s="2"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -45940,7 +46180,7 @@
       <c r="AS946" s="2"/>
       <c r="AT946" s="2"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -45988,7 +46228,7 @@
       <c r="AS947" s="2"/>
       <c r="AT947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -46036,7 +46276,7 @@
       <c r="AS948" s="2"/>
       <c r="AT948" s="2"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -46084,7 +46324,7 @@
       <c r="AS949" s="2"/>
       <c r="AT949" s="2"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -46132,7 +46372,7 @@
       <c r="AS950" s="2"/>
       <c r="AT950" s="2"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -46180,7 +46420,7 @@
       <c r="AS951" s="2"/>
       <c r="AT951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -46228,7 +46468,7 @@
       <c r="AS952" s="2"/>
       <c r="AT952" s="2"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -46276,7 +46516,7 @@
       <c r="AS953" s="2"/>
       <c r="AT953" s="2"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -46324,7 +46564,7 @@
       <c r="AS954" s="2"/>
       <c r="AT954" s="2"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -46372,7 +46612,7 @@
       <c r="AS955" s="2"/>
       <c r="AT955" s="2"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -46420,7 +46660,7 @@
       <c r="AS956" s="2"/>
       <c r="AT956" s="2"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -46468,7 +46708,7 @@
       <c r="AS957" s="2"/>
       <c r="AT957" s="2"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -46516,7 +46756,7 @@
       <c r="AS958" s="2"/>
       <c r="AT958" s="2"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -46564,7 +46804,7 @@
       <c r="AS959" s="2"/>
       <c r="AT959" s="2"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -46612,7 +46852,7 @@
       <c r="AS960" s="2"/>
       <c r="AT960" s="2"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -46660,7 +46900,7 @@
       <c r="AS961" s="2"/>
       <c r="AT961" s="2"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -46708,7 +46948,7 @@
       <c r="AS962" s="2"/>
       <c r="AT962" s="2"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -46756,7 +46996,7 @@
       <c r="AS963" s="2"/>
       <c r="AT963" s="2"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -46804,7 +47044,7 @@
       <c r="AS964" s="2"/>
       <c r="AT964" s="2"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -46852,7 +47092,7 @@
       <c r="AS965" s="2"/>
       <c r="AT965" s="2"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -46900,7 +47140,7 @@
       <c r="AS966" s="2"/>
       <c r="AT966" s="2"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -46948,7 +47188,7 @@
       <c r="AS967" s="2"/>
       <c r="AT967" s="2"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -46996,7 +47236,7 @@
       <c r="AS968" s="2"/>
       <c r="AT968" s="2"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -47044,7 +47284,7 @@
       <c r="AS969" s="2"/>
       <c r="AT969" s="2"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -47092,7 +47332,7 @@
       <c r="AS970" s="2"/>
       <c r="AT970" s="2"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -47140,7 +47380,7 @@
       <c r="AS971" s="2"/>
       <c r="AT971" s="2"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -47188,7 +47428,7 @@
       <c r="AS972" s="2"/>
       <c r="AT972" s="2"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -47236,7 +47476,7 @@
       <c r="AS973" s="2"/>
       <c r="AT973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -47284,7 +47524,7 @@
       <c r="AS974" s="2"/>
       <c r="AT974" s="2"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -47332,7 +47572,7 @@
       <c r="AS975" s="2"/>
       <c r="AT975" s="2"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -47380,7 +47620,7 @@
       <c r="AS976" s="2"/>
       <c r="AT976" s="2"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -47428,7 +47668,7 @@
       <c r="AS977" s="2"/>
       <c r="AT977" s="2"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -47476,7 +47716,7 @@
       <c r="AS978" s="2"/>
       <c r="AT978" s="2"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -47524,7 +47764,7 @@
       <c r="AS979" s="2"/>
       <c r="AT979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -47572,7 +47812,7 @@
       <c r="AS980" s="2"/>
       <c r="AT980" s="2"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -47620,7 +47860,7 @@
       <c r="AS981" s="2"/>
       <c r="AT981" s="2"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -47668,7 +47908,7 @@
       <c r="AS982" s="2"/>
       <c r="AT982" s="2"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -47716,7 +47956,7 @@
       <c r="AS983" s="2"/>
       <c r="AT983" s="2"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -47764,7 +48004,7 @@
       <c r="AS984" s="2"/>
       <c r="AT984" s="2"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -47812,7 +48052,7 @@
       <c r="AS985" s="2"/>
       <c r="AT985" s="2"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -47860,7 +48100,7 @@
       <c r="AS986" s="2"/>
       <c r="AT986" s="2"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -47908,7 +48148,7 @@
       <c r="AS987" s="2"/>
       <c r="AT987" s="2"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -47956,7 +48196,7 @@
       <c r="AS988" s="2"/>
       <c r="AT988" s="2"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -48004,7 +48244,7 @@
       <c r="AS989" s="2"/>
       <c r="AT989" s="2"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -48052,7 +48292,7 @@
       <c r="AS990" s="2"/>
       <c r="AT990" s="2"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -48100,7 +48340,7 @@
       <c r="AS991" s="2"/>
       <c r="AT991" s="2"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -48148,7 +48388,7 @@
       <c r="AS992" s="2"/>
       <c r="AT992" s="2"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -48196,7 +48436,7 @@
       <c r="AS993" s="2"/>
       <c r="AT993" s="2"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -48244,7 +48484,7 @@
       <c r="AS994" s="2"/>
       <c r="AT994" s="2"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -48292,7 +48532,7 @@
       <c r="AS995" s="2"/>
       <c r="AT995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -48341,12 +48581,7 @@
       <c r="AT996" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7D970-514A-4555-9B86-91696CA3F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE47A2D-3422-494B-A042-3081AA043C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE47A2D-3422-494B-A042-3081AA043C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A65BF6-CF31-490C-9D6E-4226E19E5879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A65BF6-CF31-490C-9D6E-4226E19E5879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6A107-CE6D-48B2-8AD9-8EDB5A0D332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>selectType</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +866,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6A107-CE6D-48B2-8AD9-8EDB5A0D332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25C8FE-53DF-41B4-985A-12486DDAB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,10 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
@@ -866,7 +866,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25C8FE-53DF-41B4-985A-12486DDAB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB89610-4082-4D8B-8612-756C7AF00300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -593,53 +593,52 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="16376" width="2.6640625" style="1"/>
-    <col min="16381" max="16384" width="11.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
+    <col min="42" max="16376" width="2.7109375" style="1"/>
+    <col min="16381" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +768,7 @@
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
     </row>
-    <row r="2" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -874,7 +873,7 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
-    <row r="3" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -926,7 +925,7 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -974,7 +973,7 @@
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
     </row>
-    <row r="5" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1022,7 +1021,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
     </row>
-    <row r="6" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1070,7 +1069,7 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
     </row>
-    <row r="7" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1116,7 +1115,7 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
     </row>
-    <row r="8" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1163,7 +1162,7 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1210,7 +1209,7 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
     </row>
-    <row r="10" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1257,7 +1256,7 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
     </row>
-    <row r="11" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1304,7 +1303,7 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1352,7 +1351,7 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1399,7 +1398,7 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1447,7 +1446,7 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
     </row>
-    <row r="15" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1495,7 +1494,7 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
     </row>
-    <row r="16" spans="1:46 16381:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46 16381:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1543,7 +1542,7 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
     </row>
-    <row r="17" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1591,7 +1590,7 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1639,7 +1638,7 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
     </row>
-    <row r="19" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1687,7 +1686,7 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
     </row>
-    <row r="20" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1735,7 +1734,7 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1783,7 +1782,7 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1831,7 +1830,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1879,7 +1878,7 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1927,7 +1926,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1975,7 +1974,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2023,7 +2022,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2071,7 +2070,7 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
     </row>
-    <row r="28" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2119,7 +2118,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2167,7 +2166,7 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2215,7 +2214,7 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2263,7 +2262,7 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2311,7 +2310,7 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2359,7 +2358,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2407,7 +2406,7 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2455,7 +2454,7 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2503,7 +2502,7 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2551,7 +2550,7 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2599,7 +2598,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2647,7 +2646,7 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2695,7 +2694,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
     </row>
-    <row r="41" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2743,7 +2742,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2791,7 +2790,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2839,7 +2838,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2887,7 +2886,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2935,7 +2934,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2983,7 +2982,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3031,7 +3030,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
     </row>
-    <row r="48" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3079,7 +3078,7 @@
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
     </row>
-    <row r="49" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3127,7 +3126,7 @@
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
     </row>
-    <row r="50" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3175,7 +3174,7 @@
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
     </row>
-    <row r="51" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3223,7 +3222,7 @@
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
     </row>
-    <row r="52" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3271,7 +3270,7 @@
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
     </row>
-    <row r="53" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3319,7 +3318,7 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
     </row>
-    <row r="54" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3367,7 +3366,7 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
     </row>
-    <row r="55" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3415,7 +3414,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
     </row>
-    <row r="56" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3463,7 +3462,7 @@
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
     </row>
-    <row r="57" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3511,7 +3510,7 @@
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3559,7 +3558,7 @@
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3607,7 +3606,7 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3655,7 +3654,7 @@
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3703,7 +3702,7 @@
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
     </row>
-    <row r="62" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3751,7 +3750,7 @@
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
-    <row r="63" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3799,7 +3798,7 @@
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
-    <row r="64" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3847,7 +3846,7 @@
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
-    <row r="65" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3895,7 +3894,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3943,7 +3942,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3991,7 +3990,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
-    <row r="68" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4039,7 +4038,7 @@
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
-    <row r="69" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4087,7 +4086,7 @@
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
     </row>
-    <row r="70" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4135,7 +4134,7 @@
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
     </row>
-    <row r="71" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4183,7 +4182,7 @@
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
     </row>
-    <row r="72" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4231,7 +4230,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
     </row>
-    <row r="73" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4279,7 +4278,7 @@
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
     </row>
-    <row r="74" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4327,7 +4326,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4375,7 +4374,7 @@
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
     </row>
-    <row r="76" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4423,7 +4422,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4471,7 +4470,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4519,7 +4518,7 @@
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4567,7 +4566,7 @@
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4615,7 +4614,7 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
     </row>
-    <row r="81" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4663,7 +4662,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4711,7 +4710,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
     </row>
-    <row r="83" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4759,7 +4758,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4807,7 +4806,7 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
     </row>
-    <row r="85" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4855,7 +4854,7 @@
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
     </row>
-    <row r="86" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4903,7 +4902,7 @@
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
     </row>
-    <row r="87" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4951,7 +4950,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
     </row>
-    <row r="88" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4999,7 +4998,7 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
     </row>
-    <row r="89" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5047,7 +5046,7 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5095,7 +5094,7 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
     </row>
-    <row r="91" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5143,7 +5142,7 @@
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
     </row>
-    <row r="92" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5191,7 +5190,7 @@
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
     </row>
-    <row r="93" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5239,7 +5238,7 @@
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
     </row>
-    <row r="94" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5287,7 +5286,7 @@
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
     </row>
-    <row r="95" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5335,7 +5334,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5383,7 +5382,7 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
     </row>
-    <row r="97" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5431,7 +5430,7 @@
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
     </row>
-    <row r="98" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5479,7 +5478,7 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
     </row>
-    <row r="99" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5527,7 +5526,7 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
     </row>
-    <row r="100" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5575,7 +5574,7 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
     </row>
-    <row r="101" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5623,7 +5622,7 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
     </row>
-    <row r="102" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5671,7 +5670,7 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
     </row>
-    <row r="103" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5719,7 +5718,7 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
     </row>
-    <row r="104" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5767,7 +5766,7 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
     </row>
-    <row r="105" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5815,7 +5814,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5863,7 +5862,7 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
     </row>
-    <row r="107" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5911,7 +5910,7 @@
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
     </row>
-    <row r="108" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5959,7 +5958,7 @@
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
     </row>
-    <row r="109" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6007,7 +6006,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
     </row>
-    <row r="110" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6055,7 +6054,7 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
     </row>
-    <row r="111" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6103,7 +6102,7 @@
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
     </row>
-    <row r="112" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6151,7 +6150,7 @@
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
     </row>
-    <row r="113" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6199,7 +6198,7 @@
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
     </row>
-    <row r="114" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6247,7 +6246,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6295,7 +6294,7 @@
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
     </row>
-    <row r="116" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6343,7 +6342,7 @@
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
     </row>
-    <row r="117" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6391,7 +6390,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6439,7 +6438,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6487,7 +6486,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6535,7 +6534,7 @@
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6583,7 +6582,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6631,7 +6630,7 @@
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6679,7 +6678,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6727,7 +6726,7 @@
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6775,7 +6774,7 @@
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6823,7 +6822,7 @@
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6871,7 +6870,7 @@
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6919,7 +6918,7 @@
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6967,7 +6966,7 @@
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7015,7 +7014,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7063,7 +7062,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7111,7 +7110,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7159,7 +7158,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7207,7 +7206,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7255,7 +7254,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7303,7 +7302,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7351,7 +7350,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7399,7 +7398,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7447,7 +7446,7 @@
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
     </row>
-    <row r="140" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7495,7 +7494,7 @@
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
     </row>
-    <row r="141" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7543,7 +7542,7 @@
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
     </row>
-    <row r="142" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7591,7 +7590,7 @@
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
     </row>
-    <row r="143" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7639,7 +7638,7 @@
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
     </row>
-    <row r="144" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7687,7 +7686,7 @@
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
     </row>
-    <row r="145" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7735,7 +7734,7 @@
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
     </row>
-    <row r="146" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7783,7 +7782,7 @@
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
     </row>
-    <row r="147" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7831,7 +7830,7 @@
       <c r="AS147" s="2"/>
       <c r="AT147" s="2"/>
     </row>
-    <row r="148" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7879,7 +7878,7 @@
       <c r="AS148" s="2"/>
       <c r="AT148" s="2"/>
     </row>
-    <row r="149" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7927,7 +7926,7 @@
       <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
     </row>
-    <row r="150" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7975,7 +7974,7 @@
       <c r="AS150" s="2"/>
       <c r="AT150" s="2"/>
     </row>
-    <row r="151" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8023,7 +8022,7 @@
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
     </row>
-    <row r="152" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8071,7 +8070,7 @@
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
     </row>
-    <row r="153" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8119,7 +8118,7 @@
       <c r="AS153" s="2"/>
       <c r="AT153" s="2"/>
     </row>
-    <row r="154" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8167,7 +8166,7 @@
       <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
     </row>
-    <row r="155" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8215,7 +8214,7 @@
       <c r="AS155" s="2"/>
       <c r="AT155" s="2"/>
     </row>
-    <row r="156" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8263,7 +8262,7 @@
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
     </row>
-    <row r="157" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8311,7 +8310,7 @@
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
     </row>
-    <row r="158" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8359,7 +8358,7 @@
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
     </row>
-    <row r="159" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8407,7 +8406,7 @@
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
     </row>
-    <row r="160" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8455,7 +8454,7 @@
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
     </row>
-    <row r="161" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8503,7 +8502,7 @@
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
     </row>
-    <row r="162" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8551,7 +8550,7 @@
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
     </row>
-    <row r="163" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8599,7 +8598,7 @@
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
     </row>
-    <row r="164" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8647,7 +8646,7 @@
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
     </row>
-    <row r="165" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8695,7 +8694,7 @@
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
     </row>
-    <row r="166" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8743,7 +8742,7 @@
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
     </row>
-    <row r="167" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8791,7 +8790,7 @@
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
     </row>
-    <row r="168" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8839,7 +8838,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8887,7 +8886,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8935,7 +8934,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8983,7 +8982,7 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
     </row>
-    <row r="172" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9031,7 +9030,7 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
     </row>
-    <row r="173" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9079,7 +9078,7 @@
       <c r="AS173" s="2"/>
       <c r="AT173" s="2"/>
     </row>
-    <row r="174" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9127,7 +9126,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9175,7 +9174,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9223,7 +9222,7 @@
       <c r="AS176" s="2"/>
       <c r="AT176" s="2"/>
     </row>
-    <row r="177" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9271,7 +9270,7 @@
       <c r="AS177" s="2"/>
       <c r="AT177" s="2"/>
     </row>
-    <row r="178" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9319,7 +9318,7 @@
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
     </row>
-    <row r="179" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9367,7 +9366,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9415,7 +9414,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9463,7 +9462,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9511,7 +9510,7 @@
       <c r="AS182" s="2"/>
       <c r="AT182" s="2"/>
     </row>
-    <row r="183" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9559,7 +9558,7 @@
       <c r="AS183" s="2"/>
       <c r="AT183" s="2"/>
     </row>
-    <row r="184" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9607,7 +9606,7 @@
       <c r="AS184" s="2"/>
       <c r="AT184" s="2"/>
     </row>
-    <row r="185" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9655,7 +9654,7 @@
       <c r="AS185" s="2"/>
       <c r="AT185" s="2"/>
     </row>
-    <row r="186" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9703,7 +9702,7 @@
       <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
     </row>
-    <row r="187" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9751,7 +9750,7 @@
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
     </row>
-    <row r="188" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9799,7 +9798,7 @@
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
     </row>
-    <row r="189" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9847,7 +9846,7 @@
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
     </row>
-    <row r="190" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9895,7 +9894,7 @@
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
     </row>
-    <row r="191" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9943,7 +9942,7 @@
       <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
     </row>
-    <row r="192" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9991,7 +9990,7 @@
       <c r="AS192" s="2"/>
       <c r="AT192" s="2"/>
     </row>
-    <row r="193" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10039,7 +10038,7 @@
       <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
     </row>
-    <row r="194" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10087,7 +10086,7 @@
       <c r="AS194" s="2"/>
       <c r="AT194" s="2"/>
     </row>
-    <row r="195" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10135,7 +10134,7 @@
       <c r="AS195" s="2"/>
       <c r="AT195" s="2"/>
     </row>
-    <row r="196" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10183,7 +10182,7 @@
       <c r="AS196" s="2"/>
       <c r="AT196" s="2"/>
     </row>
-    <row r="197" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10231,7 +10230,7 @@
       <c r="AS197" s="2"/>
       <c r="AT197" s="2"/>
     </row>
-    <row r="198" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10279,7 +10278,7 @@
       <c r="AS198" s="2"/>
       <c r="AT198" s="2"/>
     </row>
-    <row r="199" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10327,7 +10326,7 @@
       <c r="AS199" s="2"/>
       <c r="AT199" s="2"/>
     </row>
-    <row r="200" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10375,7 +10374,7 @@
       <c r="AS200" s="2"/>
       <c r="AT200" s="2"/>
     </row>
-    <row r="201" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10423,7 +10422,7 @@
       <c r="AS201" s="2"/>
       <c r="AT201" s="2"/>
     </row>
-    <row r="202" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10471,7 +10470,7 @@
       <c r="AS202" s="2"/>
       <c r="AT202" s="2"/>
     </row>
-    <row r="203" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10519,7 +10518,7 @@
       <c r="AS203" s="2"/>
       <c r="AT203" s="2"/>
     </row>
-    <row r="204" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10567,7 +10566,7 @@
       <c r="AS204" s="2"/>
       <c r="AT204" s="2"/>
     </row>
-    <row r="205" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10615,7 +10614,7 @@
       <c r="AS205" s="2"/>
       <c r="AT205" s="2"/>
     </row>
-    <row r="206" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10663,7 +10662,7 @@
       <c r="AS206" s="2"/>
       <c r="AT206" s="2"/>
     </row>
-    <row r="207" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10711,7 +10710,7 @@
       <c r="AS207" s="2"/>
       <c r="AT207" s="2"/>
     </row>
-    <row r="208" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10759,7 +10758,7 @@
       <c r="AS208" s="2"/>
       <c r="AT208" s="2"/>
     </row>
-    <row r="209" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10807,7 +10806,7 @@
       <c r="AS209" s="2"/>
       <c r="AT209" s="2"/>
     </row>
-    <row r="210" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10855,7 +10854,7 @@
       <c r="AS210" s="2"/>
       <c r="AT210" s="2"/>
     </row>
-    <row r="211" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10903,7 +10902,7 @@
       <c r="AS211" s="2"/>
       <c r="AT211" s="2"/>
     </row>
-    <row r="212" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10951,7 +10950,7 @@
       <c r="AS212" s="2"/>
       <c r="AT212" s="2"/>
     </row>
-    <row r="213" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10999,7 +10998,7 @@
       <c r="AS213" s="2"/>
       <c r="AT213" s="2"/>
     </row>
-    <row r="214" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11047,7 +11046,7 @@
       <c r="AS214" s="2"/>
       <c r="AT214" s="2"/>
     </row>
-    <row r="215" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11095,7 +11094,7 @@
       <c r="AS215" s="2"/>
       <c r="AT215" s="2"/>
     </row>
-    <row r="216" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11143,7 +11142,7 @@
       <c r="AS216" s="2"/>
       <c r="AT216" s="2"/>
     </row>
-    <row r="217" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11191,7 +11190,7 @@
       <c r="AS217" s="2"/>
       <c r="AT217" s="2"/>
     </row>
-    <row r="218" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11239,7 +11238,7 @@
       <c r="AS218" s="2"/>
       <c r="AT218" s="2"/>
     </row>
-    <row r="219" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11287,7 +11286,7 @@
       <c r="AS219" s="2"/>
       <c r="AT219" s="2"/>
     </row>
-    <row r="220" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11335,7 +11334,7 @@
       <c r="AS220" s="2"/>
       <c r="AT220" s="2"/>
     </row>
-    <row r="221" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11383,7 +11382,7 @@
       <c r="AS221" s="2"/>
       <c r="AT221" s="2"/>
     </row>
-    <row r="222" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11431,7 +11430,7 @@
       <c r="AS222" s="2"/>
       <c r="AT222" s="2"/>
     </row>
-    <row r="223" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11479,7 +11478,7 @@
       <c r="AS223" s="2"/>
       <c r="AT223" s="2"/>
     </row>
-    <row r="224" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11527,7 +11526,7 @@
       <c r="AS224" s="2"/>
       <c r="AT224" s="2"/>
     </row>
-    <row r="225" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11575,7 +11574,7 @@
       <c r="AS225" s="2"/>
       <c r="AT225" s="2"/>
     </row>
-    <row r="226" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11623,7 +11622,7 @@
       <c r="AS226" s="2"/>
       <c r="AT226" s="2"/>
     </row>
-    <row r="227" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11671,7 +11670,7 @@
       <c r="AS227" s="2"/>
       <c r="AT227" s="2"/>
     </row>
-    <row r="228" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11719,7 +11718,7 @@
       <c r="AS228" s="2"/>
       <c r="AT228" s="2"/>
     </row>
-    <row r="229" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11767,7 +11766,7 @@
       <c r="AS229" s="2"/>
       <c r="AT229" s="2"/>
     </row>
-    <row r="230" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11815,7 +11814,7 @@
       <c r="AS230" s="2"/>
       <c r="AT230" s="2"/>
     </row>
-    <row r="231" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11863,7 +11862,7 @@
       <c r="AS231" s="2"/>
       <c r="AT231" s="2"/>
     </row>
-    <row r="232" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11911,7 +11910,7 @@
       <c r="AS232" s="2"/>
       <c r="AT232" s="2"/>
     </row>
-    <row r="233" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11959,7 +11958,7 @@
       <c r="AS233" s="2"/>
       <c r="AT233" s="2"/>
     </row>
-    <row r="234" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12007,7 +12006,7 @@
       <c r="AS234" s="2"/>
       <c r="AT234" s="2"/>
     </row>
-    <row r="235" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12055,7 +12054,7 @@
       <c r="AS235" s="2"/>
       <c r="AT235" s="2"/>
     </row>
-    <row r="236" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12103,7 +12102,7 @@
       <c r="AS236" s="2"/>
       <c r="AT236" s="2"/>
     </row>
-    <row r="237" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12151,7 +12150,7 @@
       <c r="AS237" s="2"/>
       <c r="AT237" s="2"/>
     </row>
-    <row r="238" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12199,7 +12198,7 @@
       <c r="AS238" s="2"/>
       <c r="AT238" s="2"/>
     </row>
-    <row r="239" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12247,7 +12246,7 @@
       <c r="AS239" s="2"/>
       <c r="AT239" s="2"/>
     </row>
-    <row r="240" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12295,7 +12294,7 @@
       <c r="AS240" s="2"/>
       <c r="AT240" s="2"/>
     </row>
-    <row r="241" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12343,7 +12342,7 @@
       <c r="AS241" s="2"/>
       <c r="AT241" s="2"/>
     </row>
-    <row r="242" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12391,7 +12390,7 @@
       <c r="AS242" s="2"/>
       <c r="AT242" s="2"/>
     </row>
-    <row r="243" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12439,7 +12438,7 @@
       <c r="AS243" s="2"/>
       <c r="AT243" s="2"/>
     </row>
-    <row r="244" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12487,7 +12486,7 @@
       <c r="AS244" s="2"/>
       <c r="AT244" s="2"/>
     </row>
-    <row r="245" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12535,7 +12534,7 @@
       <c r="AS245" s="2"/>
       <c r="AT245" s="2"/>
     </row>
-    <row r="246" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12583,7 +12582,7 @@
       <c r="AS246" s="2"/>
       <c r="AT246" s="2"/>
     </row>
-    <row r="247" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12631,7 +12630,7 @@
       <c r="AS247" s="2"/>
       <c r="AT247" s="2"/>
     </row>
-    <row r="248" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12679,7 +12678,7 @@
       <c r="AS248" s="2"/>
       <c r="AT248" s="2"/>
     </row>
-    <row r="249" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12727,7 +12726,7 @@
       <c r="AS249" s="2"/>
       <c r="AT249" s="2"/>
     </row>
-    <row r="250" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12775,7 +12774,7 @@
       <c r="AS250" s="2"/>
       <c r="AT250" s="2"/>
     </row>
-    <row r="251" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12823,7 +12822,7 @@
       <c r="AS251" s="2"/>
       <c r="AT251" s="2"/>
     </row>
-    <row r="252" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12871,7 +12870,7 @@
       <c r="AS252" s="2"/>
       <c r="AT252" s="2"/>
     </row>
-    <row r="253" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12919,7 +12918,7 @@
       <c r="AS253" s="2"/>
       <c r="AT253" s="2"/>
     </row>
-    <row r="254" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12967,7 +12966,7 @@
       <c r="AS254" s="2"/>
       <c r="AT254" s="2"/>
     </row>
-    <row r="255" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13015,7 +13014,7 @@
       <c r="AS255" s="2"/>
       <c r="AT255" s="2"/>
     </row>
-    <row r="256" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13063,7 +13062,7 @@
       <c r="AS256" s="2"/>
       <c r="AT256" s="2"/>
     </row>
-    <row r="257" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13111,7 +13110,7 @@
       <c r="AS257" s="2"/>
       <c r="AT257" s="2"/>
     </row>
-    <row r="258" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13159,7 +13158,7 @@
       <c r="AS258" s="2"/>
       <c r="AT258" s="2"/>
     </row>
-    <row r="259" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13207,7 +13206,7 @@
       <c r="AS259" s="2"/>
       <c r="AT259" s="2"/>
     </row>
-    <row r="260" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13255,7 +13254,7 @@
       <c r="AS260" s="2"/>
       <c r="AT260" s="2"/>
     </row>
-    <row r="261" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13303,7 +13302,7 @@
       <c r="AS261" s="2"/>
       <c r="AT261" s="2"/>
     </row>
-    <row r="262" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13351,7 +13350,7 @@
       <c r="AS262" s="2"/>
       <c r="AT262" s="2"/>
     </row>
-    <row r="263" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13399,7 +13398,7 @@
       <c r="AS263" s="2"/>
       <c r="AT263" s="2"/>
     </row>
-    <row r="264" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13447,7 +13446,7 @@
       <c r="AS264" s="2"/>
       <c r="AT264" s="2"/>
     </row>
-    <row r="265" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13495,7 +13494,7 @@
       <c r="AS265" s="2"/>
       <c r="AT265" s="2"/>
     </row>
-    <row r="266" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13543,7 +13542,7 @@
       <c r="AS266" s="2"/>
       <c r="AT266" s="2"/>
     </row>
-    <row r="267" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13591,7 +13590,7 @@
       <c r="AS267" s="2"/>
       <c r="AT267" s="2"/>
     </row>
-    <row r="268" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13639,7 +13638,7 @@
       <c r="AS268" s="2"/>
       <c r="AT268" s="2"/>
     </row>
-    <row r="269" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13687,7 +13686,7 @@
       <c r="AS269" s="2"/>
       <c r="AT269" s="2"/>
     </row>
-    <row r="270" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13735,7 +13734,7 @@
       <c r="AS270" s="2"/>
       <c r="AT270" s="2"/>
     </row>
-    <row r="271" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13783,7 +13782,7 @@
       <c r="AS271" s="2"/>
       <c r="AT271" s="2"/>
     </row>
-    <row r="272" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13831,7 +13830,7 @@
       <c r="AS272" s="2"/>
       <c r="AT272" s="2"/>
     </row>
-    <row r="273" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13879,7 +13878,7 @@
       <c r="AS273" s="2"/>
       <c r="AT273" s="2"/>
     </row>
-    <row r="274" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13927,7 +13926,7 @@
       <c r="AS274" s="2"/>
       <c r="AT274" s="2"/>
     </row>
-    <row r="275" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13975,7 +13974,7 @@
       <c r="AS275" s="2"/>
       <c r="AT275" s="2"/>
     </row>
-    <row r="276" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14023,7 +14022,7 @@
       <c r="AS276" s="2"/>
       <c r="AT276" s="2"/>
     </row>
-    <row r="277" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14071,7 +14070,7 @@
       <c r="AS277" s="2"/>
       <c r="AT277" s="2"/>
     </row>
-    <row r="278" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -14119,7 +14118,7 @@
       <c r="AS278" s="2"/>
       <c r="AT278" s="2"/>
     </row>
-    <row r="279" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -14167,7 +14166,7 @@
       <c r="AS279" s="2"/>
       <c r="AT279" s="2"/>
     </row>
-    <row r="280" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -14215,7 +14214,7 @@
       <c r="AS280" s="2"/>
       <c r="AT280" s="2"/>
     </row>
-    <row r="281" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14263,7 +14262,7 @@
       <c r="AS281" s="2"/>
       <c r="AT281" s="2"/>
     </row>
-    <row r="282" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14311,7 +14310,7 @@
       <c r="AS282" s="2"/>
       <c r="AT282" s="2"/>
     </row>
-    <row r="283" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14359,7 +14358,7 @@
       <c r="AS283" s="2"/>
       <c r="AT283" s="2"/>
     </row>
-    <row r="284" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14407,7 +14406,7 @@
       <c r="AS284" s="2"/>
       <c r="AT284" s="2"/>
     </row>
-    <row r="285" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14455,7 +14454,7 @@
       <c r="AS285" s="2"/>
       <c r="AT285" s="2"/>
     </row>
-    <row r="286" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14503,7 +14502,7 @@
       <c r="AS286" s="2"/>
       <c r="AT286" s="2"/>
     </row>
-    <row r="287" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14551,7 +14550,7 @@
       <c r="AS287" s="2"/>
       <c r="AT287" s="2"/>
     </row>
-    <row r="288" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14599,7 +14598,7 @@
       <c r="AS288" s="2"/>
       <c r="AT288" s="2"/>
     </row>
-    <row r="289" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14647,7 +14646,7 @@
       <c r="AS289" s="2"/>
       <c r="AT289" s="2"/>
     </row>
-    <row r="290" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14695,7 +14694,7 @@
       <c r="AS290" s="2"/>
       <c r="AT290" s="2"/>
     </row>
-    <row r="291" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14743,7 +14742,7 @@
       <c r="AS291" s="2"/>
       <c r="AT291" s="2"/>
     </row>
-    <row r="292" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14791,7 +14790,7 @@
       <c r="AS292" s="2"/>
       <c r="AT292" s="2"/>
     </row>
-    <row r="293" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14839,7 +14838,7 @@
       <c r="AS293" s="2"/>
       <c r="AT293" s="2"/>
     </row>
-    <row r="294" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14887,7 +14886,7 @@
       <c r="AS294" s="2"/>
       <c r="AT294" s="2"/>
     </row>
-    <row r="295" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14935,7 +14934,7 @@
       <c r="AS295" s="2"/>
       <c r="AT295" s="2"/>
     </row>
-    <row r="296" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14983,7 +14982,7 @@
       <c r="AS296" s="2"/>
       <c r="AT296" s="2"/>
     </row>
-    <row r="297" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -15031,7 +15030,7 @@
       <c r="AS297" s="2"/>
       <c r="AT297" s="2"/>
     </row>
-    <row r="298" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -15079,7 +15078,7 @@
       <c r="AS298" s="2"/>
       <c r="AT298" s="2"/>
     </row>
-    <row r="299" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -15127,7 +15126,7 @@
       <c r="AS299" s="2"/>
       <c r="AT299" s="2"/>
     </row>
-    <row r="300" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -15175,7 +15174,7 @@
       <c r="AS300" s="2"/>
       <c r="AT300" s="2"/>
     </row>
-    <row r="301" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -15223,7 +15222,7 @@
       <c r="AS301" s="2"/>
       <c r="AT301" s="2"/>
     </row>
-    <row r="302" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -15271,7 +15270,7 @@
       <c r="AS302" s="2"/>
       <c r="AT302" s="2"/>
     </row>
-    <row r="303" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -15319,7 +15318,7 @@
       <c r="AS303" s="2"/>
       <c r="AT303" s="2"/>
     </row>
-    <row r="304" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15367,7 +15366,7 @@
       <c r="AS304" s="2"/>
       <c r="AT304" s="2"/>
     </row>
-    <row r="305" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -15415,7 +15414,7 @@
       <c r="AS305" s="2"/>
       <c r="AT305" s="2"/>
     </row>
-    <row r="306" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -15463,7 +15462,7 @@
       <c r="AS306" s="2"/>
       <c r="AT306" s="2"/>
     </row>
-    <row r="307" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -15511,7 +15510,7 @@
       <c r="AS307" s="2"/>
       <c r="AT307" s="2"/>
     </row>
-    <row r="308" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -15559,7 +15558,7 @@
       <c r="AS308" s="2"/>
       <c r="AT308" s="2"/>
     </row>
-    <row r="309" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -15607,7 +15606,7 @@
       <c r="AS309" s="2"/>
       <c r="AT309" s="2"/>
     </row>
-    <row r="310" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15655,7 +15654,7 @@
       <c r="AS310" s="2"/>
       <c r="AT310" s="2"/>
     </row>
-    <row r="311" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -15703,7 +15702,7 @@
       <c r="AS311" s="2"/>
       <c r="AT311" s="2"/>
     </row>
-    <row r="312" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -15751,7 +15750,7 @@
       <c r="AS312" s="2"/>
       <c r="AT312" s="2"/>
     </row>
-    <row r="313" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15799,7 +15798,7 @@
       <c r="AS313" s="2"/>
       <c r="AT313" s="2"/>
     </row>
-    <row r="314" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15847,7 +15846,7 @@
       <c r="AS314" s="2"/>
       <c r="AT314" s="2"/>
     </row>
-    <row r="315" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15895,7 +15894,7 @@
       <c r="AS315" s="2"/>
       <c r="AT315" s="2"/>
     </row>
-    <row r="316" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15943,7 +15942,7 @@
       <c r="AS316" s="2"/>
       <c r="AT316" s="2"/>
     </row>
-    <row r="317" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15991,7 +15990,7 @@
       <c r="AS317" s="2"/>
       <c r="AT317" s="2"/>
     </row>
-    <row r="318" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -16039,7 +16038,7 @@
       <c r="AS318" s="2"/>
       <c r="AT318" s="2"/>
     </row>
-    <row r="319" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -16087,7 +16086,7 @@
       <c r="AS319" s="2"/>
       <c r="AT319" s="2"/>
     </row>
-    <row r="320" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -16135,7 +16134,7 @@
       <c r="AS320" s="2"/>
       <c r="AT320" s="2"/>
     </row>
-    <row r="321" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -16183,7 +16182,7 @@
       <c r="AS321" s="2"/>
       <c r="AT321" s="2"/>
     </row>
-    <row r="322" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -16231,7 +16230,7 @@
       <c r="AS322" s="2"/>
       <c r="AT322" s="2"/>
     </row>
-    <row r="323" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -16279,7 +16278,7 @@
       <c r="AS323" s="2"/>
       <c r="AT323" s="2"/>
     </row>
-    <row r="324" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -16327,7 +16326,7 @@
       <c r="AS324" s="2"/>
       <c r="AT324" s="2"/>
     </row>
-    <row r="325" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -16375,7 +16374,7 @@
       <c r="AS325" s="2"/>
       <c r="AT325" s="2"/>
     </row>
-    <row r="326" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -16423,7 +16422,7 @@
       <c r="AS326" s="2"/>
       <c r="AT326" s="2"/>
     </row>
-    <row r="327" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -16471,7 +16470,7 @@
       <c r="AS327" s="2"/>
       <c r="AT327" s="2"/>
     </row>
-    <row r="328" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -16519,7 +16518,7 @@
       <c r="AS328" s="2"/>
       <c r="AT328" s="2"/>
     </row>
-    <row r="329" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -16567,7 +16566,7 @@
       <c r="AS329" s="2"/>
       <c r="AT329" s="2"/>
     </row>
-    <row r="330" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -16615,7 +16614,7 @@
       <c r="AS330" s="2"/>
       <c r="AT330" s="2"/>
     </row>
-    <row r="331" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -16663,7 +16662,7 @@
       <c r="AS331" s="2"/>
       <c r="AT331" s="2"/>
     </row>
-    <row r="332" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -16711,7 +16710,7 @@
       <c r="AS332" s="2"/>
       <c r="AT332" s="2"/>
     </row>
-    <row r="333" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -16759,7 +16758,7 @@
       <c r="AS333" s="2"/>
       <c r="AT333" s="2"/>
     </row>
-    <row r="334" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -16807,7 +16806,7 @@
       <c r="AS334" s="2"/>
       <c r="AT334" s="2"/>
     </row>
-    <row r="335" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -16855,7 +16854,7 @@
       <c r="AS335" s="2"/>
       <c r="AT335" s="2"/>
     </row>
-    <row r="336" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -16903,7 +16902,7 @@
       <c r="AS336" s="2"/>
       <c r="AT336" s="2"/>
     </row>
-    <row r="337" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -16951,7 +16950,7 @@
       <c r="AS337" s="2"/>
       <c r="AT337" s="2"/>
     </row>
-    <row r="338" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -16999,7 +16998,7 @@
       <c r="AS338" s="2"/>
       <c r="AT338" s="2"/>
     </row>
-    <row r="339" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -17047,7 +17046,7 @@
       <c r="AS339" s="2"/>
       <c r="AT339" s="2"/>
     </row>
-    <row r="340" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -17095,7 +17094,7 @@
       <c r="AS340" s="2"/>
       <c r="AT340" s="2"/>
     </row>
-    <row r="341" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -17143,7 +17142,7 @@
       <c r="AS341" s="2"/>
       <c r="AT341" s="2"/>
     </row>
-    <row r="342" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -17191,7 +17190,7 @@
       <c r="AS342" s="2"/>
       <c r="AT342" s="2"/>
     </row>
-    <row r="343" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -17239,7 +17238,7 @@
       <c r="AS343" s="2"/>
       <c r="AT343" s="2"/>
     </row>
-    <row r="344" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -17287,7 +17286,7 @@
       <c r="AS344" s="2"/>
       <c r="AT344" s="2"/>
     </row>
-    <row r="345" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -17335,7 +17334,7 @@
       <c r="AS345" s="2"/>
       <c r="AT345" s="2"/>
     </row>
-    <row r="346" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -17383,7 +17382,7 @@
       <c r="AS346" s="2"/>
       <c r="AT346" s="2"/>
     </row>
-    <row r="347" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -17431,7 +17430,7 @@
       <c r="AS347" s="2"/>
       <c r="AT347" s="2"/>
     </row>
-    <row r="348" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -17479,7 +17478,7 @@
       <c r="AS348" s="2"/>
       <c r="AT348" s="2"/>
     </row>
-    <row r="349" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -17527,7 +17526,7 @@
       <c r="AS349" s="2"/>
       <c r="AT349" s="2"/>
     </row>
-    <row r="350" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -17575,7 +17574,7 @@
       <c r="AS350" s="2"/>
       <c r="AT350" s="2"/>
     </row>
-    <row r="351" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -17623,7 +17622,7 @@
       <c r="AS351" s="2"/>
       <c r="AT351" s="2"/>
     </row>
-    <row r="352" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -17671,7 +17670,7 @@
       <c r="AS352" s="2"/>
       <c r="AT352" s="2"/>
     </row>
-    <row r="353" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -17719,7 +17718,7 @@
       <c r="AS353" s="2"/>
       <c r="AT353" s="2"/>
     </row>
-    <row r="354" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -17767,7 +17766,7 @@
       <c r="AS354" s="2"/>
       <c r="AT354" s="2"/>
     </row>
-    <row r="355" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -17815,7 +17814,7 @@
       <c r="AS355" s="2"/>
       <c r="AT355" s="2"/>
     </row>
-    <row r="356" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -17863,7 +17862,7 @@
       <c r="AS356" s="2"/>
       <c r="AT356" s="2"/>
     </row>
-    <row r="357" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -17911,7 +17910,7 @@
       <c r="AS357" s="2"/>
       <c r="AT357" s="2"/>
     </row>
-    <row r="358" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -17959,7 +17958,7 @@
       <c r="AS358" s="2"/>
       <c r="AT358" s="2"/>
     </row>
-    <row r="359" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -18007,7 +18006,7 @@
       <c r="AS359" s="2"/>
       <c r="AT359" s="2"/>
     </row>
-    <row r="360" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -18055,7 +18054,7 @@
       <c r="AS360" s="2"/>
       <c r="AT360" s="2"/>
     </row>
-    <row r="361" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -18103,7 +18102,7 @@
       <c r="AS361" s="2"/>
       <c r="AT361" s="2"/>
     </row>
-    <row r="362" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -18151,7 +18150,7 @@
       <c r="AS362" s="2"/>
       <c r="AT362" s="2"/>
     </row>
-    <row r="363" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -18199,7 +18198,7 @@
       <c r="AS363" s="2"/>
       <c r="AT363" s="2"/>
     </row>
-    <row r="364" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -18247,7 +18246,7 @@
       <c r="AS364" s="2"/>
       <c r="AT364" s="2"/>
     </row>
-    <row r="365" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -18295,7 +18294,7 @@
       <c r="AS365" s="2"/>
       <c r="AT365" s="2"/>
     </row>
-    <row r="366" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -18343,7 +18342,7 @@
       <c r="AS366" s="2"/>
       <c r="AT366" s="2"/>
     </row>
-    <row r="367" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -18391,7 +18390,7 @@
       <c r="AS367" s="2"/>
       <c r="AT367" s="2"/>
     </row>
-    <row r="368" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -18439,7 +18438,7 @@
       <c r="AS368" s="2"/>
       <c r="AT368" s="2"/>
     </row>
-    <row r="369" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -18487,7 +18486,7 @@
       <c r="AS369" s="2"/>
       <c r="AT369" s="2"/>
     </row>
-    <row r="370" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -18535,7 +18534,7 @@
       <c r="AS370" s="2"/>
       <c r="AT370" s="2"/>
     </row>
-    <row r="371" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -18583,7 +18582,7 @@
       <c r="AS371" s="2"/>
       <c r="AT371" s="2"/>
     </row>
-    <row r="372" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -18631,7 +18630,7 @@
       <c r="AS372" s="2"/>
       <c r="AT372" s="2"/>
     </row>
-    <row r="373" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -18679,7 +18678,7 @@
       <c r="AS373" s="2"/>
       <c r="AT373" s="2"/>
     </row>
-    <row r="374" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -18727,7 +18726,7 @@
       <c r="AS374" s="2"/>
       <c r="AT374" s="2"/>
     </row>
-    <row r="375" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -18775,7 +18774,7 @@
       <c r="AS375" s="2"/>
       <c r="AT375" s="2"/>
     </row>
-    <row r="376" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -18823,7 +18822,7 @@
       <c r="AS376" s="2"/>
       <c r="AT376" s="2"/>
     </row>
-    <row r="377" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -18871,7 +18870,7 @@
       <c r="AS377" s="2"/>
       <c r="AT377" s="2"/>
     </row>
-    <row r="378" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -18919,7 +18918,7 @@
       <c r="AS378" s="2"/>
       <c r="AT378" s="2"/>
     </row>
-    <row r="379" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -18967,7 +18966,7 @@
       <c r="AS379" s="2"/>
       <c r="AT379" s="2"/>
     </row>
-    <row r="380" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -19015,7 +19014,7 @@
       <c r="AS380" s="2"/>
       <c r="AT380" s="2"/>
     </row>
-    <row r="381" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -19063,7 +19062,7 @@
       <c r="AS381" s="2"/>
       <c r="AT381" s="2"/>
     </row>
-    <row r="382" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -19111,7 +19110,7 @@
       <c r="AS382" s="2"/>
       <c r="AT382" s="2"/>
     </row>
-    <row r="383" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -19159,7 +19158,7 @@
       <c r="AS383" s="2"/>
       <c r="AT383" s="2"/>
     </row>
-    <row r="384" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -19207,7 +19206,7 @@
       <c r="AS384" s="2"/>
       <c r="AT384" s="2"/>
     </row>
-    <row r="385" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -19255,7 +19254,7 @@
       <c r="AS385" s="2"/>
       <c r="AT385" s="2"/>
     </row>
-    <row r="386" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -19303,7 +19302,7 @@
       <c r="AS386" s="2"/>
       <c r="AT386" s="2"/>
     </row>
-    <row r="387" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -19351,7 +19350,7 @@
       <c r="AS387" s="2"/>
       <c r="AT387" s="2"/>
     </row>
-    <row r="388" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -19399,7 +19398,7 @@
       <c r="AS388" s="2"/>
       <c r="AT388" s="2"/>
     </row>
-    <row r="389" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -19447,7 +19446,7 @@
       <c r="AS389" s="2"/>
       <c r="AT389" s="2"/>
     </row>
-    <row r="390" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -19495,7 +19494,7 @@
       <c r="AS390" s="2"/>
       <c r="AT390" s="2"/>
     </row>
-    <row r="391" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -19543,7 +19542,7 @@
       <c r="AS391" s="2"/>
       <c r="AT391" s="2"/>
     </row>
-    <row r="392" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -19591,7 +19590,7 @@
       <c r="AS392" s="2"/>
       <c r="AT392" s="2"/>
     </row>
-    <row r="393" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -19639,7 +19638,7 @@
       <c r="AS393" s="2"/>
       <c r="AT393" s="2"/>
     </row>
-    <row r="394" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -19687,7 +19686,7 @@
       <c r="AS394" s="2"/>
       <c r="AT394" s="2"/>
     </row>
-    <row r="395" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -19735,7 +19734,7 @@
       <c r="AS395" s="2"/>
       <c r="AT395" s="2"/>
     </row>
-    <row r="396" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -19783,7 +19782,7 @@
       <c r="AS396" s="2"/>
       <c r="AT396" s="2"/>
     </row>
-    <row r="397" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -19831,7 +19830,7 @@
       <c r="AS397" s="2"/>
       <c r="AT397" s="2"/>
     </row>
-    <row r="398" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -19879,7 +19878,7 @@
       <c r="AS398" s="2"/>
       <c r="AT398" s="2"/>
     </row>
-    <row r="399" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -19927,7 +19926,7 @@
       <c r="AS399" s="2"/>
       <c r="AT399" s="2"/>
     </row>
-    <row r="400" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -19975,7 +19974,7 @@
       <c r="AS400" s="2"/>
       <c r="AT400" s="2"/>
     </row>
-    <row r="401" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -20023,7 +20022,7 @@
       <c r="AS401" s="2"/>
       <c r="AT401" s="2"/>
     </row>
-    <row r="402" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -20071,7 +20070,7 @@
       <c r="AS402" s="2"/>
       <c r="AT402" s="2"/>
     </row>
-    <row r="403" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -20119,7 +20118,7 @@
       <c r="AS403" s="2"/>
       <c r="AT403" s="2"/>
     </row>
-    <row r="404" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -20167,7 +20166,7 @@
       <c r="AS404" s="2"/>
       <c r="AT404" s="2"/>
     </row>
-    <row r="405" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -20215,7 +20214,7 @@
       <c r="AS405" s="2"/>
       <c r="AT405" s="2"/>
     </row>
-    <row r="406" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -20263,7 +20262,7 @@
       <c r="AS406" s="2"/>
       <c r="AT406" s="2"/>
     </row>
-    <row r="407" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -20311,7 +20310,7 @@
       <c r="AS407" s="2"/>
       <c r="AT407" s="2"/>
     </row>
-    <row r="408" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -20359,7 +20358,7 @@
       <c r="AS408" s="2"/>
       <c r="AT408" s="2"/>
     </row>
-    <row r="409" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -20407,7 +20406,7 @@
       <c r="AS409" s="2"/>
       <c r="AT409" s="2"/>
     </row>
-    <row r="410" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -20455,7 +20454,7 @@
       <c r="AS410" s="2"/>
       <c r="AT410" s="2"/>
     </row>
-    <row r="411" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -20503,7 +20502,7 @@
       <c r="AS411" s="2"/>
       <c r="AT411" s="2"/>
     </row>
-    <row r="412" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -20551,7 +20550,7 @@
       <c r="AS412" s="2"/>
       <c r="AT412" s="2"/>
     </row>
-    <row r="413" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -20599,7 +20598,7 @@
       <c r="AS413" s="2"/>
       <c r="AT413" s="2"/>
     </row>
-    <row r="414" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -20647,7 +20646,7 @@
       <c r="AS414" s="2"/>
       <c r="AT414" s="2"/>
     </row>
-    <row r="415" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -20695,7 +20694,7 @@
       <c r="AS415" s="2"/>
       <c r="AT415" s="2"/>
     </row>
-    <row r="416" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -20743,7 +20742,7 @@
       <c r="AS416" s="2"/>
       <c r="AT416" s="2"/>
     </row>
-    <row r="417" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -20791,7 +20790,7 @@
       <c r="AS417" s="2"/>
       <c r="AT417" s="2"/>
     </row>
-    <row r="418" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -20839,7 +20838,7 @@
       <c r="AS418" s="2"/>
       <c r="AT418" s="2"/>
     </row>
-    <row r="419" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -20887,7 +20886,7 @@
       <c r="AS419" s="2"/>
       <c r="AT419" s="2"/>
     </row>
-    <row r="420" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -20935,7 +20934,7 @@
       <c r="AS420" s="2"/>
       <c r="AT420" s="2"/>
     </row>
-    <row r="421" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -20983,7 +20982,7 @@
       <c r="AS421" s="2"/>
       <c r="AT421" s="2"/>
     </row>
-    <row r="422" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -21031,7 +21030,7 @@
       <c r="AS422" s="2"/>
       <c r="AT422" s="2"/>
     </row>
-    <row r="423" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -21079,7 +21078,7 @@
       <c r="AS423" s="2"/>
       <c r="AT423" s="2"/>
     </row>
-    <row r="424" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -21127,7 +21126,7 @@
       <c r="AS424" s="2"/>
       <c r="AT424" s="2"/>
     </row>
-    <row r="425" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -21175,7 +21174,7 @@
       <c r="AS425" s="2"/>
       <c r="AT425" s="2"/>
     </row>
-    <row r="426" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -21223,7 +21222,7 @@
       <c r="AS426" s="2"/>
       <c r="AT426" s="2"/>
     </row>
-    <row r="427" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -21271,7 +21270,7 @@
       <c r="AS427" s="2"/>
       <c r="AT427" s="2"/>
     </row>
-    <row r="428" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -21319,7 +21318,7 @@
       <c r="AS428" s="2"/>
       <c r="AT428" s="2"/>
     </row>
-    <row r="429" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -21367,7 +21366,7 @@
       <c r="AS429" s="2"/>
       <c r="AT429" s="2"/>
     </row>
-    <row r="430" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -21415,7 +21414,7 @@
       <c r="AS430" s="2"/>
       <c r="AT430" s="2"/>
     </row>
-    <row r="431" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -21463,7 +21462,7 @@
       <c r="AS431" s="2"/>
       <c r="AT431" s="2"/>
     </row>
-    <row r="432" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -21511,7 +21510,7 @@
       <c r="AS432" s="2"/>
       <c r="AT432" s="2"/>
     </row>
-    <row r="433" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -21559,7 +21558,7 @@
       <c r="AS433" s="2"/>
       <c r="AT433" s="2"/>
     </row>
-    <row r="434" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -21607,7 +21606,7 @@
       <c r="AS434" s="2"/>
       <c r="AT434" s="2"/>
     </row>
-    <row r="435" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -21655,7 +21654,7 @@
       <c r="AS435" s="2"/>
       <c r="AT435" s="2"/>
     </row>
-    <row r="436" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -21703,7 +21702,7 @@
       <c r="AS436" s="2"/>
       <c r="AT436" s="2"/>
     </row>
-    <row r="437" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -21751,7 +21750,7 @@
       <c r="AS437" s="2"/>
       <c r="AT437" s="2"/>
     </row>
-    <row r="438" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -21799,7 +21798,7 @@
       <c r="AS438" s="2"/>
       <c r="AT438" s="2"/>
     </row>
-    <row r="439" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -21847,7 +21846,7 @@
       <c r="AS439" s="2"/>
       <c r="AT439" s="2"/>
     </row>
-    <row r="440" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -21895,7 +21894,7 @@
       <c r="AS440" s="2"/>
       <c r="AT440" s="2"/>
     </row>
-    <row r="441" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -21943,7 +21942,7 @@
       <c r="AS441" s="2"/>
       <c r="AT441" s="2"/>
     </row>
-    <row r="442" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -21991,7 +21990,7 @@
       <c r="AS442" s="2"/>
       <c r="AT442" s="2"/>
     </row>
-    <row r="443" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -22039,7 +22038,7 @@
       <c r="AS443" s="2"/>
       <c r="AT443" s="2"/>
     </row>
-    <row r="444" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -22087,7 +22086,7 @@
       <c r="AS444" s="2"/>
       <c r="AT444" s="2"/>
     </row>
-    <row r="445" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -22135,7 +22134,7 @@
       <c r="AS445" s="2"/>
       <c r="AT445" s="2"/>
     </row>
-    <row r="446" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -22183,7 +22182,7 @@
       <c r="AS446" s="2"/>
       <c r="AT446" s="2"/>
     </row>
-    <row r="447" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -22231,7 +22230,7 @@
       <c r="AS447" s="2"/>
       <c r="AT447" s="2"/>
     </row>
-    <row r="448" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -22279,7 +22278,7 @@
       <c r="AS448" s="2"/>
       <c r="AT448" s="2"/>
     </row>
-    <row r="449" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -22327,7 +22326,7 @@
       <c r="AS449" s="2"/>
       <c r="AT449" s="2"/>
     </row>
-    <row r="450" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -22375,7 +22374,7 @@
       <c r="AS450" s="2"/>
       <c r="AT450" s="2"/>
     </row>
-    <row r="451" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -22423,7 +22422,7 @@
       <c r="AS451" s="2"/>
       <c r="AT451" s="2"/>
     </row>
-    <row r="452" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -22471,7 +22470,7 @@
       <c r="AS452" s="2"/>
       <c r="AT452" s="2"/>
     </row>
-    <row r="453" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -22519,7 +22518,7 @@
       <c r="AS453" s="2"/>
       <c r="AT453" s="2"/>
     </row>
-    <row r="454" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -22567,7 +22566,7 @@
       <c r="AS454" s="2"/>
       <c r="AT454" s="2"/>
     </row>
-    <row r="455" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -22615,7 +22614,7 @@
       <c r="AS455" s="2"/>
       <c r="AT455" s="2"/>
     </row>
-    <row r="456" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -22663,7 +22662,7 @@
       <c r="AS456" s="2"/>
       <c r="AT456" s="2"/>
     </row>
-    <row r="457" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -22711,7 +22710,7 @@
       <c r="AS457" s="2"/>
       <c r="AT457" s="2"/>
     </row>
-    <row r="458" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -22759,7 +22758,7 @@
       <c r="AS458" s="2"/>
       <c r="AT458" s="2"/>
     </row>
-    <row r="459" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -22807,7 +22806,7 @@
       <c r="AS459" s="2"/>
       <c r="AT459" s="2"/>
     </row>
-    <row r="460" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -22855,7 +22854,7 @@
       <c r="AS460" s="2"/>
       <c r="AT460" s="2"/>
     </row>
-    <row r="461" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -22903,7 +22902,7 @@
       <c r="AS461" s="2"/>
       <c r="AT461" s="2"/>
     </row>
-    <row r="462" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -22951,7 +22950,7 @@
       <c r="AS462" s="2"/>
       <c r="AT462" s="2"/>
     </row>
-    <row r="463" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -22999,7 +22998,7 @@
       <c r="AS463" s="2"/>
       <c r="AT463" s="2"/>
     </row>
-    <row r="464" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -23047,7 +23046,7 @@
       <c r="AS464" s="2"/>
       <c r="AT464" s="2"/>
     </row>
-    <row r="465" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -23095,7 +23094,7 @@
       <c r="AS465" s="2"/>
       <c r="AT465" s="2"/>
     </row>
-    <row r="466" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -23143,7 +23142,7 @@
       <c r="AS466" s="2"/>
       <c r="AT466" s="2"/>
     </row>
-    <row r="467" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -23191,7 +23190,7 @@
       <c r="AS467" s="2"/>
       <c r="AT467" s="2"/>
     </row>
-    <row r="468" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -23239,7 +23238,7 @@
       <c r="AS468" s="2"/>
       <c r="AT468" s="2"/>
     </row>
-    <row r="469" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -23287,7 +23286,7 @@
       <c r="AS469" s="2"/>
       <c r="AT469" s="2"/>
     </row>
-    <row r="470" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -23335,7 +23334,7 @@
       <c r="AS470" s="2"/>
       <c r="AT470" s="2"/>
     </row>
-    <row r="471" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -23383,7 +23382,7 @@
       <c r="AS471" s="2"/>
       <c r="AT471" s="2"/>
     </row>
-    <row r="472" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -23431,7 +23430,7 @@
       <c r="AS472" s="2"/>
       <c r="AT472" s="2"/>
     </row>
-    <row r="473" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -23479,7 +23478,7 @@
       <c r="AS473" s="2"/>
       <c r="AT473" s="2"/>
     </row>
-    <row r="474" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -23527,7 +23526,7 @@
       <c r="AS474" s="2"/>
       <c r="AT474" s="2"/>
     </row>
-    <row r="475" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -23575,7 +23574,7 @@
       <c r="AS475" s="2"/>
       <c r="AT475" s="2"/>
     </row>
-    <row r="476" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -23623,7 +23622,7 @@
       <c r="AS476" s="2"/>
       <c r="AT476" s="2"/>
     </row>
-    <row r="477" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -23671,7 +23670,7 @@
       <c r="AS477" s="2"/>
       <c r="AT477" s="2"/>
     </row>
-    <row r="478" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -23719,7 +23718,7 @@
       <c r="AS478" s="2"/>
       <c r="AT478" s="2"/>
     </row>
-    <row r="479" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -23767,7 +23766,7 @@
       <c r="AS479" s="2"/>
       <c r="AT479" s="2"/>
     </row>
-    <row r="480" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -23815,7 +23814,7 @@
       <c r="AS480" s="2"/>
       <c r="AT480" s="2"/>
     </row>
-    <row r="481" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -23863,7 +23862,7 @@
       <c r="AS481" s="2"/>
       <c r="AT481" s="2"/>
     </row>
-    <row r="482" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -23911,7 +23910,7 @@
       <c r="AS482" s="2"/>
       <c r="AT482" s="2"/>
     </row>
-    <row r="483" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -23959,7 +23958,7 @@
       <c r="AS483" s="2"/>
       <c r="AT483" s="2"/>
     </row>
-    <row r="484" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -24007,7 +24006,7 @@
       <c r="AS484" s="2"/>
       <c r="AT484" s="2"/>
     </row>
-    <row r="485" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -24055,7 +24054,7 @@
       <c r="AS485" s="2"/>
       <c r="AT485" s="2"/>
     </row>
-    <row r="486" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -24103,7 +24102,7 @@
       <c r="AS486" s="2"/>
       <c r="AT486" s="2"/>
     </row>
-    <row r="487" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -24151,7 +24150,7 @@
       <c r="AS487" s="2"/>
       <c r="AT487" s="2"/>
     </row>
-    <row r="488" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -24199,7 +24198,7 @@
       <c r="AS488" s="2"/>
       <c r="AT488" s="2"/>
     </row>
-    <row r="489" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -24247,7 +24246,7 @@
       <c r="AS489" s="2"/>
       <c r="AT489" s="2"/>
     </row>
-    <row r="490" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -24295,7 +24294,7 @@
       <c r="AS490" s="2"/>
       <c r="AT490" s="2"/>
     </row>
-    <row r="491" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -24343,7 +24342,7 @@
       <c r="AS491" s="2"/>
       <c r="AT491" s="2"/>
     </row>
-    <row r="492" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -24391,7 +24390,7 @@
       <c r="AS492" s="2"/>
       <c r="AT492" s="2"/>
     </row>
-    <row r="493" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -24439,7 +24438,7 @@
       <c r="AS493" s="2"/>
       <c r="AT493" s="2"/>
     </row>
-    <row r="494" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -24487,7 +24486,7 @@
       <c r="AS494" s="2"/>
       <c r="AT494" s="2"/>
     </row>
-    <row r="495" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -24535,7 +24534,7 @@
       <c r="AS495" s="2"/>
       <c r="AT495" s="2"/>
     </row>
-    <row r="496" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -24583,7 +24582,7 @@
       <c r="AS496" s="2"/>
       <c r="AT496" s="2"/>
     </row>
-    <row r="497" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -24631,7 +24630,7 @@
       <c r="AS497" s="2"/>
       <c r="AT497" s="2"/>
     </row>
-    <row r="498" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -24679,7 +24678,7 @@
       <c r="AS498" s="2"/>
       <c r="AT498" s="2"/>
     </row>
-    <row r="499" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -24727,7 +24726,7 @@
       <c r="AS499" s="2"/>
       <c r="AT499" s="2"/>
     </row>
-    <row r="500" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -24775,7 +24774,7 @@
       <c r="AS500" s="2"/>
       <c r="AT500" s="2"/>
     </row>
-    <row r="501" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -24823,7 +24822,7 @@
       <c r="AS501" s="2"/>
       <c r="AT501" s="2"/>
     </row>
-    <row r="502" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -24871,7 +24870,7 @@
       <c r="AS502" s="2"/>
       <c r="AT502" s="2"/>
     </row>
-    <row r="503" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -24919,7 +24918,7 @@
       <c r="AS503" s="2"/>
       <c r="AT503" s="2"/>
     </row>
-    <row r="504" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -24967,7 +24966,7 @@
       <c r="AS504" s="2"/>
       <c r="AT504" s="2"/>
     </row>
-    <row r="505" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -25015,7 +25014,7 @@
       <c r="AS505" s="2"/>
       <c r="AT505" s="2"/>
     </row>
-    <row r="506" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -25063,7 +25062,7 @@
       <c r="AS506" s="2"/>
       <c r="AT506" s="2"/>
     </row>
-    <row r="507" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -25111,7 +25110,7 @@
       <c r="AS507" s="2"/>
       <c r="AT507" s="2"/>
     </row>
-    <row r="508" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -25159,7 +25158,7 @@
       <c r="AS508" s="2"/>
       <c r="AT508" s="2"/>
     </row>
-    <row r="509" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -25207,7 +25206,7 @@
       <c r="AS509" s="2"/>
       <c r="AT509" s="2"/>
     </row>
-    <row r="510" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -25255,7 +25254,7 @@
       <c r="AS510" s="2"/>
       <c r="AT510" s="2"/>
     </row>
-    <row r="511" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -25303,7 +25302,7 @@
       <c r="AS511" s="2"/>
       <c r="AT511" s="2"/>
     </row>
-    <row r="512" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -25351,7 +25350,7 @@
       <c r="AS512" s="2"/>
       <c r="AT512" s="2"/>
     </row>
-    <row r="513" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -25399,7 +25398,7 @@
       <c r="AS513" s="2"/>
       <c r="AT513" s="2"/>
     </row>
-    <row r="514" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -25447,7 +25446,7 @@
       <c r="AS514" s="2"/>
       <c r="AT514" s="2"/>
     </row>
-    <row r="515" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -25495,7 +25494,7 @@
       <c r="AS515" s="2"/>
       <c r="AT515" s="2"/>
     </row>
-    <row r="516" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -25543,7 +25542,7 @@
       <c r="AS516" s="2"/>
       <c r="AT516" s="2"/>
     </row>
-    <row r="517" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -25591,7 +25590,7 @@
       <c r="AS517" s="2"/>
       <c r="AT517" s="2"/>
     </row>
-    <row r="518" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -25639,7 +25638,7 @@
       <c r="AS518" s="2"/>
       <c r="AT518" s="2"/>
     </row>
-    <row r="519" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -25687,7 +25686,7 @@
       <c r="AS519" s="2"/>
       <c r="AT519" s="2"/>
     </row>
-    <row r="520" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -25735,7 +25734,7 @@
       <c r="AS520" s="2"/>
       <c r="AT520" s="2"/>
     </row>
-    <row r="521" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -25783,7 +25782,7 @@
       <c r="AS521" s="2"/>
       <c r="AT521" s="2"/>
     </row>
-    <row r="522" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -25831,7 +25830,7 @@
       <c r="AS522" s="2"/>
       <c r="AT522" s="2"/>
     </row>
-    <row r="523" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -25879,7 +25878,7 @@
       <c r="AS523" s="2"/>
       <c r="AT523" s="2"/>
     </row>
-    <row r="524" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -25927,7 +25926,7 @@
       <c r="AS524" s="2"/>
       <c r="AT524" s="2"/>
     </row>
-    <row r="525" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -25975,7 +25974,7 @@
       <c r="AS525" s="2"/>
       <c r="AT525" s="2"/>
     </row>
-    <row r="526" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -26023,7 +26022,7 @@
       <c r="AS526" s="2"/>
       <c r="AT526" s="2"/>
     </row>
-    <row r="527" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -26071,7 +26070,7 @@
       <c r="AS527" s="2"/>
       <c r="AT527" s="2"/>
     </row>
-    <row r="528" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -26119,7 +26118,7 @@
       <c r="AS528" s="2"/>
       <c r="AT528" s="2"/>
     </row>
-    <row r="529" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -26167,7 +26166,7 @@
       <c r="AS529" s="2"/>
       <c r="AT529" s="2"/>
     </row>
-    <row r="530" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -26215,7 +26214,7 @@
       <c r="AS530" s="2"/>
       <c r="AT530" s="2"/>
     </row>
-    <row r="531" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -26263,7 +26262,7 @@
       <c r="AS531" s="2"/>
       <c r="AT531" s="2"/>
     </row>
-    <row r="532" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -26311,7 +26310,7 @@
       <c r="AS532" s="2"/>
       <c r="AT532" s="2"/>
     </row>
-    <row r="533" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -26359,7 +26358,7 @@
       <c r="AS533" s="2"/>
       <c r="AT533" s="2"/>
     </row>
-    <row r="534" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -26407,7 +26406,7 @@
       <c r="AS534" s="2"/>
       <c r="AT534" s="2"/>
     </row>
-    <row r="535" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -26455,7 +26454,7 @@
       <c r="AS535" s="2"/>
       <c r="AT535" s="2"/>
     </row>
-    <row r="536" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -26503,7 +26502,7 @@
       <c r="AS536" s="2"/>
       <c r="AT536" s="2"/>
     </row>
-    <row r="537" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -26551,7 +26550,7 @@
       <c r="AS537" s="2"/>
       <c r="AT537" s="2"/>
     </row>
-    <row r="538" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -26599,7 +26598,7 @@
       <c r="AS538" s="2"/>
       <c r="AT538" s="2"/>
     </row>
-    <row r="539" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -26647,7 +26646,7 @@
       <c r="AS539" s="2"/>
       <c r="AT539" s="2"/>
     </row>
-    <row r="540" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -26695,7 +26694,7 @@
       <c r="AS540" s="2"/>
       <c r="AT540" s="2"/>
     </row>
-    <row r="541" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -26743,7 +26742,7 @@
       <c r="AS541" s="2"/>
       <c r="AT541" s="2"/>
     </row>
-    <row r="542" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -26791,7 +26790,7 @@
       <c r="AS542" s="2"/>
       <c r="AT542" s="2"/>
     </row>
-    <row r="543" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -26839,7 +26838,7 @@
       <c r="AS543" s="2"/>
       <c r="AT543" s="2"/>
     </row>
-    <row r="544" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -26887,7 +26886,7 @@
       <c r="AS544" s="2"/>
       <c r="AT544" s="2"/>
     </row>
-    <row r="545" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -26935,7 +26934,7 @@
       <c r="AS545" s="2"/>
       <c r="AT545" s="2"/>
     </row>
-    <row r="546" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -26983,7 +26982,7 @@
       <c r="AS546" s="2"/>
       <c r="AT546" s="2"/>
     </row>
-    <row r="547" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -27031,7 +27030,7 @@
       <c r="AS547" s="2"/>
       <c r="AT547" s="2"/>
     </row>
-    <row r="548" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -27079,7 +27078,7 @@
       <c r="AS548" s="2"/>
       <c r="AT548" s="2"/>
     </row>
-    <row r="549" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -27127,7 +27126,7 @@
       <c r="AS549" s="2"/>
       <c r="AT549" s="2"/>
     </row>
-    <row r="550" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -27175,7 +27174,7 @@
       <c r="AS550" s="2"/>
       <c r="AT550" s="2"/>
     </row>
-    <row r="551" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -27223,7 +27222,7 @@
       <c r="AS551" s="2"/>
       <c r="AT551" s="2"/>
     </row>
-    <row r="552" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -27271,7 +27270,7 @@
       <c r="AS552" s="2"/>
       <c r="AT552" s="2"/>
     </row>
-    <row r="553" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -27319,7 +27318,7 @@
       <c r="AS553" s="2"/>
       <c r="AT553" s="2"/>
     </row>
-    <row r="554" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -27367,7 +27366,7 @@
       <c r="AS554" s="2"/>
       <c r="AT554" s="2"/>
     </row>
-    <row r="555" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -27415,7 +27414,7 @@
       <c r="AS555" s="2"/>
       <c r="AT555" s="2"/>
     </row>
-    <row r="556" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -27463,7 +27462,7 @@
       <c r="AS556" s="2"/>
       <c r="AT556" s="2"/>
     </row>
-    <row r="557" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -27511,7 +27510,7 @@
       <c r="AS557" s="2"/>
       <c r="AT557" s="2"/>
     </row>
-    <row r="558" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -27559,7 +27558,7 @@
       <c r="AS558" s="2"/>
       <c r="AT558" s="2"/>
     </row>
-    <row r="559" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -27607,7 +27606,7 @@
       <c r="AS559" s="2"/>
       <c r="AT559" s="2"/>
     </row>
-    <row r="560" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -27655,7 +27654,7 @@
       <c r="AS560" s="2"/>
       <c r="AT560" s="2"/>
     </row>
-    <row r="561" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -27703,7 +27702,7 @@
       <c r="AS561" s="2"/>
       <c r="AT561" s="2"/>
     </row>
-    <row r="562" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -27751,7 +27750,7 @@
       <c r="AS562" s="2"/>
       <c r="AT562" s="2"/>
     </row>
-    <row r="563" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -27799,7 +27798,7 @@
       <c r="AS563" s="2"/>
       <c r="AT563" s="2"/>
     </row>
-    <row r="564" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -27847,7 +27846,7 @@
       <c r="AS564" s="2"/>
       <c r="AT564" s="2"/>
     </row>
-    <row r="565" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -27895,7 +27894,7 @@
       <c r="AS565" s="2"/>
       <c r="AT565" s="2"/>
     </row>
-    <row r="566" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -27943,7 +27942,7 @@
       <c r="AS566" s="2"/>
       <c r="AT566" s="2"/>
     </row>
-    <row r="567" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -27991,7 +27990,7 @@
       <c r="AS567" s="2"/>
       <c r="AT567" s="2"/>
     </row>
-    <row r="568" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -28039,7 +28038,7 @@
       <c r="AS568" s="2"/>
       <c r="AT568" s="2"/>
     </row>
-    <row r="569" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -28087,7 +28086,7 @@
       <c r="AS569" s="2"/>
       <c r="AT569" s="2"/>
     </row>
-    <row r="570" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -28135,7 +28134,7 @@
       <c r="AS570" s="2"/>
       <c r="AT570" s="2"/>
     </row>
-    <row r="571" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -28183,7 +28182,7 @@
       <c r="AS571" s="2"/>
       <c r="AT571" s="2"/>
     </row>
-    <row r="572" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -28231,7 +28230,7 @@
       <c r="AS572" s="2"/>
       <c r="AT572" s="2"/>
     </row>
-    <row r="573" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -28279,7 +28278,7 @@
       <c r="AS573" s="2"/>
       <c r="AT573" s="2"/>
     </row>
-    <row r="574" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -28327,7 +28326,7 @@
       <c r="AS574" s="2"/>
       <c r="AT574" s="2"/>
     </row>
-    <row r="575" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -28375,7 +28374,7 @@
       <c r="AS575" s="2"/>
       <c r="AT575" s="2"/>
     </row>
-    <row r="576" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -28423,7 +28422,7 @@
       <c r="AS576" s="2"/>
       <c r="AT576" s="2"/>
     </row>
-    <row r="577" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -28471,7 +28470,7 @@
       <c r="AS577" s="2"/>
       <c r="AT577" s="2"/>
     </row>
-    <row r="578" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -28519,7 +28518,7 @@
       <c r="AS578" s="2"/>
       <c r="AT578" s="2"/>
     </row>
-    <row r="579" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -28567,7 +28566,7 @@
       <c r="AS579" s="2"/>
       <c r="AT579" s="2"/>
     </row>
-    <row r="580" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -28615,7 +28614,7 @@
       <c r="AS580" s="2"/>
       <c r="AT580" s="2"/>
     </row>
-    <row r="581" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -28663,7 +28662,7 @@
       <c r="AS581" s="2"/>
       <c r="AT581" s="2"/>
     </row>
-    <row r="582" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -28711,7 +28710,7 @@
       <c r="AS582" s="2"/>
       <c r="AT582" s="2"/>
     </row>
-    <row r="583" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -28759,7 +28758,7 @@
       <c r="AS583" s="2"/>
       <c r="AT583" s="2"/>
     </row>
-    <row r="584" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -28807,7 +28806,7 @@
       <c r="AS584" s="2"/>
       <c r="AT584" s="2"/>
     </row>
-    <row r="585" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -28855,7 +28854,7 @@
       <c r="AS585" s="2"/>
       <c r="AT585" s="2"/>
     </row>
-    <row r="586" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -28903,7 +28902,7 @@
       <c r="AS586" s="2"/>
       <c r="AT586" s="2"/>
     </row>
-    <row r="587" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -28951,7 +28950,7 @@
       <c r="AS587" s="2"/>
       <c r="AT587" s="2"/>
     </row>
-    <row r="588" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -28999,7 +28998,7 @@
       <c r="AS588" s="2"/>
       <c r="AT588" s="2"/>
     </row>
-    <row r="589" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -29047,7 +29046,7 @@
       <c r="AS589" s="2"/>
       <c r="AT589" s="2"/>
     </row>
-    <row r="590" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -29095,7 +29094,7 @@
       <c r="AS590" s="2"/>
       <c r="AT590" s="2"/>
     </row>
-    <row r="591" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -29143,7 +29142,7 @@
       <c r="AS591" s="2"/>
       <c r="AT591" s="2"/>
     </row>
-    <row r="592" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -29191,7 +29190,7 @@
       <c r="AS592" s="2"/>
       <c r="AT592" s="2"/>
     </row>
-    <row r="593" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -29239,7 +29238,7 @@
       <c r="AS593" s="2"/>
       <c r="AT593" s="2"/>
     </row>
-    <row r="594" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -29287,7 +29286,7 @@
       <c r="AS594" s="2"/>
       <c r="AT594" s="2"/>
     </row>
-    <row r="595" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -29335,7 +29334,7 @@
       <c r="AS595" s="2"/>
       <c r="AT595" s="2"/>
     </row>
-    <row r="596" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -29383,7 +29382,7 @@
       <c r="AS596" s="2"/>
       <c r="AT596" s="2"/>
     </row>
-    <row r="597" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -29431,7 +29430,7 @@
       <c r="AS597" s="2"/>
       <c r="AT597" s="2"/>
     </row>
-    <row r="598" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -29479,7 +29478,7 @@
       <c r="AS598" s="2"/>
       <c r="AT598" s="2"/>
     </row>
-    <row r="599" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -29527,7 +29526,7 @@
       <c r="AS599" s="2"/>
       <c r="AT599" s="2"/>
     </row>
-    <row r="600" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -29575,7 +29574,7 @@
       <c r="AS600" s="2"/>
       <c r="AT600" s="2"/>
     </row>
-    <row r="601" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -29623,7 +29622,7 @@
       <c r="AS601" s="2"/>
       <c r="AT601" s="2"/>
     </row>
-    <row r="602" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -29671,7 +29670,7 @@
       <c r="AS602" s="2"/>
       <c r="AT602" s="2"/>
     </row>
-    <row r="603" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -29719,7 +29718,7 @@
       <c r="AS603" s="2"/>
       <c r="AT603" s="2"/>
     </row>
-    <row r="604" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -29767,7 +29766,7 @@
       <c r="AS604" s="2"/>
       <c r="AT604" s="2"/>
     </row>
-    <row r="605" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -29815,7 +29814,7 @@
       <c r="AS605" s="2"/>
       <c r="AT605" s="2"/>
     </row>
-    <row r="606" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -29863,7 +29862,7 @@
       <c r="AS606" s="2"/>
       <c r="AT606" s="2"/>
     </row>
-    <row r="607" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -29911,7 +29910,7 @@
       <c r="AS607" s="2"/>
       <c r="AT607" s="2"/>
     </row>
-    <row r="608" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -29959,7 +29958,7 @@
       <c r="AS608" s="2"/>
       <c r="AT608" s="2"/>
     </row>
-    <row r="609" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -30007,7 +30006,7 @@
       <c r="AS609" s="2"/>
       <c r="AT609" s="2"/>
     </row>
-    <row r="610" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -30055,7 +30054,7 @@
       <c r="AS610" s="2"/>
       <c r="AT610" s="2"/>
     </row>
-    <row r="611" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -30103,7 +30102,7 @@
       <c r="AS611" s="2"/>
       <c r="AT611" s="2"/>
     </row>
-    <row r="612" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -30151,7 +30150,7 @@
       <c r="AS612" s="2"/>
       <c r="AT612" s="2"/>
     </row>
-    <row r="613" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -30199,7 +30198,7 @@
       <c r="AS613" s="2"/>
       <c r="AT613" s="2"/>
     </row>
-    <row r="614" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -30247,7 +30246,7 @@
       <c r="AS614" s="2"/>
       <c r="AT614" s="2"/>
     </row>
-    <row r="615" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -30295,7 +30294,7 @@
       <c r="AS615" s="2"/>
       <c r="AT615" s="2"/>
     </row>
-    <row r="616" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -30343,7 +30342,7 @@
       <c r="AS616" s="2"/>
       <c r="AT616" s="2"/>
     </row>
-    <row r="617" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -30391,7 +30390,7 @@
       <c r="AS617" s="2"/>
       <c r="AT617" s="2"/>
     </row>
-    <row r="618" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -30439,7 +30438,7 @@
       <c r="AS618" s="2"/>
       <c r="AT618" s="2"/>
     </row>
-    <row r="619" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -30487,7 +30486,7 @@
       <c r="AS619" s="2"/>
       <c r="AT619" s="2"/>
     </row>
-    <row r="620" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -30535,7 +30534,7 @@
       <c r="AS620" s="2"/>
       <c r="AT620" s="2"/>
     </row>
-    <row r="621" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -30583,7 +30582,7 @@
       <c r="AS621" s="2"/>
       <c r="AT621" s="2"/>
     </row>
-    <row r="622" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -30631,7 +30630,7 @@
       <c r="AS622" s="2"/>
       <c r="AT622" s="2"/>
     </row>
-    <row r="623" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -30679,7 +30678,7 @@
       <c r="AS623" s="2"/>
       <c r="AT623" s="2"/>
     </row>
-    <row r="624" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -30727,7 +30726,7 @@
       <c r="AS624" s="2"/>
       <c r="AT624" s="2"/>
     </row>
-    <row r="625" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -30775,7 +30774,7 @@
       <c r="AS625" s="2"/>
       <c r="AT625" s="2"/>
     </row>
-    <row r="626" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -30823,7 +30822,7 @@
       <c r="AS626" s="2"/>
       <c r="AT626" s="2"/>
     </row>
-    <row r="627" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -30871,7 +30870,7 @@
       <c r="AS627" s="2"/>
       <c r="AT627" s="2"/>
     </row>
-    <row r="628" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -30919,7 +30918,7 @@
       <c r="AS628" s="2"/>
       <c r="AT628" s="2"/>
     </row>
-    <row r="629" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -30967,7 +30966,7 @@
       <c r="AS629" s="2"/>
       <c r="AT629" s="2"/>
     </row>
-    <row r="630" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -31015,7 +31014,7 @@
       <c r="AS630" s="2"/>
       <c r="AT630" s="2"/>
     </row>
-    <row r="631" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -31063,7 +31062,7 @@
       <c r="AS631" s="2"/>
       <c r="AT631" s="2"/>
     </row>
-    <row r="632" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -31111,7 +31110,7 @@
       <c r="AS632" s="2"/>
       <c r="AT632" s="2"/>
     </row>
-    <row r="633" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -31159,7 +31158,7 @@
       <c r="AS633" s="2"/>
       <c r="AT633" s="2"/>
     </row>
-    <row r="634" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -31207,7 +31206,7 @@
       <c r="AS634" s="2"/>
       <c r="AT634" s="2"/>
     </row>
-    <row r="635" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -31255,7 +31254,7 @@
       <c r="AS635" s="2"/>
       <c r="AT635" s="2"/>
     </row>
-    <row r="636" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -31303,7 +31302,7 @@
       <c r="AS636" s="2"/>
       <c r="AT636" s="2"/>
     </row>
-    <row r="637" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -31351,7 +31350,7 @@
       <c r="AS637" s="2"/>
       <c r="AT637" s="2"/>
     </row>
-    <row r="638" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -31399,7 +31398,7 @@
       <c r="AS638" s="2"/>
       <c r="AT638" s="2"/>
     </row>
-    <row r="639" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -31447,7 +31446,7 @@
       <c r="AS639" s="2"/>
       <c r="AT639" s="2"/>
     </row>
-    <row r="640" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -31495,7 +31494,7 @@
       <c r="AS640" s="2"/>
       <c r="AT640" s="2"/>
     </row>
-    <row r="641" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -31543,7 +31542,7 @@
       <c r="AS641" s="2"/>
       <c r="AT641" s="2"/>
     </row>
-    <row r="642" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -31591,7 +31590,7 @@
       <c r="AS642" s="2"/>
       <c r="AT642" s="2"/>
     </row>
-    <row r="643" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -31639,7 +31638,7 @@
       <c r="AS643" s="2"/>
       <c r="AT643" s="2"/>
     </row>
-    <row r="644" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -31687,7 +31686,7 @@
       <c r="AS644" s="2"/>
       <c r="AT644" s="2"/>
     </row>
-    <row r="645" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -31735,7 +31734,7 @@
       <c r="AS645" s="2"/>
       <c r="AT645" s="2"/>
     </row>
-    <row r="646" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -31783,7 +31782,7 @@
       <c r="AS646" s="2"/>
       <c r="AT646" s="2"/>
     </row>
-    <row r="647" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -31831,7 +31830,7 @@
       <c r="AS647" s="2"/>
       <c r="AT647" s="2"/>
     </row>
-    <row r="648" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -31879,7 +31878,7 @@
       <c r="AS648" s="2"/>
       <c r="AT648" s="2"/>
     </row>
-    <row r="649" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -31927,7 +31926,7 @@
       <c r="AS649" s="2"/>
       <c r="AT649" s="2"/>
     </row>
-    <row r="650" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -31975,7 +31974,7 @@
       <c r="AS650" s="2"/>
       <c r="AT650" s="2"/>
     </row>
-    <row r="651" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -32023,7 +32022,7 @@
       <c r="AS651" s="2"/>
       <c r="AT651" s="2"/>
     </row>
-    <row r="652" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -32071,7 +32070,7 @@
       <c r="AS652" s="2"/>
       <c r="AT652" s="2"/>
     </row>
-    <row r="653" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -32119,7 +32118,7 @@
       <c r="AS653" s="2"/>
       <c r="AT653" s="2"/>
     </row>
-    <row r="654" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -32167,7 +32166,7 @@
       <c r="AS654" s="2"/>
       <c r="AT654" s="2"/>
     </row>
-    <row r="655" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -32215,7 +32214,7 @@
       <c r="AS655" s="2"/>
       <c r="AT655" s="2"/>
     </row>
-    <row r="656" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -32263,7 +32262,7 @@
       <c r="AS656" s="2"/>
       <c r="AT656" s="2"/>
     </row>
-    <row r="657" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -32311,7 +32310,7 @@
       <c r="AS657" s="2"/>
       <c r="AT657" s="2"/>
     </row>
-    <row r="658" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -32359,7 +32358,7 @@
       <c r="AS658" s="2"/>
       <c r="AT658" s="2"/>
     </row>
-    <row r="659" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -32407,7 +32406,7 @@
       <c r="AS659" s="2"/>
       <c r="AT659" s="2"/>
     </row>
-    <row r="660" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -32455,7 +32454,7 @@
       <c r="AS660" s="2"/>
       <c r="AT660" s="2"/>
     </row>
-    <row r="661" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -32503,7 +32502,7 @@
       <c r="AS661" s="2"/>
       <c r="AT661" s="2"/>
     </row>
-    <row r="662" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -32551,7 +32550,7 @@
       <c r="AS662" s="2"/>
       <c r="AT662" s="2"/>
     </row>
-    <row r="663" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -32599,7 +32598,7 @@
       <c r="AS663" s="2"/>
       <c r="AT663" s="2"/>
     </row>
-    <row r="664" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -32647,7 +32646,7 @@
       <c r="AS664" s="2"/>
       <c r="AT664" s="2"/>
     </row>
-    <row r="665" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -32695,7 +32694,7 @@
       <c r="AS665" s="2"/>
       <c r="AT665" s="2"/>
     </row>
-    <row r="666" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -32743,7 +32742,7 @@
       <c r="AS666" s="2"/>
       <c r="AT666" s="2"/>
     </row>
-    <row r="667" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -32791,7 +32790,7 @@
       <c r="AS667" s="2"/>
       <c r="AT667" s="2"/>
     </row>
-    <row r="668" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -32839,7 +32838,7 @@
       <c r="AS668" s="2"/>
       <c r="AT668" s="2"/>
     </row>
-    <row r="669" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -32887,7 +32886,7 @@
       <c r="AS669" s="2"/>
       <c r="AT669" s="2"/>
     </row>
-    <row r="670" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -32935,7 +32934,7 @@
       <c r="AS670" s="2"/>
       <c r="AT670" s="2"/>
     </row>
-    <row r="671" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -32983,7 +32982,7 @@
       <c r="AS671" s="2"/>
       <c r="AT671" s="2"/>
     </row>
-    <row r="672" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -33031,7 +33030,7 @@
       <c r="AS672" s="2"/>
       <c r="AT672" s="2"/>
     </row>
-    <row r="673" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -33079,7 +33078,7 @@
       <c r="AS673" s="2"/>
       <c r="AT673" s="2"/>
     </row>
-    <row r="674" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -33127,7 +33126,7 @@
       <c r="AS674" s="2"/>
       <c r="AT674" s="2"/>
     </row>
-    <row r="675" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -33175,7 +33174,7 @@
       <c r="AS675" s="2"/>
       <c r="AT675" s="2"/>
     </row>
-    <row r="676" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -33223,7 +33222,7 @@
       <c r="AS676" s="2"/>
       <c r="AT676" s="2"/>
     </row>
-    <row r="677" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -33271,7 +33270,7 @@
       <c r="AS677" s="2"/>
       <c r="AT677" s="2"/>
     </row>
-    <row r="678" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -33319,7 +33318,7 @@
       <c r="AS678" s="2"/>
       <c r="AT678" s="2"/>
     </row>
-    <row r="679" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -33367,7 +33366,7 @@
       <c r="AS679" s="2"/>
       <c r="AT679" s="2"/>
     </row>
-    <row r="680" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -33415,7 +33414,7 @@
       <c r="AS680" s="2"/>
       <c r="AT680" s="2"/>
     </row>
-    <row r="681" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -33463,7 +33462,7 @@
       <c r="AS681" s="2"/>
       <c r="AT681" s="2"/>
     </row>
-    <row r="682" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -33511,7 +33510,7 @@
       <c r="AS682" s="2"/>
       <c r="AT682" s="2"/>
     </row>
-    <row r="683" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -33559,7 +33558,7 @@
       <c r="AS683" s="2"/>
       <c r="AT683" s="2"/>
     </row>
-    <row r="684" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -33607,7 +33606,7 @@
       <c r="AS684" s="2"/>
       <c r="AT684" s="2"/>
     </row>
-    <row r="685" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -33655,7 +33654,7 @@
       <c r="AS685" s="2"/>
       <c r="AT685" s="2"/>
     </row>
-    <row r="686" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -33703,7 +33702,7 @@
       <c r="AS686" s="2"/>
       <c r="AT686" s="2"/>
     </row>
-    <row r="687" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -33751,7 +33750,7 @@
       <c r="AS687" s="2"/>
       <c r="AT687" s="2"/>
     </row>
-    <row r="688" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -33799,7 +33798,7 @@
       <c r="AS688" s="2"/>
       <c r="AT688" s="2"/>
     </row>
-    <row r="689" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -33847,7 +33846,7 @@
       <c r="AS689" s="2"/>
       <c r="AT689" s="2"/>
     </row>
-    <row r="690" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -33895,7 +33894,7 @@
       <c r="AS690" s="2"/>
       <c r="AT690" s="2"/>
     </row>
-    <row r="691" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -33943,7 +33942,7 @@
       <c r="AS691" s="2"/>
       <c r="AT691" s="2"/>
     </row>
-    <row r="692" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -33991,7 +33990,7 @@
       <c r="AS692" s="2"/>
       <c r="AT692" s="2"/>
     </row>
-    <row r="693" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -34039,7 +34038,7 @@
       <c r="AS693" s="2"/>
       <c r="AT693" s="2"/>
     </row>
-    <row r="694" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -34087,7 +34086,7 @@
       <c r="AS694" s="2"/>
       <c r="AT694" s="2"/>
     </row>
-    <row r="695" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -34135,7 +34134,7 @@
       <c r="AS695" s="2"/>
       <c r="AT695" s="2"/>
     </row>
-    <row r="696" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -34183,7 +34182,7 @@
       <c r="AS696" s="2"/>
       <c r="AT696" s="2"/>
     </row>
-    <row r="697" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -34231,7 +34230,7 @@
       <c r="AS697" s="2"/>
       <c r="AT697" s="2"/>
     </row>
-    <row r="698" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -34279,7 +34278,7 @@
       <c r="AS698" s="2"/>
       <c r="AT698" s="2"/>
     </row>
-    <row r="699" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -34327,7 +34326,7 @@
       <c r="AS699" s="2"/>
       <c r="AT699" s="2"/>
     </row>
-    <row r="700" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -34375,7 +34374,7 @@
       <c r="AS700" s="2"/>
       <c r="AT700" s="2"/>
     </row>
-    <row r="701" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -34423,7 +34422,7 @@
       <c r="AS701" s="2"/>
       <c r="AT701" s="2"/>
     </row>
-    <row r="702" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -34471,7 +34470,7 @@
       <c r="AS702" s="2"/>
       <c r="AT702" s="2"/>
     </row>
-    <row r="703" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -34519,7 +34518,7 @@
       <c r="AS703" s="2"/>
       <c r="AT703" s="2"/>
     </row>
-    <row r="704" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -34567,7 +34566,7 @@
       <c r="AS704" s="2"/>
       <c r="AT704" s="2"/>
     </row>
-    <row r="705" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -34615,7 +34614,7 @@
       <c r="AS705" s="2"/>
       <c r="AT705" s="2"/>
     </row>
-    <row r="706" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -34663,7 +34662,7 @@
       <c r="AS706" s="2"/>
       <c r="AT706" s="2"/>
     </row>
-    <row r="707" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -34711,7 +34710,7 @@
       <c r="AS707" s="2"/>
       <c r="AT707" s="2"/>
     </row>
-    <row r="708" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -34759,7 +34758,7 @@
       <c r="AS708" s="2"/>
       <c r="AT708" s="2"/>
     </row>
-    <row r="709" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -34807,7 +34806,7 @@
       <c r="AS709" s="2"/>
       <c r="AT709" s="2"/>
     </row>
-    <row r="710" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -34855,7 +34854,7 @@
       <c r="AS710" s="2"/>
       <c r="AT710" s="2"/>
     </row>
-    <row r="711" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -34903,7 +34902,7 @@
       <c r="AS711" s="2"/>
       <c r="AT711" s="2"/>
     </row>
-    <row r="712" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -34951,7 +34950,7 @@
       <c r="AS712" s="2"/>
       <c r="AT712" s="2"/>
     </row>
-    <row r="713" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -34999,7 +34998,7 @@
       <c r="AS713" s="2"/>
       <c r="AT713" s="2"/>
     </row>
-    <row r="714" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -35047,7 +35046,7 @@
       <c r="AS714" s="2"/>
       <c r="AT714" s="2"/>
     </row>
-    <row r="715" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -35095,7 +35094,7 @@
       <c r="AS715" s="2"/>
       <c r="AT715" s="2"/>
     </row>
-    <row r="716" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -35143,7 +35142,7 @@
       <c r="AS716" s="2"/>
       <c r="AT716" s="2"/>
     </row>
-    <row r="717" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -35191,7 +35190,7 @@
       <c r="AS717" s="2"/>
       <c r="AT717" s="2"/>
     </row>
-    <row r="718" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -35239,7 +35238,7 @@
       <c r="AS718" s="2"/>
       <c r="AT718" s="2"/>
     </row>
-    <row r="719" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -35287,7 +35286,7 @@
       <c r="AS719" s="2"/>
       <c r="AT719" s="2"/>
     </row>
-    <row r="720" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -35335,7 +35334,7 @@
       <c r="AS720" s="2"/>
       <c r="AT720" s="2"/>
     </row>
-    <row r="721" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -35383,7 +35382,7 @@
       <c r="AS721" s="2"/>
       <c r="AT721" s="2"/>
     </row>
-    <row r="722" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -35431,7 +35430,7 @@
       <c r="AS722" s="2"/>
       <c r="AT722" s="2"/>
     </row>
-    <row r="723" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -35479,7 +35478,7 @@
       <c r="AS723" s="2"/>
       <c r="AT723" s="2"/>
     </row>
-    <row r="724" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -35527,7 +35526,7 @@
       <c r="AS724" s="2"/>
       <c r="AT724" s="2"/>
     </row>
-    <row r="725" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -35575,7 +35574,7 @@
       <c r="AS725" s="2"/>
       <c r="AT725" s="2"/>
     </row>
-    <row r="726" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -35623,7 +35622,7 @@
       <c r="AS726" s="2"/>
       <c r="AT726" s="2"/>
     </row>
-    <row r="727" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -35671,7 +35670,7 @@
       <c r="AS727" s="2"/>
       <c r="AT727" s="2"/>
     </row>
-    <row r="728" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -35719,7 +35718,7 @@
       <c r="AS728" s="2"/>
       <c r="AT728" s="2"/>
     </row>
-    <row r="729" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -35767,7 +35766,7 @@
       <c r="AS729" s="2"/>
       <c r="AT729" s="2"/>
     </row>
-    <row r="730" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -35815,7 +35814,7 @@
       <c r="AS730" s="2"/>
       <c r="AT730" s="2"/>
     </row>
-    <row r="731" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -35863,7 +35862,7 @@
       <c r="AS731" s="2"/>
       <c r="AT731" s="2"/>
     </row>
-    <row r="732" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -35911,7 +35910,7 @@
       <c r="AS732" s="2"/>
       <c r="AT732" s="2"/>
     </row>
-    <row r="733" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -35959,7 +35958,7 @@
       <c r="AS733" s="2"/>
       <c r="AT733" s="2"/>
     </row>
-    <row r="734" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -36007,7 +36006,7 @@
       <c r="AS734" s="2"/>
       <c r="AT734" s="2"/>
     </row>
-    <row r="735" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -36055,7 +36054,7 @@
       <c r="AS735" s="2"/>
       <c r="AT735" s="2"/>
     </row>
-    <row r="736" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -36103,7 +36102,7 @@
       <c r="AS736" s="2"/>
       <c r="AT736" s="2"/>
     </row>
-    <row r="737" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -36151,7 +36150,7 @@
       <c r="AS737" s="2"/>
       <c r="AT737" s="2"/>
     </row>
-    <row r="738" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -36199,7 +36198,7 @@
       <c r="AS738" s="2"/>
       <c r="AT738" s="2"/>
     </row>
-    <row r="739" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -36247,7 +36246,7 @@
       <c r="AS739" s="2"/>
       <c r="AT739" s="2"/>
     </row>
-    <row r="740" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -36295,7 +36294,7 @@
       <c r="AS740" s="2"/>
       <c r="AT740" s="2"/>
     </row>
-    <row r="741" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -36343,7 +36342,7 @@
       <c r="AS741" s="2"/>
       <c r="AT741" s="2"/>
     </row>
-    <row r="742" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -36391,7 +36390,7 @@
       <c r="AS742" s="2"/>
       <c r="AT742" s="2"/>
     </row>
-    <row r="743" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -36439,7 +36438,7 @@
       <c r="AS743" s="2"/>
       <c r="AT743" s="2"/>
     </row>
-    <row r="744" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -36487,7 +36486,7 @@
       <c r="AS744" s="2"/>
       <c r="AT744" s="2"/>
     </row>
-    <row r="745" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -36535,7 +36534,7 @@
       <c r="AS745" s="2"/>
       <c r="AT745" s="2"/>
     </row>
-    <row r="746" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -36583,7 +36582,7 @@
       <c r="AS746" s="2"/>
       <c r="AT746" s="2"/>
     </row>
-    <row r="747" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -36631,7 +36630,7 @@
       <c r="AS747" s="2"/>
       <c r="AT747" s="2"/>
     </row>
-    <row r="748" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -36679,7 +36678,7 @@
       <c r="AS748" s="2"/>
       <c r="AT748" s="2"/>
     </row>
-    <row r="749" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -36727,7 +36726,7 @@
       <c r="AS749" s="2"/>
       <c r="AT749" s="2"/>
     </row>
-    <row r="750" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -36775,7 +36774,7 @@
       <c r="AS750" s="2"/>
       <c r="AT750" s="2"/>
     </row>
-    <row r="751" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -36823,7 +36822,7 @@
       <c r="AS751" s="2"/>
       <c r="AT751" s="2"/>
     </row>
-    <row r="752" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -36871,7 +36870,7 @@
       <c r="AS752" s="2"/>
       <c r="AT752" s="2"/>
     </row>
-    <row r="753" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -36919,7 +36918,7 @@
       <c r="AS753" s="2"/>
       <c r="AT753" s="2"/>
     </row>
-    <row r="754" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -36967,7 +36966,7 @@
       <c r="AS754" s="2"/>
       <c r="AT754" s="2"/>
     </row>
-    <row r="755" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -37015,7 +37014,7 @@
       <c r="AS755" s="2"/>
       <c r="AT755" s="2"/>
     </row>
-    <row r="756" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -37063,7 +37062,7 @@
       <c r="AS756" s="2"/>
       <c r="AT756" s="2"/>
     </row>
-    <row r="757" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -37111,7 +37110,7 @@
       <c r="AS757" s="2"/>
       <c r="AT757" s="2"/>
     </row>
-    <row r="758" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -37159,7 +37158,7 @@
       <c r="AS758" s="2"/>
       <c r="AT758" s="2"/>
     </row>
-    <row r="759" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -37207,7 +37206,7 @@
       <c r="AS759" s="2"/>
       <c r="AT759" s="2"/>
     </row>
-    <row r="760" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -37255,7 +37254,7 @@
       <c r="AS760" s="2"/>
       <c r="AT760" s="2"/>
     </row>
-    <row r="761" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -37303,7 +37302,7 @@
       <c r="AS761" s="2"/>
       <c r="AT761" s="2"/>
     </row>
-    <row r="762" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -37351,7 +37350,7 @@
       <c r="AS762" s="2"/>
       <c r="AT762" s="2"/>
     </row>
-    <row r="763" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -37399,7 +37398,7 @@
       <c r="AS763" s="2"/>
       <c r="AT763" s="2"/>
     </row>
-    <row r="764" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -37447,7 +37446,7 @@
       <c r="AS764" s="2"/>
       <c r="AT764" s="2"/>
     </row>
-    <row r="765" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -37495,7 +37494,7 @@
       <c r="AS765" s="2"/>
       <c r="AT765" s="2"/>
     </row>
-    <row r="766" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -37543,7 +37542,7 @@
       <c r="AS766" s="2"/>
       <c r="AT766" s="2"/>
     </row>
-    <row r="767" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -37591,7 +37590,7 @@
       <c r="AS767" s="2"/>
       <c r="AT767" s="2"/>
     </row>
-    <row r="768" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -37639,7 +37638,7 @@
       <c r="AS768" s="2"/>
       <c r="AT768" s="2"/>
     </row>
-    <row r="769" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -37687,7 +37686,7 @@
       <c r="AS769" s="2"/>
       <c r="AT769" s="2"/>
     </row>
-    <row r="770" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -37735,7 +37734,7 @@
       <c r="AS770" s="2"/>
       <c r="AT770" s="2"/>
     </row>
-    <row r="771" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -37783,7 +37782,7 @@
       <c r="AS771" s="2"/>
       <c r="AT771" s="2"/>
     </row>
-    <row r="772" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -37831,7 +37830,7 @@
       <c r="AS772" s="2"/>
       <c r="AT772" s="2"/>
     </row>
-    <row r="773" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -37879,7 +37878,7 @@
       <c r="AS773" s="2"/>
       <c r="AT773" s="2"/>
     </row>
-    <row r="774" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -37927,7 +37926,7 @@
       <c r="AS774" s="2"/>
       <c r="AT774" s="2"/>
     </row>
-    <row r="775" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -37975,7 +37974,7 @@
       <c r="AS775" s="2"/>
       <c r="AT775" s="2"/>
     </row>
-    <row r="776" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -38023,7 +38022,7 @@
       <c r="AS776" s="2"/>
       <c r="AT776" s="2"/>
     </row>
-    <row r="777" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -38071,7 +38070,7 @@
       <c r="AS777" s="2"/>
       <c r="AT777" s="2"/>
     </row>
-    <row r="778" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -38119,7 +38118,7 @@
       <c r="AS778" s="2"/>
       <c r="AT778" s="2"/>
     </row>
-    <row r="779" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -38167,7 +38166,7 @@
       <c r="AS779" s="2"/>
       <c r="AT779" s="2"/>
     </row>
-    <row r="780" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -38215,7 +38214,7 @@
       <c r="AS780" s="2"/>
       <c r="AT780" s="2"/>
     </row>
-    <row r="781" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -38263,7 +38262,7 @@
       <c r="AS781" s="2"/>
       <c r="AT781" s="2"/>
     </row>
-    <row r="782" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -38311,7 +38310,7 @@
       <c r="AS782" s="2"/>
       <c r="AT782" s="2"/>
     </row>
-    <row r="783" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -38359,7 +38358,7 @@
       <c r="AS783" s="2"/>
       <c r="AT783" s="2"/>
     </row>
-    <row r="784" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -38407,7 +38406,7 @@
       <c r="AS784" s="2"/>
       <c r="AT784" s="2"/>
     </row>
-    <row r="785" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -38455,7 +38454,7 @@
       <c r="AS785" s="2"/>
       <c r="AT785" s="2"/>
     </row>
-    <row r="786" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -38503,7 +38502,7 @@
       <c r="AS786" s="2"/>
       <c r="AT786" s="2"/>
     </row>
-    <row r="787" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -38551,7 +38550,7 @@
       <c r="AS787" s="2"/>
       <c r="AT787" s="2"/>
     </row>
-    <row r="788" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -38599,7 +38598,7 @@
       <c r="AS788" s="2"/>
       <c r="AT788" s="2"/>
     </row>
-    <row r="789" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -38647,7 +38646,7 @@
       <c r="AS789" s="2"/>
       <c r="AT789" s="2"/>
     </row>
-    <row r="790" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -38695,7 +38694,7 @@
       <c r="AS790" s="2"/>
       <c r="AT790" s="2"/>
     </row>
-    <row r="791" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -38743,7 +38742,7 @@
       <c r="AS791" s="2"/>
       <c r="AT791" s="2"/>
     </row>
-    <row r="792" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -38791,7 +38790,7 @@
       <c r="AS792" s="2"/>
       <c r="AT792" s="2"/>
     </row>
-    <row r="793" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -38839,7 +38838,7 @@
       <c r="AS793" s="2"/>
       <c r="AT793" s="2"/>
     </row>
-    <row r="794" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -38887,7 +38886,7 @@
       <c r="AS794" s="2"/>
       <c r="AT794" s="2"/>
     </row>
-    <row r="795" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -38935,7 +38934,7 @@
       <c r="AS795" s="2"/>
       <c r="AT795" s="2"/>
     </row>
-    <row r="796" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -38983,7 +38982,7 @@
       <c r="AS796" s="2"/>
       <c r="AT796" s="2"/>
     </row>
-    <row r="797" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -39031,7 +39030,7 @@
       <c r="AS797" s="2"/>
       <c r="AT797" s="2"/>
     </row>
-    <row r="798" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -39079,7 +39078,7 @@
       <c r="AS798" s="2"/>
       <c r="AT798" s="2"/>
     </row>
-    <row r="799" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -39127,7 +39126,7 @@
       <c r="AS799" s="2"/>
       <c r="AT799" s="2"/>
     </row>
-    <row r="800" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -39175,7 +39174,7 @@
       <c r="AS800" s="2"/>
       <c r="AT800" s="2"/>
     </row>
-    <row r="801" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -39223,7 +39222,7 @@
       <c r="AS801" s="2"/>
       <c r="AT801" s="2"/>
     </row>
-    <row r="802" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -39271,7 +39270,7 @@
       <c r="AS802" s="2"/>
       <c r="AT802" s="2"/>
     </row>
-    <row r="803" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -39319,7 +39318,7 @@
       <c r="AS803" s="2"/>
       <c r="AT803" s="2"/>
     </row>
-    <row r="804" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -39367,7 +39366,7 @@
       <c r="AS804" s="2"/>
       <c r="AT804" s="2"/>
     </row>
-    <row r="805" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -39415,7 +39414,7 @@
       <c r="AS805" s="2"/>
       <c r="AT805" s="2"/>
     </row>
-    <row r="806" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -39463,7 +39462,7 @@
       <c r="AS806" s="2"/>
       <c r="AT806" s="2"/>
     </row>
-    <row r="807" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -39511,7 +39510,7 @@
       <c r="AS807" s="2"/>
       <c r="AT807" s="2"/>
     </row>
-    <row r="808" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -39559,7 +39558,7 @@
       <c r="AS808" s="2"/>
       <c r="AT808" s="2"/>
     </row>
-    <row r="809" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -39607,7 +39606,7 @@
       <c r="AS809" s="2"/>
       <c r="AT809" s="2"/>
     </row>
-    <row r="810" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -39655,7 +39654,7 @@
       <c r="AS810" s="2"/>
       <c r="AT810" s="2"/>
     </row>
-    <row r="811" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -39703,7 +39702,7 @@
       <c r="AS811" s="2"/>
       <c r="AT811" s="2"/>
     </row>
-    <row r="812" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -39751,7 +39750,7 @@
       <c r="AS812" s="2"/>
       <c r="AT812" s="2"/>
     </row>
-    <row r="813" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -39799,7 +39798,7 @@
       <c r="AS813" s="2"/>
       <c r="AT813" s="2"/>
     </row>
-    <row r="814" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -39847,7 +39846,7 @@
       <c r="AS814" s="2"/>
       <c r="AT814" s="2"/>
     </row>
-    <row r="815" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -39895,7 +39894,7 @@
       <c r="AS815" s="2"/>
       <c r="AT815" s="2"/>
     </row>
-    <row r="816" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -39943,7 +39942,7 @@
       <c r="AS816" s="2"/>
       <c r="AT816" s="2"/>
     </row>
-    <row r="817" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -39991,7 +39990,7 @@
       <c r="AS817" s="2"/>
       <c r="AT817" s="2"/>
     </row>
-    <row r="818" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -40039,7 +40038,7 @@
       <c r="AS818" s="2"/>
       <c r="AT818" s="2"/>
     </row>
-    <row r="819" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -40087,7 +40086,7 @@
       <c r="AS819" s="2"/>
       <c r="AT819" s="2"/>
     </row>
-    <row r="820" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -40135,7 +40134,7 @@
       <c r="AS820" s="2"/>
       <c r="AT820" s="2"/>
     </row>
-    <row r="821" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -40183,7 +40182,7 @@
       <c r="AS821" s="2"/>
       <c r="AT821" s="2"/>
     </row>
-    <row r="822" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -40231,7 +40230,7 @@
       <c r="AS822" s="2"/>
       <c r="AT822" s="2"/>
     </row>
-    <row r="823" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -40279,7 +40278,7 @@
       <c r="AS823" s="2"/>
       <c r="AT823" s="2"/>
     </row>
-    <row r="824" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -40327,7 +40326,7 @@
       <c r="AS824" s="2"/>
       <c r="AT824" s="2"/>
     </row>
-    <row r="825" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -40375,7 +40374,7 @@
       <c r="AS825" s="2"/>
       <c r="AT825" s="2"/>
     </row>
-    <row r="826" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -40423,7 +40422,7 @@
       <c r="AS826" s="2"/>
       <c r="AT826" s="2"/>
     </row>
-    <row r="827" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -40471,7 +40470,7 @@
       <c r="AS827" s="2"/>
       <c r="AT827" s="2"/>
     </row>
-    <row r="828" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -40519,7 +40518,7 @@
       <c r="AS828" s="2"/>
       <c r="AT828" s="2"/>
     </row>
-    <row r="829" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -40567,7 +40566,7 @@
       <c r="AS829" s="2"/>
       <c r="AT829" s="2"/>
     </row>
-    <row r="830" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -40615,7 +40614,7 @@
       <c r="AS830" s="2"/>
       <c r="AT830" s="2"/>
     </row>
-    <row r="831" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -40663,7 +40662,7 @@
       <c r="AS831" s="2"/>
       <c r="AT831" s="2"/>
     </row>
-    <row r="832" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -40711,7 +40710,7 @@
       <c r="AS832" s="2"/>
       <c r="AT832" s="2"/>
     </row>
-    <row r="833" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -40759,7 +40758,7 @@
       <c r="AS833" s="2"/>
       <c r="AT833" s="2"/>
     </row>
-    <row r="834" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -40807,7 +40806,7 @@
       <c r="AS834" s="2"/>
       <c r="AT834" s="2"/>
     </row>
-    <row r="835" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -40855,7 +40854,7 @@
       <c r="AS835" s="2"/>
       <c r="AT835" s="2"/>
     </row>
-    <row r="836" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -40903,7 +40902,7 @@
       <c r="AS836" s="2"/>
       <c r="AT836" s="2"/>
     </row>
-    <row r="837" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -40951,7 +40950,7 @@
       <c r="AS837" s="2"/>
       <c r="AT837" s="2"/>
     </row>
-    <row r="838" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -40999,7 +40998,7 @@
       <c r="AS838" s="2"/>
       <c r="AT838" s="2"/>
     </row>
-    <row r="839" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -41047,7 +41046,7 @@
       <c r="AS839" s="2"/>
       <c r="AT839" s="2"/>
     </row>
-    <row r="840" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -41095,7 +41094,7 @@
       <c r="AS840" s="2"/>
       <c r="AT840" s="2"/>
     </row>
-    <row r="841" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -41143,7 +41142,7 @@
       <c r="AS841" s="2"/>
       <c r="AT841" s="2"/>
     </row>
-    <row r="842" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -41191,7 +41190,7 @@
       <c r="AS842" s="2"/>
       <c r="AT842" s="2"/>
     </row>
-    <row r="843" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -41239,7 +41238,7 @@
       <c r="AS843" s="2"/>
       <c r="AT843" s="2"/>
     </row>
-    <row r="844" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -41287,7 +41286,7 @@
       <c r="AS844" s="2"/>
       <c r="AT844" s="2"/>
     </row>
-    <row r="845" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -41335,7 +41334,7 @@
       <c r="AS845" s="2"/>
       <c r="AT845" s="2"/>
     </row>
-    <row r="846" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -41383,7 +41382,7 @@
       <c r="AS846" s="2"/>
       <c r="AT846" s="2"/>
     </row>
-    <row r="847" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -41431,7 +41430,7 @@
       <c r="AS847" s="2"/>
       <c r="AT847" s="2"/>
     </row>
-    <row r="848" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -41479,7 +41478,7 @@
       <c r="AS848" s="2"/>
       <c r="AT848" s="2"/>
     </row>
-    <row r="849" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -41527,7 +41526,7 @@
       <c r="AS849" s="2"/>
       <c r="AT849" s="2"/>
     </row>
-    <row r="850" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -41575,7 +41574,7 @@
       <c r="AS850" s="2"/>
       <c r="AT850" s="2"/>
     </row>
-    <row r="851" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -41623,7 +41622,7 @@
       <c r="AS851" s="2"/>
       <c r="AT851" s="2"/>
     </row>
-    <row r="852" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -41671,7 +41670,7 @@
       <c r="AS852" s="2"/>
       <c r="AT852" s="2"/>
     </row>
-    <row r="853" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -41719,7 +41718,7 @@
       <c r="AS853" s="2"/>
       <c r="AT853" s="2"/>
     </row>
-    <row r="854" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -41767,7 +41766,7 @@
       <c r="AS854" s="2"/>
       <c r="AT854" s="2"/>
     </row>
-    <row r="855" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -41815,7 +41814,7 @@
       <c r="AS855" s="2"/>
       <c r="AT855" s="2"/>
     </row>
-    <row r="856" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -41863,7 +41862,7 @@
       <c r="AS856" s="2"/>
       <c r="AT856" s="2"/>
     </row>
-    <row r="857" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -41911,7 +41910,7 @@
       <c r="AS857" s="2"/>
       <c r="AT857" s="2"/>
     </row>
-    <row r="858" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -41959,7 +41958,7 @@
       <c r="AS858" s="2"/>
       <c r="AT858" s="2"/>
     </row>
-    <row r="859" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -42007,7 +42006,7 @@
       <c r="AS859" s="2"/>
       <c r="AT859" s="2"/>
     </row>
-    <row r="860" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -42055,7 +42054,7 @@
       <c r="AS860" s="2"/>
       <c r="AT860" s="2"/>
     </row>
-    <row r="861" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -42103,7 +42102,7 @@
       <c r="AS861" s="2"/>
       <c r="AT861" s="2"/>
     </row>
-    <row r="862" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -42151,7 +42150,7 @@
       <c r="AS862" s="2"/>
       <c r="AT862" s="2"/>
     </row>
-    <row r="863" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -42199,7 +42198,7 @@
       <c r="AS863" s="2"/>
       <c r="AT863" s="2"/>
     </row>
-    <row r="864" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -42247,7 +42246,7 @@
       <c r="AS864" s="2"/>
       <c r="AT864" s="2"/>
     </row>
-    <row r="865" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -42295,7 +42294,7 @@
       <c r="AS865" s="2"/>
       <c r="AT865" s="2"/>
     </row>
-    <row r="866" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -42343,7 +42342,7 @@
       <c r="AS866" s="2"/>
       <c r="AT866" s="2"/>
     </row>
-    <row r="867" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -42391,7 +42390,7 @@
       <c r="AS867" s="2"/>
       <c r="AT867" s="2"/>
     </row>
-    <row r="868" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -42439,7 +42438,7 @@
       <c r="AS868" s="2"/>
       <c r="AT868" s="2"/>
     </row>
-    <row r="869" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -42487,7 +42486,7 @@
       <c r="AS869" s="2"/>
       <c r="AT869" s="2"/>
     </row>
-    <row r="870" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -42535,7 +42534,7 @@
       <c r="AS870" s="2"/>
       <c r="AT870" s="2"/>
     </row>
-    <row r="871" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -42583,7 +42582,7 @@
       <c r="AS871" s="2"/>
       <c r="AT871" s="2"/>
     </row>
-    <row r="872" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -42631,7 +42630,7 @@
       <c r="AS872" s="2"/>
       <c r="AT872" s="2"/>
     </row>
-    <row r="873" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -42679,7 +42678,7 @@
       <c r="AS873" s="2"/>
       <c r="AT873" s="2"/>
     </row>
-    <row r="874" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -42727,7 +42726,7 @@
       <c r="AS874" s="2"/>
       <c r="AT874" s="2"/>
     </row>
-    <row r="875" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -42775,7 +42774,7 @@
       <c r="AS875" s="2"/>
       <c r="AT875" s="2"/>
     </row>
-    <row r="876" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -42823,7 +42822,7 @@
       <c r="AS876" s="2"/>
       <c r="AT876" s="2"/>
     </row>
-    <row r="877" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -42871,7 +42870,7 @@
       <c r="AS877" s="2"/>
       <c r="AT877" s="2"/>
     </row>
-    <row r="878" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -42919,7 +42918,7 @@
       <c r="AS878" s="2"/>
       <c r="AT878" s="2"/>
     </row>
-    <row r="879" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -42967,7 +42966,7 @@
       <c r="AS879" s="2"/>
       <c r="AT879" s="2"/>
     </row>
-    <row r="880" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -43015,7 +43014,7 @@
       <c r="AS880" s="2"/>
       <c r="AT880" s="2"/>
     </row>
-    <row r="881" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -43063,7 +43062,7 @@
       <c r="AS881" s="2"/>
       <c r="AT881" s="2"/>
     </row>
-    <row r="882" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -43111,7 +43110,7 @@
       <c r="AS882" s="2"/>
       <c r="AT882" s="2"/>
     </row>
-    <row r="883" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -43159,7 +43158,7 @@
       <c r="AS883" s="2"/>
       <c r="AT883" s="2"/>
     </row>
-    <row r="884" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -43207,7 +43206,7 @@
       <c r="AS884" s="2"/>
       <c r="AT884" s="2"/>
     </row>
-    <row r="885" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -43255,7 +43254,7 @@
       <c r="AS885" s="2"/>
       <c r="AT885" s="2"/>
     </row>
-    <row r="886" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -43303,7 +43302,7 @@
       <c r="AS886" s="2"/>
       <c r="AT886" s="2"/>
     </row>
-    <row r="887" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -43351,7 +43350,7 @@
       <c r="AS887" s="2"/>
       <c r="AT887" s="2"/>
     </row>
-    <row r="888" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -43399,7 +43398,7 @@
       <c r="AS888" s="2"/>
       <c r="AT888" s="2"/>
     </row>
-    <row r="889" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -43447,7 +43446,7 @@
       <c r="AS889" s="2"/>
       <c r="AT889" s="2"/>
     </row>
-    <row r="890" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -43495,7 +43494,7 @@
       <c r="AS890" s="2"/>
       <c r="AT890" s="2"/>
     </row>
-    <row r="891" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -43543,7 +43542,7 @@
       <c r="AS891" s="2"/>
       <c r="AT891" s="2"/>
     </row>
-    <row r="892" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -43591,7 +43590,7 @@
       <c r="AS892" s="2"/>
       <c r="AT892" s="2"/>
     </row>
-    <row r="893" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -43639,7 +43638,7 @@
       <c r="AS893" s="2"/>
       <c r="AT893" s="2"/>
     </row>
-    <row r="894" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -43687,7 +43686,7 @@
       <c r="AS894" s="2"/>
       <c r="AT894" s="2"/>
     </row>
-    <row r="895" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -43735,7 +43734,7 @@
       <c r="AS895" s="2"/>
       <c r="AT895" s="2"/>
     </row>
-    <row r="896" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -43783,7 +43782,7 @@
       <c r="AS896" s="2"/>
       <c r="AT896" s="2"/>
     </row>
-    <row r="897" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -43831,7 +43830,7 @@
       <c r="AS897" s="2"/>
       <c r="AT897" s="2"/>
     </row>
-    <row r="898" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -43879,7 +43878,7 @@
       <c r="AS898" s="2"/>
       <c r="AT898" s="2"/>
     </row>
-    <row r="899" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -43927,7 +43926,7 @@
       <c r="AS899" s="2"/>
       <c r="AT899" s="2"/>
     </row>
-    <row r="900" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -43975,7 +43974,7 @@
       <c r="AS900" s="2"/>
       <c r="AT900" s="2"/>
     </row>
-    <row r="901" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -44023,7 +44022,7 @@
       <c r="AS901" s="2"/>
       <c r="AT901" s="2"/>
     </row>
-    <row r="902" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -44071,7 +44070,7 @@
       <c r="AS902" s="2"/>
       <c r="AT902" s="2"/>
     </row>
-    <row r="903" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -44119,7 +44118,7 @@
       <c r="AS903" s="2"/>
       <c r="AT903" s="2"/>
     </row>
-    <row r="904" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -44167,7 +44166,7 @@
       <c r="AS904" s="2"/>
       <c r="AT904" s="2"/>
     </row>
-    <row r="905" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -44215,7 +44214,7 @@
       <c r="AS905" s="2"/>
       <c r="AT905" s="2"/>
     </row>
-    <row r="906" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -44263,7 +44262,7 @@
       <c r="AS906" s="2"/>
       <c r="AT906" s="2"/>
     </row>
-    <row r="907" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -44311,7 +44310,7 @@
       <c r="AS907" s="2"/>
       <c r="AT907" s="2"/>
     </row>
-    <row r="908" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -44359,7 +44358,7 @@
       <c r="AS908" s="2"/>
       <c r="AT908" s="2"/>
     </row>
-    <row r="909" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -44407,7 +44406,7 @@
       <c r="AS909" s="2"/>
       <c r="AT909" s="2"/>
     </row>
-    <row r="910" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -44455,7 +44454,7 @@
       <c r="AS910" s="2"/>
       <c r="AT910" s="2"/>
     </row>
-    <row r="911" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -44503,7 +44502,7 @@
       <c r="AS911" s="2"/>
       <c r="AT911" s="2"/>
     </row>
-    <row r="912" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -44551,7 +44550,7 @@
       <c r="AS912" s="2"/>
       <c r="AT912" s="2"/>
     </row>
-    <row r="913" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -44599,7 +44598,7 @@
       <c r="AS913" s="2"/>
       <c r="AT913" s="2"/>
     </row>
-    <row r="914" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -44647,7 +44646,7 @@
       <c r="AS914" s="2"/>
       <c r="AT914" s="2"/>
     </row>
-    <row r="915" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -44695,7 +44694,7 @@
       <c r="AS915" s="2"/>
       <c r="AT915" s="2"/>
     </row>
-    <row r="916" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -44743,7 +44742,7 @@
       <c r="AS916" s="2"/>
       <c r="AT916" s="2"/>
     </row>
-    <row r="917" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -44791,7 +44790,7 @@
       <c r="AS917" s="2"/>
       <c r="AT917" s="2"/>
     </row>
-    <row r="918" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -44839,7 +44838,7 @@
       <c r="AS918" s="2"/>
       <c r="AT918" s="2"/>
     </row>
-    <row r="919" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -44887,7 +44886,7 @@
       <c r="AS919" s="2"/>
       <c r="AT919" s="2"/>
     </row>
-    <row r="920" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -44935,7 +44934,7 @@
       <c r="AS920" s="2"/>
       <c r="AT920" s="2"/>
     </row>
-    <row r="921" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -44983,7 +44982,7 @@
       <c r="AS921" s="2"/>
       <c r="AT921" s="2"/>
     </row>
-    <row r="922" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -45031,7 +45030,7 @@
       <c r="AS922" s="2"/>
       <c r="AT922" s="2"/>
     </row>
-    <row r="923" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -45079,7 +45078,7 @@
       <c r="AS923" s="2"/>
       <c r="AT923" s="2"/>
     </row>
-    <row r="924" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -45127,7 +45126,7 @@
       <c r="AS924" s="2"/>
       <c r="AT924" s="2"/>
     </row>
-    <row r="925" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -45175,7 +45174,7 @@
       <c r="AS925" s="2"/>
       <c r="AT925" s="2"/>
     </row>
-    <row r="926" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -45223,7 +45222,7 @@
       <c r="AS926" s="2"/>
       <c r="AT926" s="2"/>
     </row>
-    <row r="927" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -45271,7 +45270,7 @@
       <c r="AS927" s="2"/>
       <c r="AT927" s="2"/>
     </row>
-    <row r="928" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -45319,7 +45318,7 @@
       <c r="AS928" s="2"/>
       <c r="AT928" s="2"/>
     </row>
-    <row r="929" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -45367,7 +45366,7 @@
       <c r="AS929" s="2"/>
       <c r="AT929" s="2"/>
     </row>
-    <row r="930" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -45415,7 +45414,7 @@
       <c r="AS930" s="2"/>
       <c r="AT930" s="2"/>
     </row>
-    <row r="931" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -45463,7 +45462,7 @@
       <c r="AS931" s="2"/>
       <c r="AT931" s="2"/>
     </row>
-    <row r="932" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -45511,7 +45510,7 @@
       <c r="AS932" s="2"/>
       <c r="AT932" s="2"/>
     </row>
-    <row r="933" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -45559,7 +45558,7 @@
       <c r="AS933" s="2"/>
       <c r="AT933" s="2"/>
     </row>
-    <row r="934" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -45607,7 +45606,7 @@
       <c r="AS934" s="2"/>
       <c r="AT934" s="2"/>
     </row>
-    <row r="935" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -45655,7 +45654,7 @@
       <c r="AS935" s="2"/>
       <c r="AT935" s="2"/>
     </row>
-    <row r="936" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -45703,7 +45702,7 @@
       <c r="AS936" s="2"/>
       <c r="AT936" s="2"/>
     </row>
-    <row r="937" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -45751,7 +45750,7 @@
       <c r="AS937" s="2"/>
       <c r="AT937" s="2"/>
     </row>
-    <row r="938" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -45799,7 +45798,7 @@
       <c r="AS938" s="2"/>
       <c r="AT938" s="2"/>
     </row>
-    <row r="939" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -45847,7 +45846,7 @@
       <c r="AS939" s="2"/>
       <c r="AT939" s="2"/>
     </row>
-    <row r="940" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -45895,7 +45894,7 @@
       <c r="AS940" s="2"/>
       <c r="AT940" s="2"/>
     </row>
-    <row r="941" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -45943,7 +45942,7 @@
       <c r="AS941" s="2"/>
       <c r="AT941" s="2"/>
     </row>
-    <row r="942" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -45991,7 +45990,7 @@
       <c r="AS942" s="2"/>
       <c r="AT942" s="2"/>
     </row>
-    <row r="943" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -46039,7 +46038,7 @@
       <c r="AS943" s="2"/>
       <c r="AT943" s="2"/>
     </row>
-    <row r="944" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -46087,7 +46086,7 @@
       <c r="AS944" s="2"/>
       <c r="AT944" s="2"/>
     </row>
-    <row r="945" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -46135,7 +46134,7 @@
       <c r="AS945" s="2"/>
       <c r="AT945" s="2"/>
     </row>
-    <row r="946" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -46183,7 +46182,7 @@
       <c r="AS946" s="2"/>
       <c r="AT946" s="2"/>
     </row>
-    <row r="947" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -46231,7 +46230,7 @@
       <c r="AS947" s="2"/>
       <c r="AT947" s="2"/>
     </row>
-    <row r="948" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -46279,7 +46278,7 @@
       <c r="AS948" s="2"/>
       <c r="AT948" s="2"/>
     </row>
-    <row r="949" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -46327,7 +46326,7 @@
       <c r="AS949" s="2"/>
       <c r="AT949" s="2"/>
     </row>
-    <row r="950" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -46375,7 +46374,7 @@
       <c r="AS950" s="2"/>
       <c r="AT950" s="2"/>
     </row>
-    <row r="951" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -46423,7 +46422,7 @@
       <c r="AS951" s="2"/>
       <c r="AT951" s="2"/>
     </row>
-    <row r="952" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -46471,7 +46470,7 @@
       <c r="AS952" s="2"/>
       <c r="AT952" s="2"/>
     </row>
-    <row r="953" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -46519,7 +46518,7 @@
       <c r="AS953" s="2"/>
       <c r="AT953" s="2"/>
     </row>
-    <row r="954" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -46567,7 +46566,7 @@
       <c r="AS954" s="2"/>
       <c r="AT954" s="2"/>
     </row>
-    <row r="955" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -46615,7 +46614,7 @@
       <c r="AS955" s="2"/>
       <c r="AT955" s="2"/>
     </row>
-    <row r="956" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -46663,7 +46662,7 @@
       <c r="AS956" s="2"/>
       <c r="AT956" s="2"/>
     </row>
-    <row r="957" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -46711,7 +46710,7 @@
       <c r="AS957" s="2"/>
       <c r="AT957" s="2"/>
     </row>
-    <row r="958" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -46759,7 +46758,7 @@
       <c r="AS958" s="2"/>
       <c r="AT958" s="2"/>
     </row>
-    <row r="959" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -46807,7 +46806,7 @@
       <c r="AS959" s="2"/>
       <c r="AT959" s="2"/>
     </row>
-    <row r="960" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -46855,7 +46854,7 @@
       <c r="AS960" s="2"/>
       <c r="AT960" s="2"/>
     </row>
-    <row r="961" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -46903,7 +46902,7 @@
       <c r="AS961" s="2"/>
       <c r="AT961" s="2"/>
     </row>
-    <row r="962" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -46951,7 +46950,7 @@
       <c r="AS962" s="2"/>
       <c r="AT962" s="2"/>
     </row>
-    <row r="963" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -46999,7 +46998,7 @@
       <c r="AS963" s="2"/>
       <c r="AT963" s="2"/>
     </row>
-    <row r="964" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -47047,7 +47046,7 @@
       <c r="AS964" s="2"/>
       <c r="AT964" s="2"/>
     </row>
-    <row r="965" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -47095,7 +47094,7 @@
       <c r="AS965" s="2"/>
       <c r="AT965" s="2"/>
     </row>
-    <row r="966" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -47143,7 +47142,7 @@
       <c r="AS966" s="2"/>
       <c r="AT966" s="2"/>
     </row>
-    <row r="967" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -47191,7 +47190,7 @@
       <c r="AS967" s="2"/>
       <c r="AT967" s="2"/>
     </row>
-    <row r="968" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -47239,7 +47238,7 @@
       <c r="AS968" s="2"/>
       <c r="AT968" s="2"/>
     </row>
-    <row r="969" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -47287,7 +47286,7 @@
       <c r="AS969" s="2"/>
       <c r="AT969" s="2"/>
     </row>
-    <row r="970" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -47335,7 +47334,7 @@
       <c r="AS970" s="2"/>
       <c r="AT970" s="2"/>
     </row>
-    <row r="971" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -47383,7 +47382,7 @@
       <c r="AS971" s="2"/>
       <c r="AT971" s="2"/>
     </row>
-    <row r="972" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -47431,7 +47430,7 @@
       <c r="AS972" s="2"/>
       <c r="AT972" s="2"/>
     </row>
-    <row r="973" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -47479,7 +47478,7 @@
       <c r="AS973" s="2"/>
       <c r="AT973" s="2"/>
     </row>
-    <row r="974" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -47527,7 +47526,7 @@
       <c r="AS974" s="2"/>
       <c r="AT974" s="2"/>
     </row>
-    <row r="975" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -47575,7 +47574,7 @@
       <c r="AS975" s="2"/>
       <c r="AT975" s="2"/>
     </row>
-    <row r="976" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -47623,7 +47622,7 @@
       <c r="AS976" s="2"/>
       <c r="AT976" s="2"/>
     </row>
-    <row r="977" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -47671,7 +47670,7 @@
       <c r="AS977" s="2"/>
       <c r="AT977" s="2"/>
     </row>
-    <row r="978" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -47719,7 +47718,7 @@
       <c r="AS978" s="2"/>
       <c r="AT978" s="2"/>
     </row>
-    <row r="979" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -47767,7 +47766,7 @@
       <c r="AS979" s="2"/>
       <c r="AT979" s="2"/>
     </row>
-    <row r="980" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -47815,7 +47814,7 @@
       <c r="AS980" s="2"/>
       <c r="AT980" s="2"/>
     </row>
-    <row r="981" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -47863,7 +47862,7 @@
       <c r="AS981" s="2"/>
       <c r="AT981" s="2"/>
     </row>
-    <row r="982" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -47911,7 +47910,7 @@
       <c r="AS982" s="2"/>
       <c r="AT982" s="2"/>
     </row>
-    <row r="983" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -47959,7 +47958,7 @@
       <c r="AS983" s="2"/>
       <c r="AT983" s="2"/>
     </row>
-    <row r="984" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -48007,7 +48006,7 @@
       <c r="AS984" s="2"/>
       <c r="AT984" s="2"/>
     </row>
-    <row r="985" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -48055,7 +48054,7 @@
       <c r="AS985" s="2"/>
       <c r="AT985" s="2"/>
     </row>
-    <row r="986" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -48103,7 +48102,7 @@
       <c r="AS986" s="2"/>
       <c r="AT986" s="2"/>
     </row>
-    <row r="987" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -48151,7 +48150,7 @@
       <c r="AS987" s="2"/>
       <c r="AT987" s="2"/>
     </row>
-    <row r="988" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -48199,7 +48198,7 @@
       <c r="AS988" s="2"/>
       <c r="AT988" s="2"/>
     </row>
-    <row r="989" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -48247,7 +48246,7 @@
       <c r="AS989" s="2"/>
       <c r="AT989" s="2"/>
     </row>
-    <row r="990" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -48295,7 +48294,7 @@
       <c r="AS990" s="2"/>
       <c r="AT990" s="2"/>
     </row>
-    <row r="991" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -48343,7 +48342,7 @@
       <c r="AS991" s="2"/>
       <c r="AT991" s="2"/>
     </row>
-    <row r="992" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -48391,7 +48390,7 @@
       <c r="AS992" s="2"/>
       <c r="AT992" s="2"/>
     </row>
-    <row r="993" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -48439,7 +48438,7 @@
       <c r="AS993" s="2"/>
       <c r="AT993" s="2"/>
     </row>
-    <row r="994" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -48487,7 +48486,7 @@
       <c r="AS994" s="2"/>
       <c r="AT994" s="2"/>
     </row>
-    <row r="995" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -48535,7 +48534,7 @@
       <c r="AS995" s="2"/>
       <c r="AT995" s="2"/>
     </row>
-    <row r="996" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB89610-4082-4D8B-8612-756C7AF00300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44A7A5-2402-4FDC-B607-91A795A7B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44A7A5-2402-4FDC-B607-91A795A7B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4DAFB1-8672-44E3-9BB7-F10E7F553505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -290,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -436,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227282D2-5AA4-473C-AF99-D5044BFF688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7569C-E946-4C6F-A548-270F3E403097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>TGH-52H-TGNM</t>
-  </si>
-  <si>
     <t>2023-08-22</t>
   </si>
   <si>
@@ -222,7 +219,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>a5lk0a-tlk6uhc</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -290,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -436,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,7 +590,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,65 +776,65 @@
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -842,30 +842,30 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7569C-E946-4C6F-A548-270F3E403097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D9C59-82DC-4683-B2E2-55504C4C4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D9C59-82DC-4683-B2E2-55504C4C4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1C705-2209-454A-8D62-50BBF885B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
